--- a/BackTest/2019-11-21 BackTest WOM.xlsx
+++ b/BackTest/2019-11-21 BackTest WOM.xlsx
@@ -2306,17 +2306,13 @@
         <v>116</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>115</v>
-      </c>
-      <c r="K55" t="n">
-        <v>115</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
@@ -2351,270 +2347,230 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>115</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>117</v>
+      </c>
+      <c r="C57" t="n">
+        <v>115</v>
+      </c>
+      <c r="D57" t="n">
+        <v>117</v>
+      </c>
+      <c r="E57" t="n">
+        <v>115</v>
+      </c>
+      <c r="F57" t="n">
+        <v>96</v>
+      </c>
+      <c r="G57" t="n">
+        <v>116</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>115</v>
+      </c>
+      <c r="C58" t="n">
+        <v>115</v>
+      </c>
+      <c r="D58" t="n">
+        <v>115</v>
+      </c>
+      <c r="E58" t="n">
+        <v>115</v>
+      </c>
+      <c r="F58" t="n">
+        <v>356.89</v>
+      </c>
+      <c r="G58" t="n">
+        <v>115</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>115</v>
+      </c>
+      <c r="C59" t="n">
+        <v>115</v>
+      </c>
+      <c r="D59" t="n">
+        <v>115</v>
+      </c>
+      <c r="E59" t="n">
+        <v>115</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1631.1285</v>
+      </c>
+      <c r="G59" t="n">
+        <v>115</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>114</v>
+      </c>
+      <c r="C60" t="n">
+        <v>114</v>
+      </c>
+      <c r="D60" t="n">
+        <v>114</v>
+      </c>
+      <c r="E60" t="n">
+        <v>114</v>
+      </c>
+      <c r="F60" t="n">
+        <v>6931.5268</v>
+      </c>
+      <c r="G60" t="n">
+        <v>114.5</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>114</v>
+      </c>
+      <c r="C61" t="n">
+        <v>114</v>
+      </c>
+      <c r="D61" t="n">
+        <v>114</v>
+      </c>
+      <c r="E61" t="n">
+        <v>114</v>
+      </c>
+      <c r="F61" t="n">
+        <v>42.5459</v>
+      </c>
+      <c r="G61" t="n">
+        <v>114</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>114</v>
+      </c>
+      <c r="K61" t="n">
+        <v>114</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>116</v>
+      </c>
+      <c r="C62" t="n">
+        <v>116</v>
+      </c>
+      <c r="D62" t="n">
+        <v>116</v>
+      </c>
+      <c r="E62" t="n">
+        <v>116</v>
+      </c>
+      <c r="F62" t="n">
+        <v>5</v>
+      </c>
+      <c r="G62" t="n">
+        <v>115</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>114</v>
+      </c>
+      <c r="K62" t="n">
+        <v>114</v>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>117</v>
-      </c>
-      <c r="C57" t="n">
-        <v>115</v>
-      </c>
-      <c r="D57" t="n">
-        <v>117</v>
-      </c>
-      <c r="E57" t="n">
-        <v>115</v>
-      </c>
-      <c r="F57" t="n">
-        <v>96</v>
-      </c>
-      <c r="G57" t="n">
-        <v>116</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>117</v>
-      </c>
-      <c r="K57" t="n">
-        <v>115</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>115</v>
-      </c>
-      <c r="C58" t="n">
-        <v>115</v>
-      </c>
-      <c r="D58" t="n">
-        <v>115</v>
-      </c>
-      <c r="E58" t="n">
-        <v>115</v>
-      </c>
-      <c r="F58" t="n">
-        <v>356.89</v>
-      </c>
-      <c r="G58" t="n">
-        <v>115</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>115</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>115</v>
-      </c>
-      <c r="C59" t="n">
-        <v>115</v>
-      </c>
-      <c r="D59" t="n">
-        <v>115</v>
-      </c>
-      <c r="E59" t="n">
-        <v>115</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1631.1285</v>
-      </c>
-      <c r="G59" t="n">
-        <v>115</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>115</v>
-      </c>
-      <c r="K59" t="n">
-        <v>115</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>114</v>
-      </c>
-      <c r="C60" t="n">
-        <v>114</v>
-      </c>
-      <c r="D60" t="n">
-        <v>114</v>
-      </c>
-      <c r="E60" t="n">
-        <v>114</v>
-      </c>
-      <c r="F60" t="n">
-        <v>6931.5268</v>
-      </c>
-      <c r="G60" t="n">
-        <v>114.5</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>114</v>
-      </c>
-      <c r="K60" t="n">
-        <v>115</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>114</v>
-      </c>
-      <c r="C61" t="n">
-        <v>114</v>
-      </c>
-      <c r="D61" t="n">
-        <v>114</v>
-      </c>
-      <c r="E61" t="n">
-        <v>114</v>
-      </c>
-      <c r="F61" t="n">
-        <v>42.5459</v>
-      </c>
-      <c r="G61" t="n">
-        <v>114</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>114</v>
-      </c>
-      <c r="K61" t="n">
-        <v>115</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>116</v>
-      </c>
-      <c r="C62" t="n">
-        <v>116</v>
-      </c>
-      <c r="D62" t="n">
-        <v>116</v>
-      </c>
-      <c r="E62" t="n">
-        <v>116</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5</v>
-      </c>
-      <c r="G62" t="n">
-        <v>115</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>116</v>
-      </c>
-      <c r="K62" t="n">
-        <v>115</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2648,14 +2604,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
+        <v>116</v>
+      </c>
+      <c r="K63" t="n">
         <v>114</v>
-      </c>
-      <c r="K63" t="n">
-        <v>115</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M63" t="n">
@@ -2691,16 +2647,12 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K64" t="n">
-        <v>115</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2728,20 +2680,18 @@
         <v>114.5</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
         <v>114</v>
-      </c>
-      <c r="K65" t="n">
-        <v>115</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M65" t="n">
@@ -2777,14 +2727,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K66" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M66" t="n">
@@ -2814,22 +2764,14 @@
         <v>114.5</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>114</v>
-      </c>
-      <c r="K67" t="n">
-        <v>115</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2857,22 +2799,14 @@
         <v>114.5</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>115</v>
-      </c>
-      <c r="K68" t="n">
-        <v>115</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2900,22 +2834,14 @@
         <v>115</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>115</v>
-      </c>
-      <c r="K69" t="n">
-        <v>115</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2943,22 +2869,14 @@
         <v>115</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>115</v>
-      </c>
-      <c r="K70" t="n">
-        <v>115</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2986,22 +2904,14 @@
         <v>115.5</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>116</v>
-      </c>
-      <c r="K71" t="n">
-        <v>115</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3029,22 +2939,14 @@
         <v>115.5</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>115</v>
-      </c>
-      <c r="K72" t="n">
-        <v>115</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3072,22 +2974,14 @@
         <v>115.5</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>116</v>
-      </c>
-      <c r="K73" t="n">
-        <v>115</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3115,22 +3009,14 @@
         <v>116</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>116</v>
-      </c>
-      <c r="K74" t="n">
-        <v>115</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3158,22 +3044,14 @@
         <v>116</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>116</v>
-      </c>
-      <c r="K75" t="n">
-        <v>115</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3201,22 +3079,14 @@
         <v>116</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>116</v>
-      </c>
-      <c r="K76" t="n">
-        <v>115</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3244,22 +3114,14 @@
         <v>115.5</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>115</v>
-      </c>
-      <c r="K77" t="n">
-        <v>115</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3287,22 +3149,14 @@
         <v>115</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>115</v>
-      </c>
-      <c r="K78" t="n">
-        <v>115</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3330,22 +3184,14 @@
         <v>115.5</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>116</v>
-      </c>
-      <c r="K79" t="n">
-        <v>115</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3219,14 @@
         <v>115.5</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>115</v>
-      </c>
-      <c r="K80" t="n">
-        <v>115</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3416,22 +3254,14 @@
         <v>115.5</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>116</v>
-      </c>
-      <c r="K81" t="n">
-        <v>115</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3459,22 +3289,14 @@
         <v>116</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>116</v>
-      </c>
-      <c r="K82" t="n">
-        <v>115</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3502,22 +3324,14 @@
         <v>116.5</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>117</v>
-      </c>
-      <c r="K83" t="n">
-        <v>115</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3545,22 +3359,14 @@
         <v>117</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>117</v>
-      </c>
-      <c r="K84" t="n">
-        <v>115</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3588,22 +3394,14 @@
         <v>117</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>117</v>
-      </c>
-      <c r="K85" t="n">
-        <v>115</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3631,22 +3429,14 @@
         <v>117.5</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>118</v>
-      </c>
-      <c r="K86" t="n">
-        <v>115</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3674,22 +3464,14 @@
         <v>118.5</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>119</v>
-      </c>
-      <c r="K87" t="n">
-        <v>115</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3723,14 +3505,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>115</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3764,14 +3540,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>115</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3805,14 +3575,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>115</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3846,14 +3610,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>115</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3887,14 +3645,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>115</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3928,14 +3680,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>115</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3969,14 +3715,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>115</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4010,14 +3750,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>115</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4051,14 +3785,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>115</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4092,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>115</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4133,14 +3855,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>115</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4174,14 +3890,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>115</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4215,14 +3925,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>115</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4256,14 +3960,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>115</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4297,14 +3995,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>115</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4338,14 +4030,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>115</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4379,14 +4065,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>115</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4420,14 +4100,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>115</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4461,14 +4135,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>115</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4502,14 +4170,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>115</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4543,14 +4205,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>115</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4584,14 +4240,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>115</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4622,17 +4272,11 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>115</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4666,14 +4310,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>115</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4707,14 +4345,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>115</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4748,14 +4380,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>115</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4789,14 +4415,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>115</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4830,14 +4450,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>115</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4868,17 +4482,11 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>115</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4912,14 +4520,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>115</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4953,14 +4555,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>115</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4994,16 +4590,10 @@
         <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>115</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>1.090652173913043</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -5032,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5067,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>

--- a/BackTest/2019-11-21 BackTest WOM.xlsx
+++ b/BackTest/2019-11-21 BackTest WOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M209"/>
+  <dimension ref="A1:M210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" t="n">
         <v>118</v>
       </c>
       <c r="D2" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" t="n">
         <v>118</v>
       </c>
       <c r="F2" t="n">
-        <v>12.7574</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>118</v>
+        <v>116.9666666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>119</v>
       </c>
       <c r="C3" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" t="n">
         <v>119</v>
       </c>
       <c r="E3" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7</v>
+        <v>12.7574</v>
       </c>
       <c r="G3" t="n">
-        <v>118.5</v>
+        <v>116.9833333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="G4" t="n">
-        <v>119.5</v>
+        <v>117</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C5" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D5" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E5" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F5" t="n">
         <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>119.5</v>
+        <v>117.0333333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>119</v>
+        <v>117.0666666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>119</v>
       </c>
       <c r="F7" t="n">
-        <v>4.2323</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>119</v>
+        <v>117.05</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" t="n">
         <v>119</v>
@@ -652,13 +652,13 @@
         <v>119</v>
       </c>
       <c r="E8" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F8" t="n">
-        <v>9.9687</v>
+        <v>4.2323</v>
       </c>
       <c r="G8" t="n">
-        <v>119</v>
+        <v>117.0666666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" t="n">
         <v>119</v>
@@ -687,13 +687,13 @@
         <v>119</v>
       </c>
       <c r="E9" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F9" t="n">
-        <v>15.799</v>
+        <v>9.9687</v>
       </c>
       <c r="G9" t="n">
-        <v>119</v>
+        <v>117.1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>119</v>
       </c>
       <c r="F10" t="n">
-        <v>150</v>
+        <v>15.799</v>
       </c>
       <c r="G10" t="n">
-        <v>119</v>
+        <v>117.1333333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>119</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G11" t="n">
-        <v>119</v>
+        <v>117.1333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C12" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D12" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E12" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F12" t="n">
-        <v>31.3939</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>118.5</v>
+        <v>117.1666666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>118</v>
       </c>
       <c r="F13" t="n">
-        <v>95</v>
+        <v>31.3939</v>
       </c>
       <c r="G13" t="n">
-        <v>118</v>
+        <v>117.15</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" t="n">
         <v>118</v>
       </c>
       <c r="D14" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E14" t="n">
         <v>118</v>
       </c>
       <c r="F14" t="n">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="G14" t="n">
-        <v>118</v>
+        <v>117.15</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C15" t="n">
         <v>118</v>
       </c>
       <c r="D15" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E15" t="n">
         <v>118</v>
       </c>
       <c r="F15" t="n">
-        <v>2643.1445</v>
+        <v>67</v>
       </c>
       <c r="G15" t="n">
-        <v>118</v>
+        <v>117.15</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>118</v>
       </c>
       <c r="F16" t="n">
-        <v>22.7176</v>
+        <v>2643.1445</v>
       </c>
       <c r="G16" t="n">
-        <v>118</v>
+        <v>117.1666666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E17" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>22.7176</v>
       </c>
       <c r="G17" t="n">
-        <v>118.5</v>
+        <v>117.1833333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>119</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>119</v>
+        <v>117.2166666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>119</v>
+        <v>117.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>119</v>
       </c>
       <c r="E20" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>119</v>
+        <v>117.3666666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>119</v>
       </c>
       <c r="E21" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F21" t="n">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="G21" t="n">
-        <v>119</v>
+        <v>117.45</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C22" t="n">
         <v>119</v>
@@ -1145,10 +1145,10 @@
         <v>117</v>
       </c>
       <c r="F22" t="n">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="G22" t="n">
-        <v>119</v>
+        <v>117.5166666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>117</v>
       </c>
       <c r="C23" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D23" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E23" t="n">
         <v>117</v>
       </c>
       <c r="F23" t="n">
-        <v>14.7051</v>
+        <v>15</v>
       </c>
       <c r="G23" t="n">
-        <v>118.5</v>
+        <v>117.55</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C24" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D24" t="n">
         <v>118</v>
@@ -1215,10 +1215,10 @@
         <v>117</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>14.7051</v>
       </c>
       <c r="G24" t="n">
-        <v>117.5</v>
+        <v>117.5666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>118</v>
       </c>
       <c r="C25" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D25" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E25" t="n">
         <v>117</v>
       </c>
       <c r="F25" t="n">
-        <v>24.946</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>118</v>
+        <v>117.5666666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C26" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D26" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E26" t="n">
         <v>117</v>
       </c>
       <c r="F26" t="n">
-        <v>2653.1446</v>
+        <v>24.946</v>
       </c>
       <c r="G26" t="n">
-        <v>118</v>
+        <v>117.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>117</v>
       </c>
       <c r="F27" t="n">
-        <v>34</v>
+        <v>2653.1446</v>
       </c>
       <c r="G27" t="n">
-        <v>117</v>
+        <v>117.6166666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D28" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E28" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G28" t="n">
-        <v>117.5</v>
+        <v>117.6333333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C29" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D29" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E29" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G29" t="n">
-        <v>118.5</v>
+        <v>117.65</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C30" t="n">
         <v>119</v>
@@ -1422,13 +1422,13 @@
         <v>119</v>
       </c>
       <c r="E30" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>119</v>
+        <v>117.7166666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>118</v>
       </c>
       <c r="C31" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D31" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E31" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G31" t="n">
-        <v>118.5</v>
+        <v>117.7666666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>118</v>
       </c>
       <c r="F32" t="n">
-        <v>13.035</v>
+        <v>5</v>
       </c>
       <c r="G32" t="n">
-        <v>118</v>
+        <v>117.8166666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C33" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D33" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E33" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>13.035</v>
       </c>
       <c r="G33" t="n">
-        <v>117.5</v>
+        <v>117.85</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C34" t="n">
         <v>117</v>
       </c>
       <c r="D34" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E34" t="n">
         <v>117</v>
       </c>
       <c r="F34" t="n">
-        <v>107.1</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>117</v>
+        <v>117.8666666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>118</v>
       </c>
       <c r="C35" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D35" t="n">
         <v>118</v>
       </c>
       <c r="E35" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>107.1</v>
       </c>
       <c r="G35" t="n">
-        <v>117.5</v>
+        <v>117.8833333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C36" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D36" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E36" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F36" t="n">
-        <v>8.19</v>
+        <v>5</v>
       </c>
       <c r="G36" t="n">
-        <v>117.5</v>
+        <v>117.9166666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>117</v>
       </c>
       <c r="C37" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E37" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F37" t="n">
-        <v>7027.7684</v>
+        <v>8.19</v>
       </c>
       <c r="G37" t="n">
-        <v>117.5</v>
+        <v>117.9333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C38" t="n">
         <v>118</v>
@@ -1702,13 +1702,13 @@
         <v>118</v>
       </c>
       <c r="E38" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>7027.7684</v>
       </c>
       <c r="G38" t="n">
-        <v>118</v>
+        <v>117.9666666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C39" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E39" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F39" t="n">
-        <v>18.4275</v>
+        <v>5</v>
       </c>
       <c r="G39" t="n">
-        <v>117</v>
+        <v>118.0166666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C40" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E40" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F40" t="n">
-        <v>3564.7857</v>
+        <v>18.4275</v>
       </c>
       <c r="G40" t="n">
-        <v>116.5</v>
+        <v>118.0166666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C41" t="n">
         <v>117</v>
       </c>
       <c r="D41" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E41" t="n">
         <v>117</v>
       </c>
       <c r="F41" t="n">
-        <v>15968.6119</v>
+        <v>3564.7857</v>
       </c>
       <c r="G41" t="n">
-        <v>117</v>
+        <v>118.05</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C42" t="n">
         <v>117</v>
       </c>
       <c r="D42" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E42" t="n">
         <v>117</v>
       </c>
       <c r="F42" t="n">
-        <v>10.1819</v>
+        <v>15968.6119</v>
       </c>
       <c r="G42" t="n">
-        <v>117</v>
+        <v>118.0666666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>117</v>
       </c>
       <c r="C43" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D43" t="n">
         <v>117</v>
       </c>
       <c r="E43" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F43" t="n">
-        <v>15963.612</v>
+        <v>10.1819</v>
       </c>
       <c r="G43" t="n">
-        <v>116</v>
+        <v>118.0833333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D44" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E44" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>15963.612</v>
       </c>
       <c r="G44" t="n">
-        <v>116.5</v>
+        <v>118.0666666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C45" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D45" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E45" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F45" t="n">
-        <v>5.5282</v>
+        <v>5</v>
       </c>
       <c r="G45" t="n">
-        <v>117</v>
+        <v>118.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C46" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D46" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E46" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>5.5282</v>
       </c>
       <c r="G46" t="n">
-        <v>117</v>
+        <v>118.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C47" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D47" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E47" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F47" t="n">
-        <v>12.4385</v>
+        <v>5</v>
       </c>
       <c r="G47" t="n">
-        <v>116.5</v>
+        <v>118.1333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D48" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E48" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F48" t="n">
-        <v>50</v>
+        <v>12.4385</v>
       </c>
       <c r="G48" t="n">
-        <v>116</v>
+        <v>118.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C49" t="n">
         <v>117</v>
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="E49" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F49" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G49" t="n">
-        <v>117</v>
+        <v>118.0833333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C50" t="n">
         <v>117</v>
@@ -2125,10 +2125,10 @@
         <v>115</v>
       </c>
       <c r="F50" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G50" t="n">
-        <v>117</v>
+        <v>118.0833333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2151,19 @@
         <v>115</v>
       </c>
       <c r="C51" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D51" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E51" t="n">
         <v>115</v>
       </c>
       <c r="F51" t="n">
-        <v>5.3289</v>
+        <v>15</v>
       </c>
       <c r="G51" t="n">
-        <v>116</v>
+        <v>118.0666666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C52" t="n">
         <v>115</v>
       </c>
       <c r="D52" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E52" t="n">
         <v>115</v>
       </c>
       <c r="F52" t="n">
-        <v>12.9934</v>
+        <v>5.3289</v>
       </c>
       <c r="G52" t="n">
-        <v>115</v>
+        <v>118.0166666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C53" t="n">
         <v>115</v>
       </c>
       <c r="D53" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E53" t="n">
         <v>115</v>
       </c>
       <c r="F53" t="n">
-        <v>151</v>
+        <v>12.9934</v>
       </c>
       <c r="G53" t="n">
-        <v>115</v>
+        <v>117.95</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C54" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D54" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E54" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="G54" t="n">
-        <v>116</v>
+        <v>117.9166666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,31 +2288,35 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C55" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D55" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E55" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F55" t="n">
         <v>5</v>
       </c>
       <c r="G55" t="n">
-        <v>116</v>
+        <v>117.9166666666667</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>115</v>
+      </c>
+      <c r="K55" t="n">
+        <v>115</v>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
@@ -2323,22 +2327,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C56" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D56" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E56" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F56" t="n">
-        <v>6.4274</v>
+        <v>5</v>
       </c>
       <c r="G56" t="n">
-        <v>116</v>
+        <v>117.85</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,8 +2351,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>115</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2361,29 +2371,35 @@
         <v>117</v>
       </c>
       <c r="C57" t="n">
+        <v>117</v>
+      </c>
+      <c r="D57" t="n">
+        <v>117</v>
+      </c>
+      <c r="E57" t="n">
+        <v>117</v>
+      </c>
+      <c r="F57" t="n">
+        <v>6.4274</v>
+      </c>
+      <c r="G57" t="n">
+        <v>117.8</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
         <v>115</v>
       </c>
-      <c r="D57" t="n">
-        <v>117</v>
-      </c>
-      <c r="E57" t="n">
-        <v>115</v>
-      </c>
-      <c r="F57" t="n">
-        <v>96</v>
-      </c>
-      <c r="G57" t="n">
-        <v>116</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2409,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C58" t="n">
         <v>115</v>
       </c>
       <c r="D58" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E58" t="n">
         <v>115</v>
       </c>
       <c r="F58" t="n">
-        <v>356.89</v>
+        <v>96</v>
       </c>
       <c r="G58" t="n">
-        <v>115</v>
+        <v>117.7166666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2456,10 @@
         <v>115</v>
       </c>
       <c r="F59" t="n">
-        <v>1631.1285</v>
+        <v>356.89</v>
       </c>
       <c r="G59" t="n">
-        <v>115</v>
+        <v>117.65</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2479,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C60" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D60" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E60" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F60" t="n">
-        <v>6931.5268</v>
+        <v>1631.1285</v>
       </c>
       <c r="G60" t="n">
-        <v>114.5</v>
+        <v>117.5833333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2526,10 @@
         <v>114</v>
       </c>
       <c r="F61" t="n">
-        <v>42.5459</v>
+        <v>6931.5268</v>
       </c>
       <c r="G61" t="n">
-        <v>114</v>
+        <v>117.5</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
@@ -2522,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K61" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
@@ -2537,34 +2553,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C62" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D62" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E62" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>42.5459</v>
       </c>
       <c r="G62" t="n">
+        <v>117.4333333333333</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
         <v>115</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>114</v>
-      </c>
-      <c r="K62" t="n">
-        <v>114</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2580,34 +2594,34 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>116</v>
+      </c>
+      <c r="C63" t="n">
+        <v>116</v>
+      </c>
+      <c r="D63" t="n">
+        <v>116</v>
+      </c>
+      <c r="E63" t="n">
+        <v>116</v>
+      </c>
+      <c r="F63" t="n">
+        <v>5</v>
+      </c>
+      <c r="G63" t="n">
+        <v>117.4</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
         <v>114</v>
       </c>
-      <c r="C63" t="n">
-        <v>114</v>
-      </c>
-      <c r="D63" t="n">
-        <v>114</v>
-      </c>
-      <c r="E63" t="n">
-        <v>114</v>
-      </c>
-      <c r="F63" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G63" t="n">
+      <c r="K63" t="n">
         <v>115</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>116</v>
-      </c>
-      <c r="K63" t="n">
-        <v>114</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2623,35 +2637,31 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C64" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D64" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E64" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F64" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="G64" t="n">
-        <v>114.5</v>
+        <v>117.3166666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>114</v>
-      </c>
-      <c r="K64" t="n">
-        <v>114</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
@@ -2662,22 +2672,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C65" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D65" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E65" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F65" t="n">
-        <v>15579.8113</v>
+        <v>5</v>
       </c>
       <c r="G65" t="n">
-        <v>114.5</v>
+        <v>117.2333333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2686,14 +2696,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>114</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2703,40 +2707,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C66" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D66" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E66" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F66" t="n">
-        <v>5</v>
+        <v>15579.8113</v>
       </c>
       <c r="G66" t="n">
-        <v>114.5</v>
+        <v>117.15</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>114</v>
-      </c>
-      <c r="K66" t="n">
-        <v>114</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2746,22 +2742,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C67" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D67" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E67" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F67" t="n">
-        <v>8601.0317</v>
+        <v>5</v>
       </c>
       <c r="G67" t="n">
-        <v>114.5</v>
+        <v>117.0833333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2781,22 +2777,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D68" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E68" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F68" t="n">
-        <v>5</v>
+        <v>8601.0317</v>
       </c>
       <c r="G68" t="n">
-        <v>114.5</v>
+        <v>117</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2828,10 +2824,10 @@
         <v>115</v>
       </c>
       <c r="F69" t="n">
-        <v>13.2652</v>
+        <v>5</v>
       </c>
       <c r="G69" t="n">
-        <v>115</v>
+        <v>116.9333333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2863,10 +2859,10 @@
         <v>115</v>
       </c>
       <c r="F70" t="n">
-        <v>3275.467</v>
+        <v>13.2652</v>
       </c>
       <c r="G70" t="n">
-        <v>115</v>
+        <v>116.8666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2886,22 +2882,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C71" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D71" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E71" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F71" t="n">
-        <v>5</v>
+        <v>3275.467</v>
       </c>
       <c r="G71" t="n">
-        <v>115.5</v>
+        <v>116.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2921,22 +2917,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C72" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D72" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E72" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F72" t="n">
-        <v>3275.467</v>
+        <v>5</v>
       </c>
       <c r="G72" t="n">
-        <v>115.5</v>
+        <v>116.75</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2956,22 +2952,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C73" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D73" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E73" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F73" t="n">
-        <v>5</v>
+        <v>3275.467</v>
       </c>
       <c r="G73" t="n">
-        <v>115.5</v>
+        <v>116.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3003,10 +2999,10 @@
         <v>116</v>
       </c>
       <c r="F74" t="n">
-        <v>3000</v>
+        <v>5</v>
       </c>
       <c r="G74" t="n">
-        <v>116</v>
+        <v>116.6666666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3038,10 +3034,10 @@
         <v>116</v>
       </c>
       <c r="F75" t="n">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="G75" t="n">
-        <v>116</v>
+        <v>116.6333333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3073,10 +3069,10 @@
         <v>116</v>
       </c>
       <c r="F76" t="n">
-        <v>6043.7862</v>
+        <v>5</v>
       </c>
       <c r="G76" t="n">
-        <v>116</v>
+        <v>116.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3096,22 +3092,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C77" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D77" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E77" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F77" t="n">
-        <v>130</v>
+        <v>6043.7862</v>
       </c>
       <c r="G77" t="n">
-        <v>115.5</v>
+        <v>116.5666666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3143,10 +3139,10 @@
         <v>115</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="G78" t="n">
-        <v>115</v>
+        <v>116.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3166,22 +3162,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C79" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D79" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E79" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F79" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>115.5</v>
+        <v>116.4333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3201,22 +3197,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C80" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D80" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E80" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F80" t="n">
-        <v>3160.7741</v>
+        <v>5</v>
       </c>
       <c r="G80" t="n">
-        <v>115.5</v>
+        <v>116.3833333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3236,22 +3232,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C81" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D81" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E81" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F81" t="n">
-        <v>5</v>
+        <v>3160.7741</v>
       </c>
       <c r="G81" t="n">
-        <v>115.5</v>
+        <v>116.3166666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3283,10 +3279,10 @@
         <v>116</v>
       </c>
       <c r="F82" t="n">
-        <v>7912.6424</v>
+        <v>5</v>
       </c>
       <c r="G82" t="n">
-        <v>116</v>
+        <v>116.2666666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3306,22 +3302,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C83" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D83" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E83" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F83" t="n">
-        <v>6218</v>
+        <v>7912.6424</v>
       </c>
       <c r="G83" t="n">
-        <v>116.5</v>
+        <v>116.2166666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3353,10 +3349,10 @@
         <v>117</v>
       </c>
       <c r="F84" t="n">
-        <v>120</v>
+        <v>6218</v>
       </c>
       <c r="G84" t="n">
-        <v>117</v>
+        <v>116.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3388,10 +3384,10 @@
         <v>117</v>
       </c>
       <c r="F85" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G85" t="n">
-        <v>117</v>
+        <v>116.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3411,22 +3407,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C86" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D86" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E86" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F86" t="n">
-        <v>19392.196</v>
+        <v>200</v>
       </c>
       <c r="G86" t="n">
-        <v>117.5</v>
+        <v>116.1666666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3446,22 +3442,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C87" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D87" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E87" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F87" t="n">
-        <v>5834.1997</v>
+        <v>19392.196</v>
       </c>
       <c r="G87" t="n">
-        <v>118.5</v>
+        <v>116.1833333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3481,22 +3477,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C88" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D88" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E88" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F88" t="n">
-        <v>5</v>
+        <v>5834.1997</v>
       </c>
       <c r="G88" t="n">
-        <v>118.5</v>
+        <v>116.2166666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3516,22 +3512,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C89" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D89" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E89" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F89" t="n">
         <v>5</v>
       </c>
       <c r="G89" t="n">
-        <v>117.5</v>
+        <v>116.2166666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3551,22 +3547,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C90" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D90" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E90" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F90" t="n">
-        <v>602.804</v>
+        <v>5</v>
       </c>
       <c r="G90" t="n">
-        <v>118</v>
+        <v>116.1833333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3586,22 +3582,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C91" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D91" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E91" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F91" t="n">
-        <v>5</v>
+        <v>602.804</v>
       </c>
       <c r="G91" t="n">
-        <v>118</v>
+        <v>116.1833333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3621,22 +3617,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C92" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D92" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E92" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F92" t="n">
         <v>5</v>
       </c>
       <c r="G92" t="n">
-        <v>118</v>
+        <v>116.1666666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3656,22 +3652,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C93" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D93" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E93" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F93" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G93" t="n">
-        <v>118</v>
+        <v>116.1833333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3691,22 +3687,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C94" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D94" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E94" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F94" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G94" t="n">
-        <v>118</v>
+        <v>116.1833333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3738,10 +3734,10 @@
         <v>119</v>
       </c>
       <c r="F95" t="n">
-        <v>5877.7204</v>
+        <v>5</v>
       </c>
       <c r="G95" t="n">
-        <v>119</v>
+        <v>116.2166666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3761,22 +3757,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C96" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D96" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E96" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F96" t="n">
-        <v>5</v>
+        <v>5877.7204</v>
       </c>
       <c r="G96" t="n">
-        <v>119.5</v>
+        <v>116.2333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3796,22 +3792,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C97" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D97" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E97" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F97" t="n">
-        <v>5892.3866</v>
+        <v>5</v>
       </c>
       <c r="G97" t="n">
-        <v>119.5</v>
+        <v>116.2833333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3831,22 +3827,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C98" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D98" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E98" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F98" t="n">
-        <v>5</v>
+        <v>5892.3866</v>
       </c>
       <c r="G98" t="n">
-        <v>119.5</v>
+        <v>116.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3866,22 +3862,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C99" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D99" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E99" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F99" t="n">
-        <v>25.4861</v>
+        <v>5</v>
       </c>
       <c r="G99" t="n">
-        <v>119.5</v>
+        <v>116.3333333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3901,22 +3897,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C100" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D100" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E100" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F100" t="n">
-        <v>5</v>
+        <v>25.4861</v>
       </c>
       <c r="G100" t="n">
-        <v>119.5</v>
+        <v>116.3833333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3936,22 +3932,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C101" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D101" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E101" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F101" t="n">
         <v>5</v>
       </c>
       <c r="G101" t="n">
-        <v>119.5</v>
+        <v>116.4333333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3974,19 +3970,19 @@
         <v>119</v>
       </c>
       <c r="C102" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D102" t="n">
         <v>119</v>
       </c>
       <c r="E102" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F102" t="n">
-        <v>576.4173</v>
+        <v>5</v>
       </c>
       <c r="G102" t="n">
-        <v>118.5</v>
+        <v>116.4666666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4009,19 +4005,19 @@
         <v>119</v>
       </c>
       <c r="C103" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D103" t="n">
         <v>119</v>
       </c>
       <c r="E103" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F103" t="n">
-        <v>5</v>
+        <v>576.4173</v>
       </c>
       <c r="G103" t="n">
-        <v>118.5</v>
+        <v>116.4833333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4053,10 +4049,10 @@
         <v>119</v>
       </c>
       <c r="F104" t="n">
-        <v>491.9034</v>
+        <v>5</v>
       </c>
       <c r="G104" t="n">
-        <v>119</v>
+        <v>116.55</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4076,22 +4072,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C105" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D105" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E105" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F105" t="n">
-        <v>5</v>
+        <v>491.9034</v>
       </c>
       <c r="G105" t="n">
-        <v>119.5</v>
+        <v>116.5666666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4111,7 +4107,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C106" t="n">
         <v>120</v>
@@ -4120,13 +4116,13 @@
         <v>120</v>
       </c>
       <c r="E106" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F106" t="n">
-        <v>17129.0521</v>
+        <v>5</v>
       </c>
       <c r="G106" t="n">
-        <v>120</v>
+        <v>116.6333333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4146,22 +4142,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C107" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D107" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E107" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F107" t="n">
-        <v>5</v>
+        <v>17129.0521</v>
       </c>
       <c r="G107" t="n">
-        <v>120.5</v>
+        <v>116.6666666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4184,19 +4180,19 @@
         <v>121</v>
       </c>
       <c r="C108" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D108" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E108" t="n">
         <v>121</v>
       </c>
       <c r="F108" t="n">
-        <v>26141.1902</v>
+        <v>5</v>
       </c>
       <c r="G108" t="n">
-        <v>122</v>
+        <v>116.7666666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4216,7 +4212,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C109" t="n">
         <v>123</v>
@@ -4225,13 +4221,13 @@
         <v>123</v>
       </c>
       <c r="E109" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F109" t="n">
-        <v>5434.89</v>
+        <v>26141.1902</v>
       </c>
       <c r="G109" t="n">
-        <v>123</v>
+        <v>116.8666666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4251,22 +4247,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C110" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D110" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E110" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F110" t="n">
-        <v>3147.4673</v>
+        <v>5434.89</v>
       </c>
       <c r="G110" t="n">
-        <v>123.5</v>
+        <v>116.9666666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4286,28 +4282,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C111" t="n">
         <v>124</v>
       </c>
       <c r="D111" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E111" t="n">
         <v>124</v>
       </c>
       <c r="F111" t="n">
-        <v>3949.6656</v>
+        <v>3147.4673</v>
       </c>
       <c r="G111" t="n">
-        <v>124</v>
+        <v>117.0833333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4324,25 +4320,25 @@
         <v>125</v>
       </c>
       <c r="C112" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D112" t="n">
         <v>125</v>
       </c>
       <c r="E112" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F112" t="n">
-        <v>5</v>
+        <v>3949.6656</v>
       </c>
       <c r="G112" t="n">
-        <v>124.5</v>
+        <v>117.2333333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4359,25 +4355,25 @@
         <v>125</v>
       </c>
       <c r="C113" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D113" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E113" t="n">
         <v>125</v>
       </c>
       <c r="F113" t="n">
-        <v>8104.7905</v>
+        <v>5</v>
       </c>
       <c r="G113" t="n">
-        <v>125.5</v>
+        <v>117.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4391,7 +4387,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C114" t="n">
         <v>126</v>
@@ -4403,10 +4399,10 @@
         <v>125</v>
       </c>
       <c r="F114" t="n">
-        <v>12638.317</v>
+        <v>8104.7905</v>
       </c>
       <c r="G114" t="n">
-        <v>126</v>
+        <v>117.5833333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4429,25 +4425,25 @@
         <v>126</v>
       </c>
       <c r="C115" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D115" t="n">
         <v>126</v>
       </c>
       <c r="E115" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F115" t="n">
-        <v>13690.4528</v>
+        <v>12638.317</v>
       </c>
       <c r="G115" t="n">
-        <v>125</v>
+        <v>117.7333333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4461,28 +4457,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C116" t="n">
         <v>124</v>
       </c>
       <c r="D116" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E116" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F116" t="n">
-        <v>45</v>
+        <v>13690.4528</v>
       </c>
       <c r="G116" t="n">
-        <v>124</v>
+        <v>117.8833333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4496,22 +4492,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C117" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D117" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E117" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F117" t="n">
-        <v>50324.9078</v>
+        <v>45</v>
       </c>
       <c r="G117" t="n">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4531,7 +4527,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C118" t="n">
         <v>128</v>
@@ -4540,13 +4536,13 @@
         <v>128</v>
       </c>
       <c r="E118" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F118" t="n">
-        <v>33395.2635</v>
+        <v>50324.9078</v>
       </c>
       <c r="G118" t="n">
-        <v>128</v>
+        <v>118.2166666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4566,28 +4562,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C119" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D119" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E119" t="n">
         <v>126</v>
       </c>
       <c r="F119" t="n">
-        <v>21238.7921</v>
+        <v>33395.2635</v>
       </c>
       <c r="G119" t="n">
-        <v>127</v>
+        <v>118.4333333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4601,10 +4597,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>127</v>
+      </c>
+      <c r="C120" t="n">
         <v>126</v>
-      </c>
-      <c r="C120" t="n">
-        <v>127</v>
       </c>
       <c r="D120" t="n">
         <v>127</v>
@@ -4613,10 +4609,10 @@
         <v>126</v>
       </c>
       <c r="F120" t="n">
-        <v>341.4259</v>
+        <v>21238.7921</v>
       </c>
       <c r="G120" t="n">
-        <v>126.5</v>
+        <v>118.6166666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4636,22 +4632,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C121" t="n">
+        <v>127</v>
+      </c>
+      <c r="D121" t="n">
+        <v>127</v>
+      </c>
+      <c r="E121" t="n">
         <v>126</v>
       </c>
-      <c r="D121" t="n">
-        <v>126</v>
-      </c>
-      <c r="E121" t="n">
-        <v>125</v>
-      </c>
       <c r="F121" t="n">
-        <v>9112.740900000001</v>
+        <v>341.4259</v>
       </c>
       <c r="G121" t="n">
-        <v>126.5</v>
+        <v>118.8333333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4674,19 +4670,19 @@
         <v>125</v>
       </c>
       <c r="C122" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D122" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E122" t="n">
         <v>125</v>
       </c>
       <c r="F122" t="n">
-        <v>804.0536</v>
+        <v>9112.740900000001</v>
       </c>
       <c r="G122" t="n">
-        <v>125.5</v>
+        <v>119.0333333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4715,13 +4711,13 @@
         <v>125</v>
       </c>
       <c r="E123" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F123" t="n">
-        <v>906.6771</v>
+        <v>804.0536</v>
       </c>
       <c r="G123" t="n">
-        <v>125</v>
+        <v>119.1833333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4741,22 +4737,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C124" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D124" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E124" t="n">
         <v>124</v>
       </c>
       <c r="F124" t="n">
-        <v>6302.3559</v>
+        <v>906.6771</v>
       </c>
       <c r="G124" t="n">
-        <v>124.5</v>
+        <v>119.3666666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4776,22 +4772,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C125" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D125" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E125" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F125" t="n">
-        <v>4</v>
+        <v>6302.3559</v>
       </c>
       <c r="G125" t="n">
-        <v>124.5</v>
+        <v>119.5166666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4811,22 +4807,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C126" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D126" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E126" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F126" t="n">
-        <v>4663.8587</v>
+        <v>4</v>
       </c>
       <c r="G126" t="n">
-        <v>124.5</v>
+        <v>119.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4846,22 +4842,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C127" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D127" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E127" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F127" t="n">
-        <v>339.3526</v>
+        <v>4663.8587</v>
       </c>
       <c r="G127" t="n">
-        <v>124.5</v>
+        <v>119.85</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4884,19 +4880,19 @@
         <v>125</v>
       </c>
       <c r="C128" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D128" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E128" t="n">
         <v>125</v>
       </c>
       <c r="F128" t="n">
-        <v>19893.0384</v>
+        <v>339.3526</v>
       </c>
       <c r="G128" t="n">
-        <v>125.5</v>
+        <v>120.0333333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4916,7 +4912,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C129" t="n">
         <v>126</v>
@@ -4925,13 +4921,13 @@
         <v>126</v>
       </c>
       <c r="E129" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F129" t="n">
-        <v>10540.4089</v>
+        <v>19893.0384</v>
       </c>
       <c r="G129" t="n">
-        <v>126</v>
+        <v>120.2166666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4951,22 +4947,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C130" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D130" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E130" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F130" t="n">
-        <v>5</v>
+        <v>10540.4089</v>
       </c>
       <c r="G130" t="n">
-        <v>126.5</v>
+        <v>120.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4989,19 +4985,19 @@
         <v>127</v>
       </c>
       <c r="C131" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D131" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E131" t="n">
         <v>127</v>
       </c>
       <c r="F131" t="n">
-        <v>27095.5861</v>
+        <v>5</v>
       </c>
       <c r="G131" t="n">
-        <v>127.5</v>
+        <v>120.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5021,22 +5017,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>127</v>
+      </c>
+      <c r="C132" t="n">
         <v>128</v>
       </c>
-      <c r="C132" t="n">
-        <v>129</v>
-      </c>
       <c r="D132" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E132" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F132" t="n">
-        <v>12397.4984</v>
+        <v>27095.5861</v>
       </c>
       <c r="G132" t="n">
-        <v>128.5</v>
+        <v>120.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5056,7 +5052,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C133" t="n">
         <v>129</v>
@@ -5065,13 +5061,13 @@
         <v>129</v>
       </c>
       <c r="E133" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F133" t="n">
-        <v>8851.8341</v>
+        <v>12397.4984</v>
       </c>
       <c r="G133" t="n">
-        <v>129</v>
+        <v>121.0333333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5091,7 +5087,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C134" t="n">
         <v>129</v>
@@ -5100,13 +5096,13 @@
         <v>129</v>
       </c>
       <c r="E134" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F134" t="n">
-        <v>2983.6261</v>
+        <v>8851.8341</v>
       </c>
       <c r="G134" t="n">
-        <v>129</v>
+        <v>121.25</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5129,25 +5125,25 @@
         <v>128</v>
       </c>
       <c r="C135" t="n">
+        <v>129</v>
+      </c>
+      <c r="D135" t="n">
+        <v>129</v>
+      </c>
+      <c r="E135" t="n">
         <v>128</v>
       </c>
-      <c r="D135" t="n">
-        <v>128</v>
-      </c>
-      <c r="E135" t="n">
-        <v>125</v>
-      </c>
       <c r="F135" t="n">
-        <v>1397.863</v>
+        <v>2983.6261</v>
       </c>
       <c r="G135" t="n">
-        <v>128.5</v>
+        <v>121.4666666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5161,22 +5157,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C136" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D136" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E136" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F136" t="n">
-        <v>5</v>
+        <v>1397.863</v>
       </c>
       <c r="G136" t="n">
-        <v>128.5</v>
+        <v>121.6666666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5199,19 +5195,19 @@
         <v>129</v>
       </c>
       <c r="C137" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D137" t="n">
         <v>129</v>
       </c>
       <c r="E137" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F137" t="n">
-        <v>18122.5223</v>
+        <v>5</v>
       </c>
       <c r="G137" t="n">
-        <v>128</v>
+        <v>121.8833333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5234,19 +5230,19 @@
         <v>129</v>
       </c>
       <c r="C138" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D138" t="n">
         <v>129</v>
       </c>
       <c r="E138" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F138" t="n">
-        <v>20.0794</v>
+        <v>18122.5223</v>
       </c>
       <c r="G138" t="n">
-        <v>128</v>
+        <v>122.0833333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5266,7 +5262,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C139" t="n">
         <v>129</v>
@@ -5275,13 +5271,13 @@
         <v>129</v>
       </c>
       <c r="E139" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F139" t="n">
-        <v>3578.2607</v>
+        <v>20.0794</v>
       </c>
       <c r="G139" t="n">
-        <v>129</v>
+        <v>122.3166666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5304,19 +5300,19 @@
         <v>128</v>
       </c>
       <c r="C140" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D140" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E140" t="n">
         <v>128</v>
       </c>
       <c r="F140" t="n">
-        <v>2797.943</v>
+        <v>3578.2607</v>
       </c>
       <c r="G140" t="n">
-        <v>129.5</v>
+        <v>122.5333333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5336,22 +5332,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C141" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D141" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E141" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F141" t="n">
-        <v>34405.0204</v>
+        <v>2797.943</v>
       </c>
       <c r="G141" t="n">
-        <v>129.5</v>
+        <v>122.7833333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5371,22 +5367,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C142" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D142" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E142" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F142" t="n">
-        <v>23358.5294</v>
+        <v>34405.0204</v>
       </c>
       <c r="G142" t="n">
-        <v>128.5</v>
+        <v>123</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5406,22 +5402,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>130</v>
+      </c>
+      <c r="C143" t="n">
         <v>128</v>
       </c>
-      <c r="C143" t="n">
-        <v>127</v>
-      </c>
       <c r="D143" t="n">
+        <v>130</v>
+      </c>
+      <c r="E143" t="n">
         <v>128</v>
       </c>
-      <c r="E143" t="n">
-        <v>127</v>
-      </c>
       <c r="F143" t="n">
-        <v>2601.9013</v>
+        <v>23358.5294</v>
       </c>
       <c r="G143" t="n">
-        <v>127.5</v>
+        <v>123.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5444,19 +5440,19 @@
         <v>128</v>
       </c>
       <c r="C144" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D144" t="n">
         <v>128</v>
       </c>
       <c r="E144" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F144" t="n">
-        <v>2573.8198</v>
+        <v>2601.9013</v>
       </c>
       <c r="G144" t="n">
-        <v>127.5</v>
+        <v>123.3666666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5476,22 +5472,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C145" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D145" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E145" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F145" t="n">
-        <v>16</v>
+        <v>2573.8198</v>
       </c>
       <c r="G145" t="n">
-        <v>127.5</v>
+        <v>123.55</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5514,19 +5510,19 @@
         <v>129</v>
       </c>
       <c r="C146" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D146" t="n">
         <v>129</v>
       </c>
       <c r="E146" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F146" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G146" t="n">
-        <v>128</v>
+        <v>123.7166666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5546,22 +5542,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C147" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D147" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E147" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F147" t="n">
-        <v>4726.3748</v>
+        <v>4</v>
       </c>
       <c r="G147" t="n">
-        <v>128.5</v>
+        <v>123.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5581,22 +5577,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C148" t="n">
         <v>128</v>
       </c>
       <c r="D148" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E148" t="n">
         <v>128</v>
       </c>
       <c r="F148" t="n">
-        <v>6817.1302</v>
+        <v>4726.3748</v>
       </c>
       <c r="G148" t="n">
-        <v>128</v>
+        <v>124.05</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5616,22 +5612,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C149" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D149" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E149" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F149" t="n">
-        <v>17.82</v>
+        <v>6817.1302</v>
       </c>
       <c r="G149" t="n">
-        <v>127.5</v>
+        <v>124.2166666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5651,22 +5647,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C150" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D150" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E150" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F150" t="n">
-        <v>4595.9053</v>
+        <v>17.82</v>
       </c>
       <c r="G150" t="n">
-        <v>127.5</v>
+        <v>124.3833333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5686,22 +5682,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C151" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D151" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E151" t="n">
         <v>126</v>
       </c>
       <c r="F151" t="n">
-        <v>11186.8599</v>
+        <v>4595.9053</v>
       </c>
       <c r="G151" t="n">
-        <v>127</v>
+        <v>124.5333333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5721,22 +5717,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C152" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D152" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E152" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F152" t="n">
-        <v>1395.0003</v>
+        <v>11186.8599</v>
       </c>
       <c r="G152" t="n">
-        <v>126.5</v>
+        <v>124.6833333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5768,10 +5764,10 @@
         <v>127</v>
       </c>
       <c r="F153" t="n">
-        <v>5368.175</v>
+        <v>1395.0003</v>
       </c>
       <c r="G153" t="n">
-        <v>127</v>
+        <v>124.8166666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5791,22 +5787,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C154" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D154" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E154" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F154" t="n">
-        <v>13.365</v>
+        <v>5368.175</v>
       </c>
       <c r="G154" t="n">
-        <v>126.5</v>
+        <v>124.9833333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5826,22 +5822,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C155" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D155" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E155" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F155" t="n">
-        <v>4</v>
+        <v>13.365</v>
       </c>
       <c r="G155" t="n">
-        <v>126.5</v>
+        <v>125.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5861,22 +5857,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C156" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D156" t="n">
         <v>127</v>
       </c>
       <c r="E156" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F156" t="n">
-        <v>933.2772</v>
+        <v>4</v>
       </c>
       <c r="G156" t="n">
-        <v>126.5</v>
+        <v>125.2333333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5896,22 +5892,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C157" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D157" t="n">
         <v>127</v>
       </c>
       <c r="E157" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F157" t="n">
-        <v>4</v>
+        <v>933.2772</v>
       </c>
       <c r="G157" t="n">
-        <v>126.5</v>
+        <v>125.3333333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5931,22 +5927,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C158" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D158" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E158" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F158" t="n">
-        <v>12539.5019</v>
+        <v>4</v>
       </c>
       <c r="G158" t="n">
-        <v>126.5</v>
+        <v>125.4666666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5966,22 +5962,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C159" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D159" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E159" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F159" t="n">
-        <v>7.248</v>
+        <v>12539.5019</v>
       </c>
       <c r="G159" t="n">
-        <v>125.5</v>
+        <v>125.5666666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6001,7 +5997,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C160" t="n">
         <v>125</v>
@@ -6010,13 +6006,13 @@
         <v>125</v>
       </c>
       <c r="E160" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F160" t="n">
-        <v>1604</v>
+        <v>7.248</v>
       </c>
       <c r="G160" t="n">
-        <v>125</v>
+        <v>125.6666666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6039,7 +6035,7 @@
         <v>123</v>
       </c>
       <c r="C161" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D161" t="n">
         <v>125</v>
@@ -6048,10 +6044,10 @@
         <v>123</v>
       </c>
       <c r="F161" t="n">
-        <v>17</v>
+        <v>1604</v>
       </c>
       <c r="G161" t="n">
-        <v>124</v>
+        <v>125.75</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6071,32 +6067,38 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C162" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D162" t="n">
         <v>125</v>
       </c>
       <c r="E162" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F162" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G162" t="n">
-        <v>124</v>
+        <v>125.8166666666667</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>125</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6109,29 +6111,35 @@
         <v>125</v>
       </c>
       <c r="C163" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D163" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E163" t="n">
         <v>124</v>
       </c>
       <c r="F163" t="n">
-        <v>4720.2935</v>
+        <v>13</v>
       </c>
       <c r="G163" t="n">
-        <v>124.5</v>
+        <v>125.9333333333333</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>123</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6141,32 +6149,38 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C164" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D164" t="n">
         <v>126</v>
       </c>
       <c r="E164" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F164" t="n">
-        <v>4</v>
+        <v>4720.2935</v>
       </c>
       <c r="G164" t="n">
+        <v>126.0166666666667</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
         <v>125</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6176,32 +6190,38 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C165" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D165" t="n">
         <v>126</v>
       </c>
       <c r="E165" t="n">
+        <v>126</v>
+      </c>
+      <c r="F165" t="n">
+        <v>4</v>
+      </c>
+      <c r="G165" t="n">
+        <v>126.1333333333333</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
         <v>124</v>
       </c>
-      <c r="F165" t="n">
-        <v>17</v>
-      </c>
-      <c r="G165" t="n">
-        <v>125</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6211,22 +6231,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C166" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D166" t="n">
         <v>126</v>
       </c>
       <c r="E166" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F166" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G166" t="n">
-        <v>125</v>
+        <v>126.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6236,7 +6256,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6246,22 +6270,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C167" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D167" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E167" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F167" t="n">
-        <v>2555.7163</v>
+        <v>4</v>
       </c>
       <c r="G167" t="n">
-        <v>125.5</v>
+        <v>126.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6271,7 +6295,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6284,19 +6312,19 @@
         <v>124</v>
       </c>
       <c r="C168" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D168" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E168" t="n">
         <v>124</v>
       </c>
       <c r="F168" t="n">
-        <v>2930.7265</v>
+        <v>2555.7163</v>
       </c>
       <c r="G168" t="n">
-        <v>124.5</v>
+        <v>126.3666666666667</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6306,7 +6334,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6319,19 +6351,19 @@
         <v>124</v>
       </c>
       <c r="C169" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D169" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E169" t="n">
         <v>124</v>
       </c>
       <c r="F169" t="n">
-        <v>13078.3258</v>
+        <v>2930.7265</v>
       </c>
       <c r="G169" t="n">
-        <v>124.5</v>
+        <v>126.3833333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6341,7 +6373,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6354,19 +6390,19 @@
         <v>124</v>
       </c>
       <c r="C170" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D170" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E170" t="n">
         <v>124</v>
       </c>
       <c r="F170" t="n">
-        <v>3043.769</v>
+        <v>13078.3258</v>
       </c>
       <c r="G170" t="n">
-        <v>125.5</v>
+        <v>126.4166666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6376,7 +6412,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6386,7 +6426,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C171" t="n">
         <v>126</v>
@@ -6395,13 +6435,13 @@
         <v>126</v>
       </c>
       <c r="E171" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F171" t="n">
-        <v>9099.228300000001</v>
+        <v>3043.769</v>
       </c>
       <c r="G171" t="n">
-        <v>126</v>
+        <v>126.45</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6411,7 +6451,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6424,19 +6468,19 @@
         <v>126</v>
       </c>
       <c r="C172" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D172" t="n">
         <v>126</v>
       </c>
       <c r="E172" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F172" t="n">
-        <v>1435.0955</v>
+        <v>9099.228300000001</v>
       </c>
       <c r="G172" t="n">
-        <v>125</v>
+        <v>126.4833333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6446,7 +6490,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6456,22 +6504,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
+        <v>126</v>
+      </c>
+      <c r="C173" t="n">
         <v>124</v>
       </c>
-      <c r="C173" t="n">
-        <v>123</v>
-      </c>
       <c r="D173" t="n">
+        <v>126</v>
+      </c>
+      <c r="E173" t="n">
         <v>124</v>
       </c>
-      <c r="E173" t="n">
-        <v>121</v>
-      </c>
       <c r="F173" t="n">
-        <v>14557.2</v>
+        <v>1435.0955</v>
       </c>
       <c r="G173" t="n">
-        <v>123.5</v>
+        <v>126.4666666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6481,7 +6529,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6491,22 +6543,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C174" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D174" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E174" t="n">
         <v>121</v>
       </c>
       <c r="F174" t="n">
-        <v>841.9179</v>
+        <v>14557.2</v>
       </c>
       <c r="G174" t="n">
-        <v>122.5</v>
+        <v>126.4166666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6516,7 +6568,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6526,22 +6582,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C175" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D175" t="n">
         <v>123</v>
       </c>
       <c r="E175" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F175" t="n">
-        <v>17676.1722</v>
+        <v>841.9179</v>
       </c>
       <c r="G175" t="n">
-        <v>122.5</v>
+        <v>126.35</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6551,7 +6607,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6561,22 +6621,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C176" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D176" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E176" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F176" t="n">
-        <v>10</v>
+        <v>17676.1722</v>
       </c>
       <c r="G176" t="n">
-        <v>123.5</v>
+        <v>126.3333333333333</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6586,7 +6646,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6596,22 +6660,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C177" t="n">
         <v>124</v>
       </c>
       <c r="D177" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E177" t="n">
         <v>124</v>
       </c>
       <c r="F177" t="n">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="G177" t="n">
-        <v>124</v>
+        <v>126.3333333333333</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6621,7 +6685,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6631,22 +6699,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C178" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D178" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E178" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F178" t="n">
-        <v>395.625</v>
+        <v>115</v>
       </c>
       <c r="G178" t="n">
-        <v>123</v>
+        <v>126.2666666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6656,7 +6724,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6666,22 +6738,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C179" t="n">
         <v>122</v>
       </c>
       <c r="D179" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E179" t="n">
         <v>122</v>
       </c>
       <c r="F179" t="n">
-        <v>24.4699</v>
+        <v>395.625</v>
       </c>
       <c r="G179" t="n">
-        <v>122</v>
+        <v>126.1666666666667</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6691,7 +6763,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6704,19 +6780,19 @@
         <v>125</v>
       </c>
       <c r="C180" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D180" t="n">
         <v>125</v>
       </c>
       <c r="E180" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F180" t="n">
-        <v>4</v>
+        <v>24.4699</v>
       </c>
       <c r="G180" t="n">
-        <v>123.5</v>
+        <v>126.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6726,7 +6802,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6736,7 +6816,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C181" t="n">
         <v>125</v>
@@ -6745,13 +6825,13 @@
         <v>125</v>
       </c>
       <c r="E181" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F181" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G181" t="n">
-        <v>125</v>
+        <v>126.0666666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6761,7 +6841,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6774,19 +6858,19 @@
         <v>122</v>
       </c>
       <c r="C182" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D182" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E182" t="n">
         <v>122</v>
       </c>
       <c r="F182" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G182" t="n">
-        <v>123.5</v>
+        <v>126.05</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6796,7 +6880,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6806,22 +6894,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C183" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D183" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E183" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F183" t="n">
-        <v>118.6009</v>
+        <v>5</v>
       </c>
       <c r="G183" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6831,7 +6919,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6841,22 +6933,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C184" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D184" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E184" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F184" t="n">
-        <v>4</v>
+        <v>118.6009</v>
       </c>
       <c r="G184" t="n">
-        <v>125.5</v>
+        <v>125.9833333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6866,7 +6958,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6876,22 +6972,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C185" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D185" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E185" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F185" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G185" t="n">
-        <v>126.5</v>
+        <v>126.0333333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6901,7 +6997,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6911,22 +7011,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C186" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D186" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E186" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F186" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G186" t="n">
-        <v>124.5</v>
+        <v>126.05</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6936,7 +7036,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6946,22 +7050,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C187" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D187" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E187" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F187" t="n">
-        <v>7.3905</v>
+        <v>5</v>
       </c>
       <c r="G187" t="n">
-        <v>124</v>
+        <v>126.0333333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6971,7 +7075,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6981,22 +7089,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C188" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D188" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E188" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F188" t="n">
-        <v>5</v>
+        <v>7.3905</v>
       </c>
       <c r="G188" t="n">
-        <v>124</v>
+        <v>126.0333333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7006,7 +7114,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7016,22 +7128,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C189" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D189" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E189" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F189" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G189" t="n">
-        <v>124</v>
+        <v>125.9833333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7041,7 +7153,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7051,7 +7167,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C190" t="n">
         <v>125</v>
@@ -7060,13 +7176,13 @@
         <v>125</v>
       </c>
       <c r="E190" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F190" t="n">
-        <v>2226</v>
+        <v>4</v>
       </c>
       <c r="G190" t="n">
-        <v>125</v>
+        <v>125.9666666666667</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7076,7 +7192,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7086,7 +7206,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C191" t="n">
         <v>125</v>
@@ -7095,13 +7215,13 @@
         <v>125</v>
       </c>
       <c r="E191" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F191" t="n">
-        <v>6063.6394</v>
+        <v>2226</v>
       </c>
       <c r="G191" t="n">
-        <v>125</v>
+        <v>125.9333333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7111,7 +7231,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7121,7 +7245,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C192" t="n">
         <v>125</v>
@@ -7130,13 +7254,13 @@
         <v>125</v>
       </c>
       <c r="E192" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F192" t="n">
-        <v>100</v>
+        <v>6063.6394</v>
       </c>
       <c r="G192" t="n">
-        <v>125</v>
+        <v>125.8833333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7146,7 +7270,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7159,19 +7287,19 @@
         <v>125</v>
       </c>
       <c r="C193" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D193" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E193" t="n">
         <v>125</v>
       </c>
       <c r="F193" t="n">
-        <v>215</v>
+        <v>100</v>
       </c>
       <c r="G193" t="n">
-        <v>125.5</v>
+        <v>125.8166666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7181,7 +7309,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7191,7 +7323,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C194" t="n">
         <v>126</v>
@@ -7200,13 +7332,13 @@
         <v>126</v>
       </c>
       <c r="E194" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F194" t="n">
-        <v>4</v>
+        <v>215</v>
       </c>
       <c r="G194" t="n">
-        <v>126</v>
+        <v>125.7666666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7216,7 +7348,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7238,10 +7374,10 @@
         <v>126</v>
       </c>
       <c r="F195" t="n">
-        <v>8.134920634920634</v>
+        <v>4</v>
       </c>
       <c r="G195" t="n">
-        <v>126</v>
+        <v>125.7166666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7251,7 +7387,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7261,22 +7401,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C196" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D196" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E196" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F196" t="n">
-        <v>2104.4157</v>
+        <v>8.134920634920634</v>
       </c>
       <c r="G196" t="n">
-        <v>124.5</v>
+        <v>125.6833333333333</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7286,7 +7426,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7296,22 +7440,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C197" t="n">
         <v>123</v>
       </c>
       <c r="D197" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E197" t="n">
         <v>123</v>
       </c>
       <c r="F197" t="n">
-        <v>6192.4479</v>
+        <v>2104.4157</v>
       </c>
       <c r="G197" t="n">
-        <v>123</v>
+        <v>125.5833333333333</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7321,7 +7465,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7334,19 +7482,19 @@
         <v>123</v>
       </c>
       <c r="C198" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D198" t="n">
         <v>123</v>
       </c>
       <c r="E198" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F198" t="n">
-        <v>795.8377</v>
+        <v>6192.4479</v>
       </c>
       <c r="G198" t="n">
-        <v>122.5</v>
+        <v>125.5166666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7356,7 +7504,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7366,22 +7518,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C199" t="n">
         <v>122</v>
       </c>
       <c r="D199" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E199" t="n">
         <v>122</v>
       </c>
       <c r="F199" t="n">
-        <v>1664.1318</v>
+        <v>795.8377</v>
       </c>
       <c r="G199" t="n">
-        <v>122</v>
+        <v>125.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7391,7 +7543,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7413,10 +7569,10 @@
         <v>122</v>
       </c>
       <c r="F200" t="n">
-        <v>70.3921</v>
+        <v>1664.1318</v>
       </c>
       <c r="G200" t="n">
-        <v>122</v>
+        <v>125.2833333333333</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7426,7 +7582,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7436,22 +7596,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C201" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D201" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E201" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F201" t="n">
-        <v>11000.7276</v>
+        <v>70.3921</v>
       </c>
       <c r="G201" t="n">
-        <v>121</v>
+        <v>125.15</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7461,7 +7621,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7471,22 +7635,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C202" t="n">
         <v>120</v>
       </c>
       <c r="D202" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E202" t="n">
         <v>120</v>
       </c>
       <c r="F202" t="n">
-        <v>411.6131</v>
+        <v>11000.7276</v>
       </c>
       <c r="G202" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7496,7 +7660,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7509,19 +7677,19 @@
         <v>120</v>
       </c>
       <c r="C203" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D203" t="n">
         <v>120</v>
       </c>
       <c r="E203" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F203" t="n">
-        <v>1145.6896</v>
+        <v>411.6131</v>
       </c>
       <c r="G203" t="n">
-        <v>119.5</v>
+        <v>124.8666666666667</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7531,7 +7699,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7541,22 +7713,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C204" t="n">
         <v>119</v>
       </c>
       <c r="D204" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E204" t="n">
         <v>119</v>
       </c>
       <c r="F204" t="n">
-        <v>6059.6394</v>
+        <v>1145.6896</v>
       </c>
       <c r="G204" t="n">
-        <v>119</v>
+        <v>124.7333333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7566,7 +7738,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7588,10 +7764,10 @@
         <v>119</v>
       </c>
       <c r="F205" t="n">
-        <v>8.1349</v>
+        <v>6059.6394</v>
       </c>
       <c r="G205" t="n">
-        <v>119</v>
+        <v>124.5833333333333</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7601,7 +7777,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7611,22 +7791,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C206" t="n">
         <v>119</v>
       </c>
       <c r="D206" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E206" t="n">
         <v>119</v>
       </c>
       <c r="F206" t="n">
-        <v>611.6123</v>
+        <v>8.1349</v>
       </c>
       <c r="G206" t="n">
-        <v>119</v>
+        <v>124.45</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7636,7 +7816,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7646,10 +7830,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C207" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D207" t="n">
         <v>120</v>
@@ -7658,10 +7842,10 @@
         <v>119</v>
       </c>
       <c r="F207" t="n">
-        <v>105</v>
+        <v>611.6123</v>
       </c>
       <c r="G207" t="n">
-        <v>119.5</v>
+        <v>124.2833333333333</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7671,7 +7855,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7690,13 +7878,13 @@
         <v>120</v>
       </c>
       <c r="E208" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F208" t="n">
-        <v>18510.0613</v>
+        <v>105</v>
       </c>
       <c r="G208" t="n">
-        <v>120</v>
+        <v>124.15</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7706,7 +7894,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7716,22 +7908,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C209" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D209" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E209" t="n">
         <v>118</v>
       </c>
       <c r="F209" t="n">
-        <v>5</v>
+        <v>18510.0613</v>
       </c>
       <c r="G209" t="n">
-        <v>119</v>
+        <v>124.0166666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7741,8 +7933,51 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>118</v>
+      </c>
+      <c r="C210" t="n">
+        <v>118</v>
+      </c>
+      <c r="D210" t="n">
+        <v>118</v>
+      </c>
+      <c r="E210" t="n">
+        <v>118</v>
+      </c>
+      <c r="F210" t="n">
+        <v>5</v>
+      </c>
+      <c r="G210" t="n">
+        <v>123.8666666666667</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-21 BackTest WOM.xlsx
+++ b/BackTest/2019-11-21 BackTest WOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M210"/>
+  <dimension ref="A1:N220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>5</v>
       </c>
       <c r="G2" t="n">
+        <v>118.3333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>116.9666666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>12.7574</v>
       </c>
       <c r="G3" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="H3" t="n">
         <v>116.9833333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>0.7</v>
       </c>
       <c r="G4" t="n">
-        <v>117</v>
+        <v>118.4666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>5</v>
       </c>
       <c r="G5" t="n">
+        <v>118.6666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>117.0333333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>5</v>
       </c>
       <c r="G6" t="n">
+        <v>118.7333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>117.0666666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>5</v>
       </c>
       <c r="G7" t="n">
+        <v>118.8</v>
+      </c>
+      <c r="H7" t="n">
         <v>117.05</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>4.2323</v>
       </c>
       <c r="G8" t="n">
+        <v>118.8</v>
+      </c>
+      <c r="H8" t="n">
         <v>117.0666666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>9.9687</v>
       </c>
       <c r="G9" t="n">
+        <v>118.9333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>117.1</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>15.799</v>
       </c>
       <c r="G10" t="n">
+        <v>119.0666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>117.1333333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>150</v>
       </c>
       <c r="G11" t="n">
+        <v>119.0666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>117.1333333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>100</v>
       </c>
       <c r="G12" t="n">
+        <v>119</v>
+      </c>
+      <c r="H12" t="n">
         <v>117.1666666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>31.3939</v>
       </c>
       <c r="G13" t="n">
+        <v>118.8666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>117.15</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>95</v>
       </c>
       <c r="G14" t="n">
+        <v>118.8</v>
+      </c>
+      <c r="H14" t="n">
         <v>117.15</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>67</v>
       </c>
       <c r="G15" t="n">
+        <v>118.7333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>117.15</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>2643.1445</v>
       </c>
       <c r="G16" t="n">
+        <v>118.6666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>117.1666666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>22.7176</v>
       </c>
       <c r="G17" t="n">
+        <v>118.6666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>117.1833333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
+        <v>118.7333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>117.2166666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>118.7333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>117.3</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>5</v>
       </c>
       <c r="G20" t="n">
+        <v>118.6666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>117.3666666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>15</v>
       </c>
       <c r="G21" t="n">
+        <v>118.6666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>117.45</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>145</v>
       </c>
       <c r="G22" t="n">
+        <v>118.6666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>117.5166666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>15</v>
       </c>
       <c r="G23" t="n">
+        <v>118.6666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>117.55</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>14.7051</v>
       </c>
       <c r="G24" t="n">
+        <v>118.6</v>
+      </c>
+      <c r="H24" t="n">
         <v>117.5666666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>10</v>
       </c>
       <c r="G25" t="n">
+        <v>118.4666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>117.5666666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>24.946</v>
       </c>
       <c r="G26" t="n">
+        <v>118.4666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>117.6</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>2653.1446</v>
       </c>
       <c r="G27" t="n">
+        <v>118.3333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>117.6166666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>34</v>
       </c>
       <c r="G28" t="n">
+        <v>118.2666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>117.6333333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>5</v>
       </c>
       <c r="G29" t="n">
+        <v>118.2666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>117.65</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>10</v>
       </c>
       <c r="G30" t="n">
+        <v>118.3333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>117.7166666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>12</v>
       </c>
       <c r="G31" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="H31" t="n">
         <v>117.7666666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>5</v>
       </c>
       <c r="G32" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="H32" t="n">
         <v>117.8166666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>13.035</v>
       </c>
       <c r="G33" t="n">
+        <v>118.3333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>117.85</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>10</v>
       </c>
       <c r="G34" t="n">
+        <v>118.2</v>
+      </c>
+      <c r="H34" t="n">
         <v>117.8666666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>107.1</v>
       </c>
       <c r="G35" t="n">
+        <v>118.0666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>117.8833333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>5</v>
       </c>
       <c r="G36" t="n">
+        <v>118</v>
+      </c>
+      <c r="H36" t="n">
         <v>117.9166666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>8.19</v>
       </c>
       <c r="G37" t="n">
+        <v>117.8666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>117.9333333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>7027.7684</v>
       </c>
       <c r="G38" t="n">
+        <v>117.8</v>
+      </c>
+      <c r="H38" t="n">
         <v>117.9666666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>5</v>
       </c>
       <c r="G39" t="n">
+        <v>117.8</v>
+      </c>
+      <c r="H39" t="n">
         <v>118.0166666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>18.4275</v>
       </c>
       <c r="G40" t="n">
+        <v>117.7333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>118.0166666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>3564.7857</v>
       </c>
       <c r="G41" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="H41" t="n">
         <v>118.05</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>15968.6119</v>
       </c>
       <c r="G42" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="H42" t="n">
         <v>118.0666666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>10.1819</v>
       </c>
       <c r="G43" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="H43" t="n">
         <v>118.0833333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>15963.612</v>
       </c>
       <c r="G44" t="n">
+        <v>117.4</v>
+      </c>
+      <c r="H44" t="n">
         <v>118.0666666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>5</v>
       </c>
       <c r="G45" t="n">
+        <v>117.3333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>118.1</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>5.5282</v>
       </c>
       <c r="G46" t="n">
+        <v>117.1333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>118.1</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>5</v>
       </c>
       <c r="G47" t="n">
+        <v>117.1333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>118.1333333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>12.4385</v>
       </c>
       <c r="G48" t="n">
+        <v>116.9333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>118.1</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>50</v>
       </c>
       <c r="G49" t="n">
+        <v>116.9333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>118.0833333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>11</v>
       </c>
       <c r="G50" t="n">
+        <v>116.9333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>118.0833333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>15</v>
       </c>
       <c r="G51" t="n">
+        <v>116.8666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>118.0666666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>5.3289</v>
       </c>
       <c r="G52" t="n">
+        <v>116.7333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>118.0166666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>12.9934</v>
       </c>
       <c r="G53" t="n">
+        <v>116.5333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>117.95</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>151</v>
       </c>
       <c r="G54" t="n">
+        <v>116.3333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>117.9166666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,22 +2467,21 @@
         <v>5</v>
       </c>
       <c r="G55" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="H55" t="n">
         <v>117.9166666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>115</v>
-      </c>
-      <c r="K55" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2342,573 +2505,627 @@
         <v>5</v>
       </c>
       <c r="G56" t="n">
+        <v>116.2666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>117.85</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>115</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>117</v>
+      </c>
+      <c r="C57" t="n">
+        <v>117</v>
+      </c>
+      <c r="D57" t="n">
+        <v>117</v>
+      </c>
+      <c r="E57" t="n">
+        <v>117</v>
+      </c>
+      <c r="F57" t="n">
+        <v>6.4274</v>
+      </c>
+      <c r="G57" t="n">
+        <v>116.2666666666667</v>
+      </c>
+      <c r="H57" t="n">
+        <v>117.8</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>117</v>
+      </c>
+      <c r="C58" t="n">
+        <v>115</v>
+      </c>
+      <c r="D58" t="n">
+        <v>117</v>
+      </c>
+      <c r="E58" t="n">
+        <v>115</v>
+      </c>
+      <c r="F58" t="n">
+        <v>96</v>
+      </c>
+      <c r="G58" t="n">
+        <v>116.1333333333333</v>
+      </c>
+      <c r="H58" t="n">
+        <v>117.7166666666667</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>115</v>
+      </c>
+      <c r="C59" t="n">
+        <v>115</v>
+      </c>
+      <c r="D59" t="n">
+        <v>115</v>
+      </c>
+      <c r="E59" t="n">
+        <v>115</v>
+      </c>
+      <c r="F59" t="n">
+        <v>356.89</v>
+      </c>
+      <c r="G59" t="n">
+        <v>116.1333333333333</v>
+      </c>
+      <c r="H59" t="n">
+        <v>117.65</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>115</v>
+      </c>
+      <c r="C60" t="n">
+        <v>115</v>
+      </c>
+      <c r="D60" t="n">
+        <v>115</v>
+      </c>
+      <c r="E60" t="n">
+        <v>115</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1631.1285</v>
+      </c>
+      <c r="G60" t="n">
+        <v>115.9333333333333</v>
+      </c>
+      <c r="H60" t="n">
+        <v>117.5833333333333</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>114</v>
+      </c>
+      <c r="C61" t="n">
+        <v>114</v>
+      </c>
+      <c r="D61" t="n">
+        <v>114</v>
+      </c>
+      <c r="E61" t="n">
+        <v>114</v>
+      </c>
+      <c r="F61" t="n">
+        <v>6931.5268</v>
+      </c>
+      <c r="G61" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="H61" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>114</v>
+      </c>
+      <c r="C62" t="n">
+        <v>114</v>
+      </c>
+      <c r="D62" t="n">
+        <v>114</v>
+      </c>
+      <c r="E62" t="n">
+        <v>114</v>
+      </c>
+      <c r="F62" t="n">
+        <v>42.5459</v>
+      </c>
+      <c r="G62" t="n">
+        <v>115.5333333333333</v>
+      </c>
+      <c r="H62" t="n">
+        <v>117.4333333333333</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>116</v>
+      </c>
+      <c r="C63" t="n">
+        <v>116</v>
+      </c>
+      <c r="D63" t="n">
+        <v>116</v>
+      </c>
+      <c r="E63" t="n">
+        <v>116</v>
+      </c>
+      <c r="F63" t="n">
+        <v>5</v>
+      </c>
+      <c r="G63" t="n">
+        <v>115.6</v>
+      </c>
+      <c r="H63" t="n">
+        <v>117.4</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>114</v>
+      </c>
+      <c r="C64" t="n">
+        <v>114</v>
+      </c>
+      <c r="D64" t="n">
+        <v>114</v>
+      </c>
+      <c r="E64" t="n">
+        <v>114</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G64" t="n">
+        <v>115.4</v>
+      </c>
+      <c r="H64" t="n">
+        <v>117.3166666666667</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>115</v>
+      </c>
+      <c r="C65" t="n">
+        <v>115</v>
+      </c>
+      <c r="D65" t="n">
+        <v>115</v>
+      </c>
+      <c r="E65" t="n">
+        <v>115</v>
+      </c>
+      <c r="F65" t="n">
+        <v>5</v>
+      </c>
+      <c r="G65" t="n">
+        <v>115.2666666666667</v>
+      </c>
+      <c r="H65" t="n">
+        <v>117.2333333333333</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>114</v>
+      </c>
+      <c r="C66" t="n">
+        <v>114</v>
+      </c>
+      <c r="D66" t="n">
+        <v>114</v>
+      </c>
+      <c r="E66" t="n">
+        <v>114</v>
+      </c>
+      <c r="F66" t="n">
+        <v>15579.8113</v>
+      </c>
+      <c r="G66" t="n">
+        <v>115.0666666666667</v>
+      </c>
+      <c r="H66" t="n">
+        <v>117.15</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>115</v>
+      </c>
+      <c r="L66" t="n">
+        <v>115</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>115</v>
+      </c>
+      <c r="C67" t="n">
+        <v>115</v>
+      </c>
+      <c r="D67" t="n">
+        <v>115</v>
+      </c>
+      <c r="E67" t="n">
+        <v>115</v>
+      </c>
+      <c r="F67" t="n">
+        <v>5</v>
+      </c>
+      <c r="G67" t="n">
+        <v>115.0666666666667</v>
+      </c>
+      <c r="H67" t="n">
+        <v>117.0833333333333</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>115</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>117</v>
-      </c>
-      <c r="C57" t="n">
-        <v>117</v>
-      </c>
-      <c r="D57" t="n">
-        <v>117</v>
-      </c>
-      <c r="E57" t="n">
-        <v>117</v>
-      </c>
-      <c r="F57" t="n">
-        <v>6.4274</v>
-      </c>
-      <c r="G57" t="n">
-        <v>117.8</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>115</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>114</v>
+      </c>
+      <c r="C68" t="n">
+        <v>114</v>
+      </c>
+      <c r="D68" t="n">
+        <v>114</v>
+      </c>
+      <c r="E68" t="n">
+        <v>114</v>
+      </c>
+      <c r="F68" t="n">
+        <v>8601.0317</v>
+      </c>
+      <c r="G68" t="n">
+        <v>115</v>
+      </c>
+      <c r="H68" t="n">
+        <v>117</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>115</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>117</v>
-      </c>
-      <c r="C58" t="n">
-        <v>115</v>
-      </c>
-      <c r="D58" t="n">
-        <v>117</v>
-      </c>
-      <c r="E58" t="n">
-        <v>115</v>
-      </c>
-      <c r="F58" t="n">
-        <v>96</v>
-      </c>
-      <c r="G58" t="n">
-        <v>117.7166666666667</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>115</v>
-      </c>
-      <c r="C59" t="n">
-        <v>115</v>
-      </c>
-      <c r="D59" t="n">
-        <v>115</v>
-      </c>
-      <c r="E59" t="n">
-        <v>115</v>
-      </c>
-      <c r="F59" t="n">
-        <v>356.89</v>
-      </c>
-      <c r="G59" t="n">
-        <v>117.65</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>115</v>
-      </c>
-      <c r="C60" t="n">
-        <v>115</v>
-      </c>
-      <c r="D60" t="n">
-        <v>115</v>
-      </c>
-      <c r="E60" t="n">
-        <v>115</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1631.1285</v>
-      </c>
-      <c r="G60" t="n">
-        <v>117.5833333333333</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>115</v>
+      </c>
+      <c r="C69" t="n">
+        <v>115</v>
+      </c>
+      <c r="D69" t="n">
+        <v>115</v>
+      </c>
+      <c r="E69" t="n">
+        <v>115</v>
+      </c>
+      <c r="F69" t="n">
+        <v>5</v>
+      </c>
+      <c r="G69" t="n">
+        <v>115</v>
+      </c>
+      <c r="H69" t="n">
+        <v>116.9333333333333</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
         <v>114</v>
       </c>
-      <c r="C61" t="n">
+      <c r="L69" t="n">
         <v>114</v>
       </c>
-      <c r="D61" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>115</v>
+      </c>
+      <c r="C70" t="n">
+        <v>115</v>
+      </c>
+      <c r="D70" t="n">
+        <v>115</v>
+      </c>
+      <c r="E70" t="n">
+        <v>115</v>
+      </c>
+      <c r="F70" t="n">
+        <v>13.2652</v>
+      </c>
+      <c r="G70" t="n">
+        <v>114.8666666666667</v>
+      </c>
+      <c r="H70" t="n">
+        <v>116.8666666666667</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>115</v>
+      </c>
+      <c r="L70" t="n">
         <v>114</v>
       </c>
-      <c r="E61" t="n">
-        <v>114</v>
-      </c>
-      <c r="F61" t="n">
-        <v>6931.5268</v>
-      </c>
-      <c r="G61" t="n">
-        <v>117.5</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>115</v>
-      </c>
-      <c r="K61" t="n">
-        <v>115</v>
-      </c>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>114</v>
-      </c>
-      <c r="C62" t="n">
-        <v>114</v>
-      </c>
-      <c r="D62" t="n">
-        <v>114</v>
-      </c>
-      <c r="E62" t="n">
-        <v>114</v>
-      </c>
-      <c r="F62" t="n">
-        <v>42.5459</v>
-      </c>
-      <c r="G62" t="n">
-        <v>117.4333333333333</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>115</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="M70" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>116</v>
-      </c>
-      <c r="C63" t="n">
-        <v>116</v>
-      </c>
-      <c r="D63" t="n">
-        <v>116</v>
-      </c>
-      <c r="E63" t="n">
-        <v>116</v>
-      </c>
-      <c r="F63" t="n">
-        <v>5</v>
-      </c>
-      <c r="G63" t="n">
-        <v>117.4</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>115</v>
+      </c>
+      <c r="C71" t="n">
+        <v>115</v>
+      </c>
+      <c r="D71" t="n">
+        <v>115</v>
+      </c>
+      <c r="E71" t="n">
+        <v>115</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3275.467</v>
+      </c>
+      <c r="G71" t="n">
+        <v>114.8666666666667</v>
+      </c>
+      <c r="H71" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>115</v>
+      </c>
+      <c r="L71" t="n">
         <v>114</v>
       </c>
-      <c r="K63" t="n">
-        <v>115</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>114</v>
-      </c>
-      <c r="C64" t="n">
-        <v>114</v>
-      </c>
-      <c r="D64" t="n">
-        <v>114</v>
-      </c>
-      <c r="E64" t="n">
-        <v>114</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G64" t="n">
-        <v>117.3166666666667</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>115</v>
-      </c>
-      <c r="C65" t="n">
-        <v>115</v>
-      </c>
-      <c r="D65" t="n">
-        <v>115</v>
-      </c>
-      <c r="E65" t="n">
-        <v>115</v>
-      </c>
-      <c r="F65" t="n">
-        <v>5</v>
-      </c>
-      <c r="G65" t="n">
-        <v>117.2333333333333</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>114</v>
-      </c>
-      <c r="C66" t="n">
-        <v>114</v>
-      </c>
-      <c r="D66" t="n">
-        <v>114</v>
-      </c>
-      <c r="E66" t="n">
-        <v>114</v>
-      </c>
-      <c r="F66" t="n">
-        <v>15579.8113</v>
-      </c>
-      <c r="G66" t="n">
-        <v>117.15</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>115</v>
-      </c>
-      <c r="C67" t="n">
-        <v>115</v>
-      </c>
-      <c r="D67" t="n">
-        <v>115</v>
-      </c>
-      <c r="E67" t="n">
-        <v>115</v>
-      </c>
-      <c r="F67" t="n">
-        <v>5</v>
-      </c>
-      <c r="G67" t="n">
-        <v>117.0833333333333</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>114</v>
-      </c>
-      <c r="C68" t="n">
-        <v>114</v>
-      </c>
-      <c r="D68" t="n">
-        <v>114</v>
-      </c>
-      <c r="E68" t="n">
-        <v>114</v>
-      </c>
-      <c r="F68" t="n">
-        <v>8601.0317</v>
-      </c>
-      <c r="G68" t="n">
-        <v>117</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>115</v>
-      </c>
-      <c r="C69" t="n">
-        <v>115</v>
-      </c>
-      <c r="D69" t="n">
-        <v>115</v>
-      </c>
-      <c r="E69" t="n">
-        <v>115</v>
-      </c>
-      <c r="F69" t="n">
-        <v>5</v>
-      </c>
-      <c r="G69" t="n">
-        <v>116.9333333333333</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>115</v>
-      </c>
-      <c r="C70" t="n">
-        <v>115</v>
-      </c>
-      <c r="D70" t="n">
-        <v>115</v>
-      </c>
-      <c r="E70" t="n">
-        <v>115</v>
-      </c>
-      <c r="F70" t="n">
-        <v>13.2652</v>
-      </c>
-      <c r="G70" t="n">
-        <v>116.8666666666667</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>115</v>
-      </c>
-      <c r="C71" t="n">
-        <v>115</v>
-      </c>
-      <c r="D71" t="n">
-        <v>115</v>
-      </c>
-      <c r="E71" t="n">
-        <v>115</v>
-      </c>
-      <c r="F71" t="n">
-        <v>3275.467</v>
-      </c>
-      <c r="G71" t="n">
-        <v>116.8</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2932,18 +3149,25 @@
         <v>5</v>
       </c>
       <c r="G72" t="n">
+        <v>114.8</v>
+      </c>
+      <c r="H72" t="n">
         <v>116.75</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>115</v>
+      </c>
+      <c r="L72" t="n">
+        <v>115</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2967,18 +3191,29 @@
         <v>3275.467</v>
       </c>
       <c r="G73" t="n">
+        <v>114.8</v>
+      </c>
+      <c r="H73" t="n">
         <v>116.7</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>116</v>
+      </c>
+      <c r="L73" t="n">
+        <v>115</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3002,18 +3237,29 @@
         <v>5</v>
       </c>
       <c r="G74" t="n">
+        <v>114.8666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>116.6666666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>115</v>
+      </c>
+      <c r="L74" t="n">
+        <v>115</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3037,18 +3283,25 @@
         <v>3000</v>
       </c>
       <c r="G75" t="n">
+        <v>114.9333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>116.6333333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>116</v>
+      </c>
+      <c r="L75" t="n">
+        <v>116</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3072,18 +3325,27 @@
         <v>5</v>
       </c>
       <c r="G76" t="n">
+        <v>115.0666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>116.6</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>116</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3107,18 +3369,27 @@
         <v>6043.7862</v>
       </c>
       <c r="G77" t="n">
+        <v>115.2</v>
+      </c>
+      <c r="H77" t="n">
         <v>116.5666666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>116</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3142,18 +3413,21 @@
         <v>130</v>
       </c>
       <c r="G78" t="n">
+        <v>115.1333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>116.5</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3177,18 +3451,25 @@
         <v>10</v>
       </c>
       <c r="G79" t="n">
+        <v>115.2</v>
+      </c>
+      <c r="H79" t="n">
         <v>116.4333333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>115</v>
+      </c>
+      <c r="L79" t="n">
+        <v>115</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,18 +3493,29 @@
         <v>5</v>
       </c>
       <c r="G80" t="n">
+        <v>115.2666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>116.3833333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>115</v>
+      </c>
+      <c r="L80" t="n">
+        <v>115</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3247,18 +3539,29 @@
         <v>3160.7741</v>
       </c>
       <c r="G81" t="n">
+        <v>115.3333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>116.3166666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>116</v>
+      </c>
+      <c r="L81" t="n">
+        <v>115</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3282,18 +3585,25 @@
         <v>5</v>
       </c>
       <c r="G82" t="n">
+        <v>115.4</v>
+      </c>
+      <c r="H82" t="n">
         <v>116.2666666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>115</v>
+      </c>
+      <c r="L82" t="n">
+        <v>115</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3317,18 +3627,29 @@
         <v>7912.6424</v>
       </c>
       <c r="G83" t="n">
+        <v>115.5333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>116.2166666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>116</v>
+      </c>
+      <c r="L83" t="n">
+        <v>115</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,18 +3673,29 @@
         <v>6218</v>
       </c>
       <c r="G84" t="n">
+        <v>115.6666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>116.2</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>116</v>
+      </c>
+      <c r="L84" t="n">
+        <v>115</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3387,18 +3719,25 @@
         <v>120</v>
       </c>
       <c r="G85" t="n">
+        <v>115.8</v>
+      </c>
+      <c r="H85" t="n">
         <v>116.2</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>117</v>
+      </c>
+      <c r="L85" t="n">
+        <v>117</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3422,18 +3761,29 @@
         <v>200</v>
       </c>
       <c r="G86" t="n">
+        <v>115.9333333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>116.1666666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>117</v>
+      </c>
+      <c r="L86" t="n">
+        <v>117</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,18 +3807,29 @@
         <v>19392.196</v>
       </c>
       <c r="G87" t="n">
+        <v>116.0666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>116.1833333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>117</v>
+      </c>
+      <c r="L87" t="n">
+        <v>117</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3492,18 +3853,21 @@
         <v>5834.1997</v>
       </c>
       <c r="G88" t="n">
+        <v>116.3333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>116.2166666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3527,18 +3891,21 @@
         <v>5</v>
       </c>
       <c r="G89" t="n">
+        <v>116.4666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>116.2166666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3562,18 +3929,21 @@
         <v>5</v>
       </c>
       <c r="G90" t="n">
+        <v>116.5333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>116.1833333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3597,18 +3967,21 @@
         <v>602.804</v>
       </c>
       <c r="G91" t="n">
+        <v>116.7333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>116.1833333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3632,18 +4005,21 @@
         <v>5</v>
       </c>
       <c r="G92" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="H92" t="n">
         <v>116.1666666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3667,18 +4043,21 @@
         <v>5</v>
       </c>
       <c r="G93" t="n">
+        <v>117.0666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>116.1833333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3702,18 +4081,21 @@
         <v>8</v>
       </c>
       <c r="G94" t="n">
+        <v>117.2</v>
+      </c>
+      <c r="H94" t="n">
         <v>116.1833333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3737,18 +4119,21 @@
         <v>5</v>
       </c>
       <c r="G95" t="n">
+        <v>117.4</v>
+      </c>
+      <c r="H95" t="n">
         <v>116.2166666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3772,18 +4157,21 @@
         <v>5877.7204</v>
       </c>
       <c r="G96" t="n">
+        <v>117.6666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>116.2333333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3807,18 +4195,21 @@
         <v>5</v>
       </c>
       <c r="G97" t="n">
+        <v>117.9333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>116.2833333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3842,18 +4233,21 @@
         <v>5892.3866</v>
       </c>
       <c r="G98" t="n">
+        <v>118.1333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>116.3</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3877,18 +4271,21 @@
         <v>5</v>
       </c>
       <c r="G99" t="n">
+        <v>118.3333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>116.3333333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3912,18 +4309,21 @@
         <v>25.4861</v>
       </c>
       <c r="G100" t="n">
+        <v>118.4666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>116.3833333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3947,18 +4347,21 @@
         <v>5</v>
       </c>
       <c r="G101" t="n">
+        <v>118.6666666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>116.4333333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3982,18 +4385,21 @@
         <v>5</v>
       </c>
       <c r="G102" t="n">
+        <v>118.7333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>116.4666666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4017,18 +4423,21 @@
         <v>576.4173</v>
       </c>
       <c r="G103" t="n">
+        <v>118.6666666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>116.4833333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4052,18 +4461,21 @@
         <v>5</v>
       </c>
       <c r="G104" t="n">
+        <v>118.7333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>116.55</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4087,18 +4499,21 @@
         <v>491.9034</v>
       </c>
       <c r="G105" t="n">
+        <v>118.8666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>116.5666666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4122,18 +4537,21 @@
         <v>5</v>
       </c>
       <c r="G106" t="n">
+        <v>118.9333333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>116.6333333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4157,18 +4575,21 @@
         <v>17129.0521</v>
       </c>
       <c r="G107" t="n">
+        <v>119.1333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>116.6666666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4192,18 +4613,21 @@
         <v>5</v>
       </c>
       <c r="G108" t="n">
+        <v>119.2666666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>116.7666666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4227,18 +4651,21 @@
         <v>26141.1902</v>
       </c>
       <c r="G109" t="n">
+        <v>119.6666666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>116.8666666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4262,18 +4689,21 @@
         <v>5434.89</v>
       </c>
       <c r="G110" t="n">
+        <v>119.9333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>116.9666666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4297,18 +4727,21 @@
         <v>3147.4673</v>
       </c>
       <c r="G111" t="n">
+        <v>120.2666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>117.0833333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4332,18 +4765,21 @@
         <v>3949.6656</v>
       </c>
       <c r="G112" t="n">
+        <v>120.5333333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>117.2333333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4367,18 +4803,21 @@
         <v>5</v>
       </c>
       <c r="G113" t="n">
+        <v>120.9333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>117.4</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4402,18 +4841,21 @@
         <v>8104.7905</v>
       </c>
       <c r="G114" t="n">
+        <v>121.3333333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>117.5833333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4437,18 +4879,21 @@
         <v>12638.317</v>
       </c>
       <c r="G115" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="H115" t="n">
         <v>117.7333333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4472,18 +4917,21 @@
         <v>13690.4528</v>
       </c>
       <c r="G116" t="n">
+        <v>122.0666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>117.8833333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4507,18 +4955,21 @@
         <v>45</v>
       </c>
       <c r="G117" t="n">
+        <v>122.4</v>
+      </c>
+      <c r="H117" t="n">
         <v>118</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,18 +4993,21 @@
         <v>50324.9078</v>
       </c>
       <c r="G118" t="n">
+        <v>123.0666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>118.2166666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4577,18 +5031,21 @@
         <v>33395.2635</v>
       </c>
       <c r="G119" t="n">
+        <v>123.6666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>118.4333333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4612,18 +5069,21 @@
         <v>21238.7921</v>
       </c>
       <c r="G120" t="n">
+        <v>124.1333333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>118.6166666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4647,18 +5107,21 @@
         <v>341.4259</v>
       </c>
       <c r="G121" t="n">
+        <v>124.6</v>
+      </c>
+      <c r="H121" t="n">
         <v>118.8333333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4682,18 +5145,21 @@
         <v>9112.740900000001</v>
       </c>
       <c r="G122" t="n">
+        <v>125</v>
+      </c>
+      <c r="H122" t="n">
         <v>119.0333333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4717,18 +5183,21 @@
         <v>804.0536</v>
       </c>
       <c r="G123" t="n">
+        <v>125.2666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>119.1833333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4752,18 +5221,21 @@
         <v>906.6771</v>
       </c>
       <c r="G124" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="H124" t="n">
         <v>119.3666666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4787,18 +5259,21 @@
         <v>6302.3559</v>
       </c>
       <c r="G125" t="n">
+        <v>125.4666666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>119.5166666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4822,18 +5297,21 @@
         <v>4</v>
       </c>
       <c r="G126" t="n">
+        <v>125.5333333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>119.7</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4857,18 +5335,21 @@
         <v>4663.8587</v>
       </c>
       <c r="G127" t="n">
+        <v>125.5333333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>119.85</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4892,18 +5373,21 @@
         <v>339.3526</v>
       </c>
       <c r="G128" t="n">
+        <v>125.5333333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>120.0333333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4927,18 +5411,21 @@
         <v>19893.0384</v>
       </c>
       <c r="G129" t="n">
+        <v>125.5333333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>120.2166666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,18 +5449,21 @@
         <v>10540.4089</v>
       </c>
       <c r="G130" t="n">
+        <v>125.5333333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>120.4</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4997,18 +5487,21 @@
         <v>5</v>
       </c>
       <c r="G131" t="n">
+        <v>125.7333333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>120.6</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5032,18 +5525,21 @@
         <v>27095.5861</v>
       </c>
       <c r="G132" t="n">
+        <v>126</v>
+      </c>
+      <c r="H132" t="n">
         <v>120.8</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5067,18 +5563,21 @@
         <v>12397.4984</v>
       </c>
       <c r="G133" t="n">
+        <v>126.0666666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>121.0333333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5102,18 +5601,21 @@
         <v>8851.8341</v>
       </c>
       <c r="G134" t="n">
+        <v>126.1333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>121.25</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5137,18 +5639,21 @@
         <v>2983.6261</v>
       </c>
       <c r="G135" t="n">
+        <v>126.3333333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>121.4666666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5172,18 +5677,21 @@
         <v>1397.863</v>
       </c>
       <c r="G136" t="n">
+        <v>126.4</v>
+      </c>
+      <c r="H136" t="n">
         <v>121.6666666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5207,18 +5715,21 @@
         <v>5</v>
       </c>
       <c r="G137" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="H137" t="n">
         <v>121.8833333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,18 +5753,21 @@
         <v>18122.5223</v>
       </c>
       <c r="G138" t="n">
+        <v>126.7333333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>122.0833333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5277,18 +5791,21 @@
         <v>20.0794</v>
       </c>
       <c r="G139" t="n">
+        <v>127</v>
+      </c>
+      <c r="H139" t="n">
         <v>122.3166666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5312,18 +5829,21 @@
         <v>3578.2607</v>
       </c>
       <c r="G140" t="n">
+        <v>127.3333333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>122.5333333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5347,18 +5867,21 @@
         <v>2797.943</v>
       </c>
       <c r="G141" t="n">
+        <v>127.6666666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>122.7833333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5382,18 +5905,21 @@
         <v>34405.0204</v>
       </c>
       <c r="G142" t="n">
+        <v>128</v>
+      </c>
+      <c r="H142" t="n">
         <v>123</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5417,18 +5943,21 @@
         <v>23358.5294</v>
       </c>
       <c r="G143" t="n">
+        <v>128.2</v>
+      </c>
+      <c r="H143" t="n">
         <v>123.2</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5452,18 +5981,21 @@
         <v>2601.9013</v>
       </c>
       <c r="G144" t="n">
+        <v>128.2666666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>123.3666666666667</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5487,18 +6019,21 @@
         <v>2573.8198</v>
       </c>
       <c r="G145" t="n">
+        <v>128.4</v>
+      </c>
+      <c r="H145" t="n">
         <v>123.55</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5522,18 +6057,21 @@
         <v>16</v>
       </c>
       <c r="G146" t="n">
+        <v>128.4</v>
+      </c>
+      <c r="H146" t="n">
         <v>123.7166666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5557,18 +6095,21 @@
         <v>4</v>
       </c>
       <c r="G147" t="n">
+        <v>128.4666666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>123.9</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5592,18 +6133,21 @@
         <v>4726.3748</v>
       </c>
       <c r="G148" t="n">
+        <v>128.4</v>
+      </c>
+      <c r="H148" t="n">
         <v>124.05</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5627,18 +6171,21 @@
         <v>6817.1302</v>
       </c>
       <c r="G149" t="n">
+        <v>128.3333333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>124.2166666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5662,18 +6209,21 @@
         <v>17.82</v>
       </c>
       <c r="G150" t="n">
+        <v>128.2</v>
+      </c>
+      <c r="H150" t="n">
         <v>124.3833333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5697,18 +6247,21 @@
         <v>4595.9053</v>
       </c>
       <c r="G151" t="n">
+        <v>128.2</v>
+      </c>
+      <c r="H151" t="n">
         <v>124.5333333333333</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5732,18 +6285,21 @@
         <v>11186.8599</v>
       </c>
       <c r="G152" t="n">
+        <v>128</v>
+      </c>
+      <c r="H152" t="n">
         <v>124.6833333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5767,18 +6323,21 @@
         <v>1395.0003</v>
       </c>
       <c r="G153" t="n">
+        <v>128</v>
+      </c>
+      <c r="H153" t="n">
         <v>124.8166666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5802,18 +6361,21 @@
         <v>5368.175</v>
       </c>
       <c r="G154" t="n">
+        <v>127.8666666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>124.9833333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5837,18 +6399,21 @@
         <v>13.365</v>
       </c>
       <c r="G155" t="n">
+        <v>127.6666666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>125.1</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5872,18 +6437,21 @@
         <v>4</v>
       </c>
       <c r="G156" t="n">
+        <v>127.4666666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>125.2333333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5907,18 +6475,21 @@
         <v>933.2772</v>
       </c>
       <c r="G157" t="n">
+        <v>127.2666666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>125.3333333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5942,18 +6513,21 @@
         <v>4</v>
       </c>
       <c r="G158" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="H158" t="n">
         <v>125.4666666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5977,18 +6551,21 @@
         <v>12539.5019</v>
       </c>
       <c r="G159" t="n">
+        <v>127.1333333333333</v>
+      </c>
+      <c r="H159" t="n">
         <v>125.5666666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6012,18 +6589,21 @@
         <v>7.248</v>
       </c>
       <c r="G160" t="n">
+        <v>126.9333333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>125.6666666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6047,18 +6627,21 @@
         <v>1604</v>
       </c>
       <c r="G161" t="n">
+        <v>126.8</v>
+      </c>
+      <c r="H161" t="n">
         <v>125.75</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6082,24 +6665,21 @@
         <v>17</v>
       </c>
       <c r="G162" t="n">
+        <v>126.4</v>
+      </c>
+      <c r="H162" t="n">
         <v>125.8166666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6123,24 +6703,21 @@
         <v>13</v>
       </c>
       <c r="G163" t="n">
+        <v>126.2</v>
+      </c>
+      <c r="H163" t="n">
         <v>125.9333333333333</v>
       </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6164,24 +6741,21 @@
         <v>4720.2935</v>
       </c>
       <c r="G164" t="n">
+        <v>125.9333333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>126.0166666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6205,24 +6779,21 @@
         <v>4</v>
       </c>
       <c r="G165" t="n">
+        <v>125.8666666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>126.1333333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6246,22 +6817,21 @@
         <v>17</v>
       </c>
       <c r="G166" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="H166" t="n">
         <v>126.2</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6285,22 +6855,21 @@
         <v>4</v>
       </c>
       <c r="G167" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="H167" t="n">
         <v>126.3</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6324,22 +6893,21 @@
         <v>2555.7163</v>
       </c>
       <c r="G168" t="n">
+        <v>125.4666666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>126.3666666666667</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,22 +6931,21 @@
         <v>2930.7265</v>
       </c>
       <c r="G169" t="n">
+        <v>125.2666666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>126.3833333333333</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6402,22 +6969,21 @@
         <v>13078.3258</v>
       </c>
       <c r="G170" t="n">
+        <v>125.2</v>
+      </c>
+      <c r="H170" t="n">
         <v>126.4166666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6441,22 +7007,21 @@
         <v>3043.769</v>
       </c>
       <c r="G171" t="n">
+        <v>125.1333333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>126.45</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6480,22 +7045,21 @@
         <v>9099.228300000001</v>
       </c>
       <c r="G172" t="n">
+        <v>125.1333333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>126.4833333333333</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6519,22 +7083,21 @@
         <v>1435.0955</v>
       </c>
       <c r="G173" t="n">
+        <v>124.9333333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>126.4666666666667</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6558,22 +7121,21 @@
         <v>14557.2</v>
       </c>
       <c r="G174" t="n">
+        <v>124.7333333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>126.4166666666667</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6597,22 +7159,21 @@
         <v>841.9179</v>
       </c>
       <c r="G175" t="n">
+        <v>124.5333333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>126.35</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6636,22 +7197,21 @@
         <v>17676.1722</v>
       </c>
       <c r="G176" t="n">
+        <v>124.4</v>
+      </c>
+      <c r="H176" t="n">
         <v>126.3333333333333</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6675,22 +7235,21 @@
         <v>10</v>
       </c>
       <c r="G177" t="n">
+        <v>124.4666666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>126.3333333333333</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6714,22 +7273,21 @@
         <v>115</v>
       </c>
       <c r="G178" t="n">
+        <v>124.4</v>
+      </c>
+      <c r="H178" t="n">
         <v>126.2666666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6753,22 +7311,21 @@
         <v>395.625</v>
       </c>
       <c r="G179" t="n">
+        <v>124.2666666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>126.1666666666667</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6792,22 +7349,21 @@
         <v>24.4699</v>
       </c>
       <c r="G180" t="n">
+        <v>124</v>
+      </c>
+      <c r="H180" t="n">
         <v>126.1</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6831,22 +7387,21 @@
         <v>4</v>
       </c>
       <c r="G181" t="n">
+        <v>124.0666666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>126.0666666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6870,22 +7425,21 @@
         <v>9</v>
       </c>
       <c r="G182" t="n">
+        <v>124</v>
+      </c>
+      <c r="H182" t="n">
         <v>126.05</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6909,22 +7463,21 @@
         <v>5</v>
       </c>
       <c r="G183" t="n">
+        <v>123.8</v>
+      </c>
+      <c r="H183" t="n">
         <v>126</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6948,22 +7501,21 @@
         <v>118.6009</v>
       </c>
       <c r="G184" t="n">
+        <v>123.8</v>
+      </c>
+      <c r="H184" t="n">
         <v>125.9833333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6987,22 +7539,21 @@
         <v>4</v>
       </c>
       <c r="G185" t="n">
+        <v>123.9333333333333</v>
+      </c>
+      <c r="H185" t="n">
         <v>126.0333333333333</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7026,22 +7577,21 @@
         <v>23</v>
       </c>
       <c r="G186" t="n">
+        <v>123.9333333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>126.05</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7065,22 +7615,21 @@
         <v>5</v>
       </c>
       <c r="G187" t="n">
+        <v>123.7333333333333</v>
+      </c>
+      <c r="H187" t="n">
         <v>126.0333333333333</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7104,22 +7653,21 @@
         <v>7.3905</v>
       </c>
       <c r="G188" t="n">
+        <v>123.8</v>
+      </c>
+      <c r="H188" t="n">
         <v>126.0333333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7143,22 +7691,21 @@
         <v>5</v>
       </c>
       <c r="G189" t="n">
+        <v>123.8</v>
+      </c>
+      <c r="H189" t="n">
         <v>125.9833333333333</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7182,22 +7729,21 @@
         <v>4</v>
       </c>
       <c r="G190" t="n">
+        <v>124</v>
+      </c>
+      <c r="H190" t="n">
         <v>125.9666666666667</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7221,22 +7767,21 @@
         <v>2226</v>
       </c>
       <c r="G191" t="n">
+        <v>124.1333333333333</v>
+      </c>
+      <c r="H191" t="n">
         <v>125.9333333333333</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7260,22 +7805,21 @@
         <v>6063.6394</v>
       </c>
       <c r="G192" t="n">
+        <v>124.2</v>
+      </c>
+      <c r="H192" t="n">
         <v>125.8833333333333</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7299,22 +7843,21 @@
         <v>100</v>
       </c>
       <c r="G193" t="n">
+        <v>124.2666666666667</v>
+      </c>
+      <c r="H193" t="n">
         <v>125.8166666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7338,22 +7881,21 @@
         <v>215</v>
       </c>
       <c r="G194" t="n">
+        <v>124.5333333333333</v>
+      </c>
+      <c r="H194" t="n">
         <v>125.7666666666667</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7377,22 +7919,21 @@
         <v>4</v>
       </c>
       <c r="G195" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="H195" t="n">
         <v>125.7166666666667</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7416,22 +7957,21 @@
         <v>8.134920634920634</v>
       </c>
       <c r="G196" t="n">
+        <v>124.8666666666667</v>
+      </c>
+      <c r="H196" t="n">
         <v>125.6833333333333</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7455,22 +7995,21 @@
         <v>2104.4157</v>
       </c>
       <c r="G197" t="n">
+        <v>124.7333333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>125.5833333333333</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7494,22 +8033,21 @@
         <v>6192.4479</v>
       </c>
       <c r="G198" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="H198" t="n">
         <v>125.5166666666667</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7533,22 +8071,21 @@
         <v>795.8377</v>
       </c>
       <c r="G199" t="n">
+        <v>124.6666666666667</v>
+      </c>
+      <c r="H199" t="n">
         <v>125.4</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7572,22 +8109,21 @@
         <v>1664.1318</v>
       </c>
       <c r="G200" t="n">
+        <v>124.3333333333333</v>
+      </c>
+      <c r="H200" t="n">
         <v>125.2833333333333</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7611,22 +8147,21 @@
         <v>70.3921</v>
       </c>
       <c r="G201" t="n">
+        <v>124.0666666666667</v>
+      </c>
+      <c r="H201" t="n">
         <v>125.15</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7650,22 +8185,21 @@
         <v>11000.7276</v>
       </c>
       <c r="G202" t="n">
+        <v>123.8666666666667</v>
+      </c>
+      <c r="H202" t="n">
         <v>125</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7689,22 +8223,21 @@
         <v>411.6131</v>
       </c>
       <c r="G203" t="n">
+        <v>123.5333333333333</v>
+      </c>
+      <c r="H203" t="n">
         <v>124.8666666666667</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7728,22 +8261,21 @@
         <v>1145.6896</v>
       </c>
       <c r="G204" t="n">
+        <v>123.2666666666667</v>
+      </c>
+      <c r="H204" t="n">
         <v>124.7333333333333</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7767,22 +8299,21 @@
         <v>6059.6394</v>
       </c>
       <c r="G205" t="n">
+        <v>122.8666666666667</v>
+      </c>
+      <c r="H205" t="n">
         <v>124.5833333333333</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7806,22 +8337,21 @@
         <v>8.1349</v>
       </c>
       <c r="G206" t="n">
+        <v>122.4666666666667</v>
+      </c>
+      <c r="H206" t="n">
         <v>124.45</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7845,22 +8375,21 @@
         <v>611.6123</v>
       </c>
       <c r="G207" t="n">
+        <v>122.0666666666667</v>
+      </c>
+      <c r="H207" t="n">
         <v>124.2833333333333</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7884,22 +8413,21 @@
         <v>105</v>
       </c>
       <c r="G208" t="n">
+        <v>121.7333333333333</v>
+      </c>
+      <c r="H208" t="n">
         <v>124.15</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7923,22 +8451,21 @@
         <v>18510.0613</v>
       </c>
       <c r="G209" t="n">
+        <v>121.3333333333333</v>
+      </c>
+      <c r="H209" t="n">
         <v>124.0166666666667</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7962,22 +8489,401 @@
         <v>5</v>
       </c>
       <c r="G210" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="H210" t="n">
         <v>123.8666666666667</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>119</v>
+      </c>
+      <c r="C211" t="n">
+        <v>119</v>
+      </c>
+      <c r="D211" t="n">
+        <v>119</v>
+      </c>
+      <c r="E211" t="n">
+        <v>119</v>
+      </c>
+      <c r="F211" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G211" t="n">
+        <v>120.3333333333333</v>
+      </c>
+      <c r="H211" t="n">
+        <v>123.7166666666667</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>120</v>
+      </c>
+      <c r="C212" t="n">
+        <v>119</v>
+      </c>
+      <c r="D212" t="n">
+        <v>120</v>
+      </c>
+      <c r="E212" t="n">
+        <v>119</v>
+      </c>
+      <c r="F212" t="n">
+        <v>4854.0545</v>
+      </c>
+      <c r="G212" t="n">
+        <v>120.0666666666667</v>
+      </c>
+      <c r="H212" t="n">
+        <v>123.6</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>120</v>
+      </c>
+      <c r="C213" t="n">
+        <v>121</v>
+      </c>
+      <c r="D213" t="n">
+        <v>121</v>
+      </c>
+      <c r="E213" t="n">
+        <v>120</v>
+      </c>
+      <c r="F213" t="n">
+        <v>5</v>
+      </c>
+      <c r="G213" t="n">
+        <v>119.9333333333333</v>
+      </c>
+      <c r="H213" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>119</v>
+      </c>
+      <c r="C214" t="n">
+        <v>119</v>
+      </c>
+      <c r="D214" t="n">
+        <v>119</v>
+      </c>
+      <c r="E214" t="n">
+        <v>119</v>
+      </c>
+      <c r="F214" t="n">
+        <v>5</v>
+      </c>
+      <c r="G214" t="n">
+        <v>119.7333333333333</v>
+      </c>
+      <c r="H214" t="n">
+        <v>123.3666666666667</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>121</v>
+      </c>
+      <c r="C215" t="n">
+        <v>122</v>
+      </c>
+      <c r="D215" t="n">
+        <v>122</v>
+      </c>
+      <c r="E215" t="n">
+        <v>121</v>
+      </c>
+      <c r="F215" t="n">
+        <v>2793.0893</v>
+      </c>
+      <c r="G215" t="n">
+        <v>119.7333333333333</v>
+      </c>
+      <c r="H215" t="n">
+        <v>123.3</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>122</v>
+      </c>
+      <c r="C216" t="n">
+        <v>122</v>
+      </c>
+      <c r="D216" t="n">
+        <v>122</v>
+      </c>
+      <c r="E216" t="n">
+        <v>122</v>
+      </c>
+      <c r="F216" t="n">
+        <v>232.6085</v>
+      </c>
+      <c r="G216" t="n">
+        <v>119.7333333333333</v>
+      </c>
+      <c r="H216" t="n">
+        <v>123.2166666666667</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>122</v>
+      </c>
+      <c r="C217" t="n">
+        <v>123</v>
+      </c>
+      <c r="D217" t="n">
+        <v>123</v>
+      </c>
+      <c r="E217" t="n">
+        <v>122</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1018.4957</v>
+      </c>
+      <c r="G217" t="n">
+        <v>119.9333333333333</v>
+      </c>
+      <c r="H217" t="n">
+        <v>123.1666666666667</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>123</v>
+      </c>
+      <c r="C218" t="n">
+        <v>123</v>
+      </c>
+      <c r="D218" t="n">
+        <v>123</v>
+      </c>
+      <c r="E218" t="n">
+        <v>123</v>
+      </c>
+      <c r="F218" t="n">
+        <v>12</v>
+      </c>
+      <c r="G218" t="n">
+        <v>120.1333333333333</v>
+      </c>
+      <c r="H218" t="n">
+        <v>123.1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>120</v>
+      </c>
+      <c r="C219" t="n">
+        <v>120</v>
+      </c>
+      <c r="D219" t="n">
+        <v>123</v>
+      </c>
+      <c r="E219" t="n">
+        <v>120</v>
+      </c>
+      <c r="F219" t="n">
+        <v>222.2682</v>
+      </c>
+      <c r="G219" t="n">
+        <v>120.2</v>
+      </c>
+      <c r="H219" t="n">
+        <v>123</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>123</v>
+      </c>
+      <c r="C220" t="n">
+        <v>123</v>
+      </c>
+      <c r="D220" t="n">
+        <v>123</v>
+      </c>
+      <c r="E220" t="n">
+        <v>123</v>
+      </c>
+      <c r="F220" t="n">
+        <v>5</v>
+      </c>
+      <c r="G220" t="n">
+        <v>120.4666666666667</v>
+      </c>
+      <c r="H220" t="n">
+        <v>122.9666666666667</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-21 BackTest WOM.xlsx
+++ b/BackTest/2019-11-21 BackTest WOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M249"/>
+  <dimension ref="A1:N207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C2" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D2" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E2" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>-51919.30761118015</v>
+        <v>118</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C3" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D3" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E3" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>2643.1445</v>
       </c>
       <c r="G3" t="n">
-        <v>-51919.30761118015</v>
+        <v>118</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C4" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D4" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E4" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>22.7176</v>
       </c>
       <c r="G4" t="n">
-        <v>-51919.30761118015</v>
+        <v>118</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C5" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D5" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E5" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F5" t="n">
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>-51919.30761118015</v>
+        <v>118.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C6" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D6" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E6" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>-51919.30761118015</v>
+        <v>119</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C7" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D7" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E7" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F7" t="n">
-        <v>535.174075862069</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>-51919.30761118015</v>
+        <v>119</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C8" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D8" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E8" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F8" t="n">
-        <v>254.2858</v>
+        <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>-52173.59341118015</v>
+        <v>119</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C9" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D9" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E9" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="G9" t="n">
-        <v>-52168.59341118015</v>
+        <v>119</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C10" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D10" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E10" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F10" t="n">
-        <v>3703.8689</v>
+        <v>15</v>
       </c>
       <c r="G10" t="n">
-        <v>-55872.46231118015</v>
+        <v>119</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C11" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D11" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E11" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F11" t="n">
-        <v>16</v>
+        <v>14.7051</v>
       </c>
       <c r="G11" t="n">
-        <v>-55856.46231118015</v>
+        <v>118.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C12" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D12" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E12" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F12" t="n">
-        <v>1212.836924137931</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>-55856.46231118015</v>
+        <v>117.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C13" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D13" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E13" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F13" t="n">
-        <v>3684.2588</v>
+        <v>24.946</v>
       </c>
       <c r="G13" t="n">
-        <v>-55856.46231118015</v>
+        <v>118</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C14" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D14" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E14" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>2653.1446</v>
       </c>
       <c r="G14" t="n">
-        <v>-55856.46231118015</v>
+        <v>118</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C15" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D15" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E15" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F15" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G15" t="n">
-        <v>-55856.46231118015</v>
+        <v>117</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C16" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D16" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E16" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F16" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>-55856.46231118015</v>
+        <v>117.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C17" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D17" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E17" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F17" t="n">
-        <v>1527.6949</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>-54328.76741118015</v>
+        <v>118.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -996,19 +1017,19 @@
         <v>118</v>
       </c>
       <c r="C18" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D18" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E18" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F18" t="n">
-        <v>2036.6435</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
-        <v>-52292.12391118015</v>
+        <v>119</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1031,19 +1053,19 @@
         <v>118</v>
       </c>
       <c r="C19" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D19" t="n">
         <v>118</v>
       </c>
       <c r="E19" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F19" t="n">
-        <v>5695.6298</v>
+        <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>-57987.75371118015</v>
+        <v>118.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1075,10 +1098,10 @@
         <v>118</v>
       </c>
       <c r="F20" t="n">
-        <v>2935.0414</v>
+        <v>13.035</v>
       </c>
       <c r="G20" t="n">
-        <v>-55052.71231118015</v>
+        <v>118</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D21" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E21" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>-55052.71231118015</v>
+        <v>117.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D22" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E22" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F22" t="n">
-        <v>195</v>
+        <v>107.1</v>
       </c>
       <c r="G22" t="n">
-        <v>-54857.71231118015</v>
+        <v>117</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C23" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D23" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E23" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F23" t="n">
-        <v>14.2091</v>
+        <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>-54871.92141118015</v>
+        <v>117.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1215,10 +1242,10 @@
         <v>117</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>8.19</v>
       </c>
       <c r="G24" t="n">
-        <v>-54871.92141118015</v>
+        <v>117.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C25" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D25" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E25" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F25" t="n">
-        <v>2988.3625</v>
+        <v>7027.7684</v>
       </c>
       <c r="G25" t="n">
-        <v>-51883.55891118015</v>
+        <v>117.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D26" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E26" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F26" t="n">
-        <v>21626.532</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>-30257.02691118015</v>
+        <v>118</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C27" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D27" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E27" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F27" t="n">
-        <v>9.7051</v>
+        <v>18.4275</v>
       </c>
       <c r="G27" t="n">
-        <v>-30257.02691118015</v>
+        <v>117</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C28" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D28" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E28" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F28" t="n">
-        <v>19.2678</v>
+        <v>3564.7857</v>
       </c>
       <c r="G28" t="n">
-        <v>-30276.29471118015</v>
+        <v>116.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C29" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D29" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E29" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F29" t="n">
-        <v>12490.4852</v>
+        <v>15968.6119</v>
       </c>
       <c r="G29" t="n">
-        <v>-30276.29471118015</v>
+        <v>117</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C30" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D30" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E30" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F30" t="n">
-        <v>313.4604</v>
+        <v>10.1819</v>
       </c>
       <c r="G30" t="n">
-        <v>-30276.29471118015</v>
+        <v>117</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C31" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D31" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E31" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>15963.612</v>
       </c>
       <c r="G31" t="n">
-        <v>-30281.29471118015</v>
+        <v>116</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C32" t="n">
         <v>118</v>
       </c>
       <c r="D32" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E32" t="n">
         <v>118</v>
       </c>
       <c r="F32" t="n">
-        <v>12.7574</v>
+        <v>5</v>
       </c>
       <c r="G32" t="n">
-        <v>-30281.29471118015</v>
+        <v>116.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C33" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D33" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E33" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7</v>
+        <v>5.5282</v>
       </c>
       <c r="G33" t="n">
-        <v>-30280.59471118015</v>
+        <v>117</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C34" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D34" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E34" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F34" t="n">
         <v>5</v>
       </c>
       <c r="G34" t="n">
-        <v>-30275.59471118015</v>
+        <v>117</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C35" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D35" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E35" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>12.4385</v>
       </c>
       <c r="G35" t="n">
-        <v>-30280.59471118015</v>
+        <v>116.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C36" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D36" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E36" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G36" t="n">
-        <v>-30280.59471118015</v>
+        <v>116</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C37" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D37" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E37" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F37" t="n">
-        <v>4.2323</v>
+        <v>11</v>
       </c>
       <c r="G37" t="n">
-        <v>-30280.59471118015</v>
+        <v>117</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E38" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F38" t="n">
-        <v>9.9687</v>
+        <v>15</v>
       </c>
       <c r="G38" t="n">
-        <v>-30280.59471118015</v>
+        <v>117</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C39" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D39" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E39" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F39" t="n">
-        <v>15.799</v>
+        <v>5.3289</v>
       </c>
       <c r="G39" t="n">
-        <v>-30280.59471118015</v>
+        <v>116</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C40" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D40" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E40" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F40" t="n">
-        <v>150</v>
+        <v>12.9934</v>
       </c>
       <c r="G40" t="n">
-        <v>-30280.59471118015</v>
+        <v>115</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C41" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D41" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E41" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="G41" t="n">
-        <v>-30280.59471118015</v>
+        <v>115</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C42" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D42" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E42" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F42" t="n">
-        <v>31.3939</v>
+        <v>5</v>
       </c>
       <c r="G42" t="n">
-        <v>-30311.98861118015</v>
+        <v>116</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C43" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D43" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E43" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F43" t="n">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="G43" t="n">
-        <v>-30311.98861118015</v>
+        <v>116</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C44" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D44" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E44" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F44" t="n">
-        <v>67</v>
+        <v>6.4274</v>
       </c>
       <c r="G44" t="n">
-        <v>-30311.98861118015</v>
+        <v>116</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D45" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E45" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F45" t="n">
-        <v>2643.1445</v>
+        <v>96</v>
       </c>
       <c r="G45" t="n">
-        <v>-30311.98861118015</v>
+        <v>116</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C46" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D46" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E46" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F46" t="n">
-        <v>22.7176</v>
+        <v>356.89</v>
       </c>
       <c r="G46" t="n">
-        <v>-30311.98861118015</v>
+        <v>115</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C47" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D47" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E47" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>1631.1285</v>
       </c>
       <c r="G47" t="n">
-        <v>-30301.98861118015</v>
+        <v>115</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C48" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D48" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E48" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>6931.5268</v>
       </c>
       <c r="G48" t="n">
-        <v>-30301.98861118015</v>
+        <v>114.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C49" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D49" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E49" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F49" t="n">
-        <v>5</v>
+        <v>42.5459</v>
       </c>
       <c r="G49" t="n">
-        <v>-30301.98861118015</v>
+        <v>114</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,63 +2159,69 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C50" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D50" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E50" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F50" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
-        <v>-30301.98861118015</v>
+        <v>115</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>114</v>
+      </c>
+      <c r="K50" t="n">
+        <v>114</v>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C51" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D51" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E51" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F51" t="n">
-        <v>145</v>
+        <v>1000</v>
       </c>
       <c r="G51" t="n">
-        <v>-30301.98861118015</v>
+        <v>115</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,33 +2230,40 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>114</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C52" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D52" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E52" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F52" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G52" t="n">
-        <v>-30301.98861118015</v>
+        <v>114.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,278 +2272,336 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>114</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C53" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D53" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E53" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F53" t="n">
-        <v>14.7051</v>
+        <v>15579.8113</v>
       </c>
       <c r="G53" t="n">
-        <v>-30316.69371118015</v>
+        <v>114.5</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>115</v>
+      </c>
+      <c r="K53" t="n">
+        <v>115</v>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C54" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D54" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E54" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G54" t="n">
-        <v>-30326.69371118015</v>
+        <v>114.5</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>114</v>
+      </c>
+      <c r="K54" t="n">
+        <v>115</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C55" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D55" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E55" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F55" t="n">
-        <v>24.946</v>
+        <v>8601.0317</v>
       </c>
       <c r="G55" t="n">
-        <v>-30301.74771118015</v>
+        <v>114.5</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>115</v>
+      </c>
+      <c r="K55" t="n">
+        <v>115</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C56" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D56" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E56" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F56" t="n">
-        <v>2653.1446</v>
+        <v>5</v>
       </c>
       <c r="G56" t="n">
-        <v>-32954.89231118015</v>
+        <v>114.5</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>114</v>
+      </c>
+      <c r="K56" t="n">
+        <v>114</v>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C57" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D57" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E57" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F57" t="n">
-        <v>34</v>
+        <v>13.2652</v>
       </c>
       <c r="G57" t="n">
-        <v>-32954.89231118015</v>
+        <v>115</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>115</v>
+      </c>
+      <c r="K57" t="n">
+        <v>114</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C58" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D58" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E58" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>3275.467</v>
       </c>
       <c r="G58" t="n">
-        <v>-32949.89231118015</v>
+        <v>115</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>115</v>
+      </c>
+      <c r="K58" t="n">
+        <v>114</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C59" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D59" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E59" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G59" t="n">
-        <v>-32939.89231118015</v>
+        <v>115.5</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>115</v>
+      </c>
+      <c r="K59" t="n">
+        <v>115</v>
+      </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C60" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D60" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E60" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="n">
-        <v>12</v>
+        <v>3275.467</v>
       </c>
       <c r="G60" t="n">
-        <v>-32939.89231118015</v>
+        <v>115.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,33 +2610,40 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>115</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C61" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D61" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E61" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F61" t="n">
         <v>5</v>
       </c>
       <c r="G61" t="n">
-        <v>-32944.89231118015</v>
+        <v>115.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,243 +2652,296 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>115</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C62" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D62" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E62" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F62" t="n">
-        <v>13.035</v>
+        <v>3000</v>
       </c>
       <c r="G62" t="n">
-        <v>-32944.89231118015</v>
+        <v>116</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>116</v>
+      </c>
+      <c r="K62" t="n">
+        <v>116</v>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C63" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D63" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E63" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G63" t="n">
-        <v>-32954.89231118015</v>
+        <v>116</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>116</v>
+      </c>
+      <c r="K63" t="n">
+        <v>116</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C64" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D64" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E64" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F64" t="n">
-        <v>107.1</v>
+        <v>6043.7862</v>
       </c>
       <c r="G64" t="n">
-        <v>-32954.89231118015</v>
+        <v>116</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>116</v>
+      </c>
+      <c r="K64" t="n">
+        <v>116</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C65" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D65" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E65" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="G65" t="n">
-        <v>-32949.89231118015</v>
+        <v>115.5</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>116</v>
+      </c>
+      <c r="K65" t="n">
+        <v>116</v>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C66" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D66" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E66" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F66" t="n">
-        <v>8.19</v>
+        <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>-32958.08231118015</v>
+        <v>115</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>115</v>
+      </c>
+      <c r="K66" t="n">
+        <v>116</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C67" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D67" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E67" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F67" t="n">
-        <v>7027.7684</v>
+        <v>5</v>
       </c>
       <c r="G67" t="n">
-        <v>-25930.31391118015</v>
+        <v>115.5</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>115</v>
+      </c>
+      <c r="K67" t="n">
+        <v>116</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D68" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E68" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F68" t="n">
-        <v>5</v>
+        <v>3160.7741</v>
       </c>
       <c r="G68" t="n">
-        <v>-25930.31391118015</v>
+        <v>115.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,6 +2955,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2790,10 +2974,10 @@
         <v>116</v>
       </c>
       <c r="F69" t="n">
-        <v>18.4275</v>
+        <v>5</v>
       </c>
       <c r="G69" t="n">
-        <v>-25948.74141118015</v>
+        <v>115.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2991,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C70" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D70" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E70" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F70" t="n">
-        <v>3564.7857</v>
+        <v>7912.6424</v>
       </c>
       <c r="G70" t="n">
-        <v>-22383.95571118015</v>
+        <v>116</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +3027,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C71" t="n">
         <v>117</v>
       </c>
       <c r="D71" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E71" t="n">
         <v>117</v>
       </c>
       <c r="F71" t="n">
-        <v>15968.6119</v>
+        <v>6218</v>
       </c>
       <c r="G71" t="n">
-        <v>-22383.95571118015</v>
+        <v>116.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,6 +3063,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2895,10 +3082,10 @@
         <v>117</v>
       </c>
       <c r="F72" t="n">
-        <v>10.1819</v>
+        <v>120</v>
       </c>
       <c r="G72" t="n">
-        <v>-22383.95571118015</v>
+        <v>117</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,6 +3099,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2921,19 +3109,19 @@
         <v>117</v>
       </c>
       <c r="C73" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D73" t="n">
         <v>117</v>
       </c>
       <c r="E73" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F73" t="n">
-        <v>15963.612</v>
+        <v>200</v>
       </c>
       <c r="G73" t="n">
-        <v>-38347.56771118015</v>
+        <v>117</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,6 +3135,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2965,10 +3154,10 @@
         <v>118</v>
       </c>
       <c r="F74" t="n">
-        <v>5</v>
+        <v>19392.196</v>
       </c>
       <c r="G74" t="n">
-        <v>-38342.56771118015</v>
+        <v>117.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3171,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C75" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D75" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E75" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F75" t="n">
-        <v>5.5282</v>
+        <v>5834.1997</v>
       </c>
       <c r="G75" t="n">
-        <v>-38348.09591118015</v>
+        <v>118.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,6 +3207,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3038,7 +3229,7 @@
         <v>5</v>
       </c>
       <c r="G76" t="n">
-        <v>-38343.09591118015</v>
+        <v>118.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3243,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C77" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D77" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E77" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F77" t="n">
-        <v>12.4385</v>
+        <v>5</v>
       </c>
       <c r="G77" t="n">
-        <v>-38355.53441118015</v>
+        <v>117.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3279,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C78" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D78" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E78" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F78" t="n">
-        <v>50</v>
+        <v>602.804</v>
       </c>
       <c r="G78" t="n">
-        <v>-38305.53441118015</v>
+        <v>118</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,13 +3315,14 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C79" t="n">
         <v>117</v>
@@ -3137,13 +3331,13 @@
         <v>117</v>
       </c>
       <c r="E79" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F79" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G79" t="n">
-        <v>-38305.53441118015</v>
+        <v>118</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3351,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C80" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D80" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E80" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F80" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G80" t="n">
-        <v>-38305.53441118015</v>
+        <v>118</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3387,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C81" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D81" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E81" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F81" t="n">
-        <v>5.3289</v>
+        <v>8</v>
       </c>
       <c r="G81" t="n">
-        <v>-38310.86331118015</v>
+        <v>118</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3423,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C82" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D82" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E82" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F82" t="n">
-        <v>12.9934</v>
+        <v>5</v>
       </c>
       <c r="G82" t="n">
-        <v>-38310.86331118015</v>
+        <v>118</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3459,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C83" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D83" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E83" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F83" t="n">
-        <v>151</v>
+        <v>5877.7204</v>
       </c>
       <c r="G83" t="n">
-        <v>-38310.86331118015</v>
+        <v>119</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3495,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C84" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D84" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E84" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F84" t="n">
         <v>5</v>
       </c>
       <c r="G84" t="n">
-        <v>-38305.86331118015</v>
+        <v>119.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3531,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C85" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D85" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E85" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F85" t="n">
-        <v>5</v>
+        <v>5892.3866</v>
       </c>
       <c r="G85" t="n">
-        <v>-38310.86331118015</v>
+        <v>119.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3567,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C86" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D86" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E86" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F86" t="n">
-        <v>6.4274</v>
+        <v>5</v>
       </c>
       <c r="G86" t="n">
-        <v>-38304.43591118015</v>
+        <v>119.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3603,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C87" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D87" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E87" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F87" t="n">
-        <v>96</v>
+        <v>25.4861</v>
       </c>
       <c r="G87" t="n">
-        <v>-38400.43591118015</v>
+        <v>119.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3639,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C88" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D88" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E88" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F88" t="n">
-        <v>356.89</v>
+        <v>5</v>
       </c>
       <c r="G88" t="n">
-        <v>-38400.43591118015</v>
+        <v>119.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3675,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C89" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D89" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E89" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F89" t="n">
-        <v>1631.1285</v>
+        <v>5</v>
       </c>
       <c r="G89" t="n">
-        <v>-38400.43591118015</v>
+        <v>119.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3711,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C90" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D90" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E90" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F90" t="n">
-        <v>6931.5268</v>
+        <v>576.4173</v>
       </c>
       <c r="G90" t="n">
-        <v>-45331.96271118015</v>
+        <v>118.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3747,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C91" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D91" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E91" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F91" t="n">
-        <v>42.5459</v>
+        <v>5</v>
       </c>
       <c r="G91" t="n">
-        <v>-45331.96271118015</v>
+        <v>118.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3783,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C92" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D92" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E92" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F92" t="n">
-        <v>5</v>
+        <v>491.9034</v>
       </c>
       <c r="G92" t="n">
-        <v>-45326.96271118015</v>
+        <v>119</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3819,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C93" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D93" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E93" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F93" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="G93" t="n">
-        <v>-46326.96271118015</v>
+        <v>119.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3855,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C94" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D94" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E94" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F94" t="n">
-        <v>5</v>
+        <v>17129.0521</v>
       </c>
       <c r="G94" t="n">
-        <v>-46321.96271118015</v>
+        <v>120</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3891,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C95" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D95" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E95" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F95" t="n">
-        <v>15579.8113</v>
+        <v>5</v>
       </c>
       <c r="G95" t="n">
-        <v>-61901.77401118015</v>
+        <v>120.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3927,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C96" t="n">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D96" t="n">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E96" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F96" t="n">
-        <v>5</v>
+        <v>26141.1902</v>
       </c>
       <c r="G96" t="n">
-        <v>-61896.77401118015</v>
+        <v>122</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3963,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C97" t="n">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D97" t="n">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E97" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F97" t="n">
-        <v>8601.0317</v>
+        <v>5434.89</v>
       </c>
       <c r="G97" t="n">
-        <v>-70497.80571118015</v>
+        <v>123</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3999,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C98" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D98" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E98" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F98" t="n">
-        <v>5</v>
+        <v>3147.4673</v>
       </c>
       <c r="G98" t="n">
-        <v>-70492.80571118015</v>
+        <v>123.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +4035,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C99" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D99" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E99" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F99" t="n">
-        <v>13.2652</v>
+        <v>3949.6656</v>
       </c>
       <c r="G99" t="n">
-        <v>-70492.80571118015</v>
+        <v>124</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +4071,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C100" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D100" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E100" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F100" t="n">
-        <v>3275.467</v>
+        <v>5</v>
       </c>
       <c r="G100" t="n">
-        <v>-70492.80571118015</v>
+        <v>124.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +4107,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C101" t="n">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D101" t="n">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E101" t="n">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F101" t="n">
-        <v>5</v>
+        <v>8104.7905</v>
       </c>
       <c r="G101" t="n">
-        <v>-70487.80571118015</v>
+        <v>125.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4143,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C102" t="n">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D102" t="n">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E102" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F102" t="n">
-        <v>3275.467</v>
+        <v>12638.317</v>
       </c>
       <c r="G102" t="n">
-        <v>-73763.27271118015</v>
+        <v>126</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4179,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C103" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D103" t="n">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E103" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F103" t="n">
-        <v>5</v>
+        <v>13690.4528</v>
       </c>
       <c r="G103" t="n">
-        <v>-73758.27271118015</v>
+        <v>125</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4215,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C104" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D104" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E104" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F104" t="n">
-        <v>3000</v>
+        <v>45</v>
       </c>
       <c r="G104" t="n">
-        <v>-73758.27271118015</v>
+        <v>124</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4251,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C105" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D105" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E105" t="n">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F105" t="n">
-        <v>5</v>
+        <v>50324.9078</v>
       </c>
       <c r="G105" t="n">
-        <v>-73758.27271118015</v>
+        <v>126</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4287,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C106" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D106" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E106" t="n">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F106" t="n">
-        <v>6043.7862</v>
+        <v>33395.2635</v>
       </c>
       <c r="G106" t="n">
-        <v>-73758.27271118015</v>
+        <v>128</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4323,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C107" t="n">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D107" t="n">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E107" t="n">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F107" t="n">
-        <v>130</v>
+        <v>21238.7921</v>
       </c>
       <c r="G107" t="n">
-        <v>-73888.27271118015</v>
+        <v>127</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4359,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C108" t="n">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D108" t="n">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E108" t="n">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F108" t="n">
-        <v>10</v>
+        <v>341.4259</v>
       </c>
       <c r="G108" t="n">
-        <v>-73888.27271118015</v>
+        <v>126.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4395,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C109" t="n">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D109" t="n">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E109" t="n">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F109" t="n">
-        <v>5</v>
+        <v>9112.740900000001</v>
       </c>
       <c r="G109" t="n">
-        <v>-73883.27271118015</v>
+        <v>126.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4431,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C110" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D110" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E110" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F110" t="n">
-        <v>3160.7741</v>
+        <v>804.0536</v>
       </c>
       <c r="G110" t="n">
-        <v>-77044.04681118015</v>
+        <v>125.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4467,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C111" t="n">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D111" t="n">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E111" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F111" t="n">
-        <v>5</v>
+        <v>906.6771</v>
       </c>
       <c r="G111" t="n">
-        <v>-77039.04681118015</v>
+        <v>125</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4503,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C112" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D112" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E112" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F112" t="n">
-        <v>7912.6424</v>
+        <v>6302.3559</v>
       </c>
       <c r="G112" t="n">
-        <v>-77039.04681118015</v>
+        <v>124.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4539,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C113" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D113" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E113" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F113" t="n">
-        <v>6218</v>
+        <v>4</v>
       </c>
       <c r="G113" t="n">
-        <v>-70821.04681118015</v>
+        <v>124.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4575,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C114" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D114" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E114" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F114" t="n">
-        <v>120</v>
+        <v>4663.8587</v>
       </c>
       <c r="G114" t="n">
-        <v>-70821.04681118015</v>
+        <v>124.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4611,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C115" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D115" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E115" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F115" t="n">
-        <v>200</v>
+        <v>339.3526</v>
       </c>
       <c r="G115" t="n">
-        <v>-70821.04681118015</v>
+        <v>124.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4647,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C116" t="n">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D116" t="n">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E116" t="n">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F116" t="n">
-        <v>19392.196</v>
+        <v>19893.0384</v>
       </c>
       <c r="G116" t="n">
-        <v>-51428.85081118015</v>
+        <v>125.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4683,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C117" t="n">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D117" t="n">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E117" t="n">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F117" t="n">
-        <v>5834.1997</v>
+        <v>10540.4089</v>
       </c>
       <c r="G117" t="n">
-        <v>-45594.65111118015</v>
+        <v>126</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4719,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C118" t="n">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D118" t="n">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E118" t="n">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F118" t="n">
         <v>5</v>
       </c>
       <c r="G118" t="n">
-        <v>-45599.65111118015</v>
+        <v>126.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,28 +4755,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C119" t="n">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D119" t="n">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E119" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F119" t="n">
-        <v>5</v>
+        <v>27095.5861</v>
       </c>
       <c r="G119" t="n">
-        <v>-45604.65111118015</v>
+        <v>127.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,28 +4791,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C120" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D120" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E120" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F120" t="n">
-        <v>602.804</v>
+        <v>12397.4984</v>
       </c>
       <c r="G120" t="n">
-        <v>-45001.84711118016</v>
+        <v>128.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,28 +4827,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C121" t="n">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D121" t="n">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E121" t="n">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F121" t="n">
-        <v>5</v>
+        <v>8851.8341</v>
       </c>
       <c r="G121" t="n">
-        <v>-45006.84711118016</v>
+        <v>129</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,28 +4863,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C122" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D122" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E122" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F122" t="n">
-        <v>5</v>
+        <v>2983.6261</v>
       </c>
       <c r="G122" t="n">
-        <v>-45001.84711118016</v>
+        <v>129</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,28 +4899,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C123" t="n">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D123" t="n">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E123" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F123" t="n">
-        <v>8</v>
+        <v>1397.863</v>
       </c>
       <c r="G123" t="n">
-        <v>-45009.84711118016</v>
+        <v>128.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,28 +4935,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C124" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D124" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E124" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F124" t="n">
         <v>5</v>
       </c>
       <c r="G124" t="n">
-        <v>-45004.84711118016</v>
+        <v>128.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4732,28 +4971,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C125" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D125" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E125" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F125" t="n">
-        <v>5877.7204</v>
+        <v>18122.5223</v>
       </c>
       <c r="G125" t="n">
-        <v>-45004.84711118016</v>
+        <v>128</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4767,28 +5007,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C126" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D126" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E126" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F126" t="n">
-        <v>5</v>
+        <v>20.0794</v>
       </c>
       <c r="G126" t="n">
-        <v>-44999.84711118016</v>
+        <v>128</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4802,28 +5043,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C127" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D127" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E127" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F127" t="n">
-        <v>5892.3866</v>
+        <v>3578.2607</v>
       </c>
       <c r="G127" t="n">
-        <v>-50892.23371118015</v>
+        <v>129</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4837,28 +5079,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C128" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D128" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E128" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F128" t="n">
-        <v>5</v>
+        <v>2797.943</v>
       </c>
       <c r="G128" t="n">
-        <v>-50887.23371118015</v>
+        <v>129.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4872,28 +5115,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C129" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D129" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E129" t="n">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F129" t="n">
-        <v>25.4861</v>
+        <v>34405.0204</v>
       </c>
       <c r="G129" t="n">
-        <v>-50912.71981118016</v>
+        <v>129.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4907,28 +5151,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C130" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D130" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E130" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F130" t="n">
-        <v>5</v>
+        <v>23358.5294</v>
       </c>
       <c r="G130" t="n">
-        <v>-50907.71981118016</v>
+        <v>128.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4942,28 +5187,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C131" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D131" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E131" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F131" t="n">
-        <v>5</v>
+        <v>2601.9013</v>
       </c>
       <c r="G131" t="n">
-        <v>-50912.71981118016</v>
+        <v>127.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4977,28 +5223,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C132" t="n">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D132" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E132" t="n">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F132" t="n">
-        <v>576.4173</v>
+        <v>2573.8198</v>
       </c>
       <c r="G132" t="n">
-        <v>-51489.13711118016</v>
+        <v>127.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5012,28 +5259,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C133" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D133" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E133" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F133" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G133" t="n">
-        <v>-51484.13711118016</v>
+        <v>127.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5047,28 +5295,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C134" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D134" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E134" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F134" t="n">
-        <v>491.9034</v>
+        <v>4</v>
       </c>
       <c r="G134" t="n">
-        <v>-51484.13711118016</v>
+        <v>128</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5082,28 +5331,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C135" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D135" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E135" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F135" t="n">
-        <v>5</v>
+        <v>4726.3748</v>
       </c>
       <c r="G135" t="n">
-        <v>-51479.13711118016</v>
+        <v>128.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5117,28 +5367,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C136" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D136" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E136" t="n">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F136" t="n">
-        <v>17129.0521</v>
+        <v>6817.1302</v>
       </c>
       <c r="G136" t="n">
-        <v>-51479.13711118016</v>
+        <v>128</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5152,28 +5403,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C137" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D137" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E137" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F137" t="n">
-        <v>5</v>
+        <v>17.82</v>
       </c>
       <c r="G137" t="n">
-        <v>-51474.13711118016</v>
+        <v>127.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5187,28 +5439,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C138" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D138" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E138" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F138" t="n">
-        <v>26141.1902</v>
+        <v>4595.9053</v>
       </c>
       <c r="G138" t="n">
-        <v>-25332.94691118016</v>
+        <v>127.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5222,28 +5475,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C139" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D139" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E139" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F139" t="n">
-        <v>5434.89</v>
+        <v>11186.8599</v>
       </c>
       <c r="G139" t="n">
-        <v>-25332.94691118016</v>
+        <v>127</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5257,28 +5511,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C140" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D140" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E140" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F140" t="n">
-        <v>3147.4673</v>
+        <v>1395.0003</v>
       </c>
       <c r="G140" t="n">
-        <v>-22185.47961118016</v>
+        <v>126.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5292,28 +5547,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C141" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D141" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E141" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F141" t="n">
-        <v>3949.6656</v>
+        <v>5368.175</v>
       </c>
       <c r="G141" t="n">
-        <v>-22185.47961118016</v>
+        <v>127</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5327,28 +5583,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C142" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D142" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E142" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F142" t="n">
-        <v>5</v>
+        <v>13.365</v>
       </c>
       <c r="G142" t="n">
-        <v>-22180.47961118016</v>
+        <v>126.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5362,34 +5619,35 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C143" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D143" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E143" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F143" t="n">
-        <v>8104.7905</v>
+        <v>4</v>
       </c>
       <c r="G143" t="n">
-        <v>-14075.68911118016</v>
+        <v>126.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -5397,6 +5655,7 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5409,22 +5668,22 @@
         <v>126</v>
       </c>
       <c r="D144" t="n">
+        <v>127</v>
+      </c>
+      <c r="E144" t="n">
         <v>126</v>
       </c>
-      <c r="E144" t="n">
-        <v>125</v>
-      </c>
       <c r="F144" t="n">
-        <v>12638.317</v>
+        <v>933.2772</v>
       </c>
       <c r="G144" t="n">
-        <v>-14075.68911118016</v>
+        <v>126.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -5432,34 +5691,35 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C145" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D145" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E145" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F145" t="n">
-        <v>13690.4528</v>
+        <v>4</v>
       </c>
       <c r="G145" t="n">
-        <v>-27766.14191118016</v>
+        <v>126.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -5467,34 +5727,35 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C146" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D146" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E146" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F146" t="n">
-        <v>45</v>
+        <v>12539.5019</v>
       </c>
       <c r="G146" t="n">
-        <v>-27766.14191118016</v>
+        <v>126.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -5502,6 +5763,7 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5511,25 +5773,25 @@
         <v>125</v>
       </c>
       <c r="C147" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D147" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E147" t="n">
         <v>125</v>
       </c>
       <c r="F147" t="n">
-        <v>50324.9078</v>
+        <v>7.248</v>
       </c>
       <c r="G147" t="n">
-        <v>22558.76588881985</v>
+        <v>125.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
@@ -5537,34 +5799,35 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C148" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D148" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E148" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F148" t="n">
-        <v>33395.2635</v>
+        <v>1604</v>
       </c>
       <c r="G148" t="n">
-        <v>22558.76588881985</v>
+        <v>125</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
@@ -5572,34 +5835,35 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C149" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D149" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E149" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F149" t="n">
-        <v>21238.7921</v>
+        <v>17</v>
       </c>
       <c r="G149" t="n">
-        <v>1319.973788819847</v>
+        <v>124</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
@@ -5607,28 +5871,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C150" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D150" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E150" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F150" t="n">
-        <v>341.4259</v>
+        <v>13</v>
       </c>
       <c r="G150" t="n">
-        <v>1661.399688819847</v>
+        <v>124</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5642,6 +5907,7 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5651,19 +5917,19 @@
         <v>125</v>
       </c>
       <c r="C151" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D151" t="n">
         <v>126</v>
       </c>
       <c r="E151" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F151" t="n">
-        <v>9112.740900000001</v>
+        <v>4720.2935</v>
       </c>
       <c r="G151" t="n">
-        <v>-7451.341211180154</v>
+        <v>124.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5677,28 +5943,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C152" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D152" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E152" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F152" t="n">
-        <v>804.0536</v>
+        <v>4</v>
       </c>
       <c r="G152" t="n">
-        <v>-8255.394811180153</v>
+        <v>125</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5712,28 +5979,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C153" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D153" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E153" t="n">
         <v>124</v>
       </c>
       <c r="F153" t="n">
-        <v>906.6771</v>
+        <v>17</v>
       </c>
       <c r="G153" t="n">
-        <v>-8255.394811180153</v>
+        <v>125</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5747,28 +6015,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C154" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D154" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E154" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F154" t="n">
-        <v>6302.3559</v>
+        <v>4</v>
       </c>
       <c r="G154" t="n">
-        <v>-14557.75071118015</v>
+        <v>125</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5782,13 +6051,14 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C155" t="n">
         <v>125</v>
@@ -5797,19 +6067,19 @@
         <v>125</v>
       </c>
       <c r="E155" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F155" t="n">
-        <v>4</v>
+        <v>2555.7163</v>
       </c>
       <c r="G155" t="n">
-        <v>-14553.75071118015</v>
+        <v>125.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
@@ -5817,6 +6087,7 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5835,10 +6106,10 @@
         <v>124</v>
       </c>
       <c r="F156" t="n">
-        <v>4663.8587</v>
+        <v>2930.7265</v>
       </c>
       <c r="G156" t="n">
-        <v>-19217.60941118015</v>
+        <v>124.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5852,13 +6123,14 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C157" t="n">
         <v>125</v>
@@ -5867,13 +6139,13 @@
         <v>125</v>
       </c>
       <c r="E157" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F157" t="n">
-        <v>339.3526</v>
+        <v>13078.3258</v>
       </c>
       <c r="G157" t="n">
-        <v>-18878.25681118016</v>
+        <v>124.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5887,13 +6159,14 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C158" t="n">
         <v>126</v>
@@ -5902,13 +6175,13 @@
         <v>126</v>
       </c>
       <c r="E158" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F158" t="n">
-        <v>19893.0384</v>
+        <v>3043.769</v>
       </c>
       <c r="G158" t="n">
-        <v>1014.781588819846</v>
+        <v>125.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5922,6 +6195,7 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5937,13 +6211,13 @@
         <v>126</v>
       </c>
       <c r="E159" t="n">
+        <v>125</v>
+      </c>
+      <c r="F159" t="n">
+        <v>9099.228300000001</v>
+      </c>
+      <c r="G159" t="n">
         <v>126</v>
-      </c>
-      <c r="F159" t="n">
-        <v>10540.4089</v>
-      </c>
-      <c r="G159" t="n">
-        <v>1014.781588819846</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5957,34 +6231,35 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C160" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D160" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E160" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F160" t="n">
-        <v>5</v>
+        <v>1435.0955</v>
       </c>
       <c r="G160" t="n">
-        <v>1019.781588819846</v>
+        <v>125</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -5992,34 +6267,35 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C161" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D161" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E161" t="n">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F161" t="n">
-        <v>27095.5861</v>
+        <v>14557.2</v>
       </c>
       <c r="G161" t="n">
-        <v>28115.36768881985</v>
+        <v>123.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -6027,28 +6303,29 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C162" t="n">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D162" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E162" t="n">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F162" t="n">
-        <v>12397.4984</v>
+        <v>841.9179</v>
       </c>
       <c r="G162" t="n">
-        <v>40512.86608881985</v>
+        <v>122.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6062,28 +6339,29 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C163" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D163" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E163" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F163" t="n">
-        <v>8851.8341</v>
+        <v>17676.1722</v>
       </c>
       <c r="G163" t="n">
-        <v>40512.86608881985</v>
+        <v>122.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6097,28 +6375,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C164" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D164" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E164" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F164" t="n">
-        <v>2983.6261</v>
+        <v>10</v>
       </c>
       <c r="G164" t="n">
-        <v>40512.86608881985</v>
+        <v>123.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6132,28 +6411,29 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C165" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D165" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E165" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F165" t="n">
-        <v>1397.863</v>
+        <v>115</v>
       </c>
       <c r="G165" t="n">
-        <v>39115.00308881985</v>
+        <v>124</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6167,28 +6447,29 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C166" t="n">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D166" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E166" t="n">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F166" t="n">
-        <v>5</v>
+        <v>395.625</v>
       </c>
       <c r="G166" t="n">
-        <v>39120.00308881985</v>
+        <v>123</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6202,28 +6483,29 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C167" t="n">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D167" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E167" t="n">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F167" t="n">
-        <v>18122.5223</v>
+        <v>24.4699</v>
       </c>
       <c r="G167" t="n">
-        <v>20997.48078881985</v>
+        <v>122</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6237,34 +6519,35 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C168" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D168" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E168" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F168" t="n">
-        <v>20.0794</v>
+        <v>4</v>
       </c>
       <c r="G168" t="n">
-        <v>21017.56018881985</v>
+        <v>123.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -6272,34 +6555,35 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C169" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D169" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E169" t="n">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F169" t="n">
-        <v>3578.2607</v>
+        <v>9</v>
       </c>
       <c r="G169" t="n">
-        <v>21017.56018881985</v>
+        <v>125</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
@@ -6307,34 +6591,35 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C170" t="n">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D170" t="n">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E170" t="n">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F170" t="n">
-        <v>2797.943</v>
+        <v>5</v>
       </c>
       <c r="G170" t="n">
-        <v>23815.50318881985</v>
+        <v>123.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
@@ -6342,34 +6627,35 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C171" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D171" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E171" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F171" t="n">
-        <v>34405.0204</v>
+        <v>118.6009</v>
       </c>
       <c r="G171" t="n">
-        <v>-10589.51721118015</v>
+        <v>123</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
@@ -6377,34 +6663,35 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C172" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D172" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E172" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F172" t="n">
-        <v>23358.5294</v>
+        <v>4</v>
       </c>
       <c r="G172" t="n">
-        <v>-33948.04661118015</v>
+        <v>125.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
@@ -6412,34 +6699,35 @@
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C173" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D173" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E173" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F173" t="n">
-        <v>2601.9013</v>
+        <v>23</v>
       </c>
       <c r="G173" t="n">
-        <v>-36549.94791118015</v>
+        <v>126.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
@@ -6447,34 +6735,35 @@
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C174" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D174" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E174" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F174" t="n">
-        <v>2573.8198</v>
+        <v>5</v>
       </c>
       <c r="G174" t="n">
-        <v>-33976.12811118015</v>
+        <v>124.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
@@ -6482,28 +6771,29 @@
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C175" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D175" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E175" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F175" t="n">
-        <v>16</v>
+        <v>7.3905</v>
       </c>
       <c r="G175" t="n">
-        <v>-33992.12811118015</v>
+        <v>124</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6517,28 +6807,29 @@
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C176" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D176" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E176" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F176" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G176" t="n">
-        <v>-33988.12811118015</v>
+        <v>124</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6552,34 +6843,35 @@
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C177" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D177" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E177" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F177" t="n">
-        <v>4726.3748</v>
+        <v>4</v>
       </c>
       <c r="G177" t="n">
-        <v>-38714.50291118015</v>
+        <v>124</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
@@ -6587,34 +6879,35 @@
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C178" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D178" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E178" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F178" t="n">
-        <v>6817.1302</v>
+        <v>2226</v>
       </c>
       <c r="G178" t="n">
-        <v>-38714.50291118015</v>
+        <v>125</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
@@ -6622,34 +6915,35 @@
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C179" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D179" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E179" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F179" t="n">
-        <v>17.82</v>
+        <v>6063.6394</v>
       </c>
       <c r="G179" t="n">
-        <v>-38732.32291118015</v>
+        <v>125</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
@@ -6657,28 +6951,29 @@
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C180" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D180" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E180" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F180" t="n">
-        <v>4595.9053</v>
+        <v>100</v>
       </c>
       <c r="G180" t="n">
-        <v>-34136.41761118015</v>
+        <v>125</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6692,13 +6987,14 @@
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C181" t="n">
         <v>126</v>
@@ -6707,13 +7003,13 @@
         <v>126</v>
       </c>
       <c r="E181" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F181" t="n">
-        <v>11186.8599</v>
+        <v>215</v>
       </c>
       <c r="G181" t="n">
-        <v>-45323.27751118015</v>
+        <v>125.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6727,28 +7023,29 @@
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C182" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D182" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E182" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F182" t="n">
-        <v>1395.0003</v>
+        <v>4</v>
       </c>
       <c r="G182" t="n">
-        <v>-43928.27721118015</v>
+        <v>126</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6762,28 +7059,29 @@
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C183" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D183" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E183" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F183" t="n">
-        <v>5368.175</v>
+        <v>8.134920634920634</v>
       </c>
       <c r="G183" t="n">
-        <v>-43928.27721118015</v>
+        <v>126</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6797,28 +7095,29 @@
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C184" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D184" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E184" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F184" t="n">
-        <v>13.365</v>
+        <v>2104.4157</v>
       </c>
       <c r="G184" t="n">
-        <v>-43941.64221118014</v>
+        <v>124.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6832,28 +7131,29 @@
       <c r="M184" t="n">
         <v>1</v>
       </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C185" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D185" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E185" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F185" t="n">
-        <v>4</v>
+        <v>6192.4479</v>
       </c>
       <c r="G185" t="n">
-        <v>-43937.64221118014</v>
+        <v>123</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6867,28 +7167,29 @@
       <c r="M185" t="n">
         <v>1</v>
       </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C186" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D186" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E186" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F186" t="n">
-        <v>933.2772</v>
+        <v>795.8377</v>
       </c>
       <c r="G186" t="n">
-        <v>-44870.91941118014</v>
+        <v>122.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6902,28 +7203,29 @@
       <c r="M186" t="n">
         <v>1</v>
       </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C187" t="n">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D187" t="n">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E187" t="n">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F187" t="n">
-        <v>4</v>
+        <v>1664.1318</v>
       </c>
       <c r="G187" t="n">
-        <v>-44866.91941118014</v>
+        <v>122</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6937,28 +7239,29 @@
       <c r="M187" t="n">
         <v>1</v>
       </c>
+      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C188" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D188" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E188" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F188" t="n">
-        <v>12539.5019</v>
+        <v>70.3921</v>
       </c>
       <c r="G188" t="n">
-        <v>-57406.42131118014</v>
+        <v>122</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6972,28 +7275,29 @@
       <c r="M188" t="n">
         <v>1</v>
       </c>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C189" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D189" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E189" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F189" t="n">
-        <v>7.248</v>
+        <v>11000.7276</v>
       </c>
       <c r="G189" t="n">
-        <v>-57413.66931118014</v>
+        <v>121</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7007,28 +7311,29 @@
       <c r="M189" t="n">
         <v>1</v>
       </c>
+      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C190" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D190" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E190" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F190" t="n">
-        <v>1604</v>
+        <v>411.6131</v>
       </c>
       <c r="G190" t="n">
-        <v>-57413.66931118014</v>
+        <v>120</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7042,28 +7347,29 @@
       <c r="M190" t="n">
         <v>1</v>
       </c>
+      <c r="N190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C191" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D191" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E191" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F191" t="n">
-        <v>17</v>
+        <v>1145.6896</v>
       </c>
       <c r="G191" t="n">
-        <v>-57430.66931118014</v>
+        <v>119.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7077,28 +7383,29 @@
       <c r="M191" t="n">
         <v>1</v>
       </c>
+      <c r="N191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C192" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D192" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E192" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F192" t="n">
-        <v>13</v>
+        <v>6059.6394</v>
       </c>
       <c r="G192" t="n">
-        <v>-57417.66931118014</v>
+        <v>119</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7112,28 +7419,29 @@
       <c r="M192" t="n">
         <v>1</v>
       </c>
+      <c r="N192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C193" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D193" t="n">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E193" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F193" t="n">
-        <v>4720.2935</v>
+        <v>8.1349</v>
       </c>
       <c r="G193" t="n">
-        <v>-62137.96281118014</v>
+        <v>119</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7147,28 +7455,29 @@
       <c r="M193" t="n">
         <v>1</v>
       </c>
+      <c r="N193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C194" t="n">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D194" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E194" t="n">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F194" t="n">
-        <v>4</v>
+        <v>611.6123</v>
       </c>
       <c r="G194" t="n">
-        <v>-62133.96281118014</v>
+        <v>119</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7182,28 +7491,29 @@
       <c r="M194" t="n">
         <v>1</v>
       </c>
+      <c r="N194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C195" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D195" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E195" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F195" t="n">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="G195" t="n">
-        <v>-62150.96281118014</v>
+        <v>119.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7217,28 +7527,29 @@
       <c r="M195" t="n">
         <v>1</v>
       </c>
+      <c r="N195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C196" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D196" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E196" t="n">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F196" t="n">
-        <v>4</v>
+        <v>18510.0613</v>
       </c>
       <c r="G196" t="n">
-        <v>-62146.96281118014</v>
+        <v>120</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7252,28 +7563,29 @@
       <c r="M196" t="n">
         <v>1</v>
       </c>
+      <c r="N196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C197" t="n">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D197" t="n">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E197" t="n">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F197" t="n">
-        <v>2555.7163</v>
+        <v>5</v>
       </c>
       <c r="G197" t="n">
-        <v>-64702.67911118014</v>
+        <v>119</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7287,28 +7599,29 @@
       <c r="M197" t="n">
         <v>1</v>
       </c>
+      <c r="N197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C198" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D198" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E198" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F198" t="n">
-        <v>2930.7265</v>
+        <v>3000</v>
       </c>
       <c r="G198" t="n">
-        <v>-67633.40561118013</v>
+        <v>118.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7322,28 +7635,29 @@
       <c r="M198" t="n">
         <v>1</v>
       </c>
+      <c r="N198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C199" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D199" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E199" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F199" t="n">
-        <v>13078.3258</v>
+        <v>4854.0545</v>
       </c>
       <c r="G199" t="n">
-        <v>-54555.07981118013</v>
+        <v>119</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7357,28 +7671,29 @@
       <c r="M199" t="n">
         <v>1</v>
       </c>
+      <c r="N199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C200" t="n">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D200" t="n">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E200" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F200" t="n">
-        <v>3043.769</v>
+        <v>5</v>
       </c>
       <c r="G200" t="n">
-        <v>-51511.31081118013</v>
+        <v>120</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7392,28 +7707,29 @@
       <c r="M200" t="n">
         <v>1</v>
       </c>
+      <c r="N200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C201" t="n">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D201" t="n">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E201" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F201" t="n">
-        <v>9099.228300000001</v>
+        <v>5</v>
       </c>
       <c r="G201" t="n">
-        <v>-51511.31081118013</v>
+        <v>120</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7427,28 +7743,29 @@
       <c r="M201" t="n">
         <v>1</v>
       </c>
+      <c r="N201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C202" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D202" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E202" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F202" t="n">
-        <v>1435.0955</v>
+        <v>2793.0893</v>
       </c>
       <c r="G202" t="n">
-        <v>-52946.40631118014</v>
+        <v>120.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7462,28 +7779,29 @@
       <c r="M202" t="n">
         <v>1</v>
       </c>
+      <c r="N202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C203" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D203" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E203" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F203" t="n">
-        <v>14557.2</v>
+        <v>232.6085</v>
       </c>
       <c r="G203" t="n">
-        <v>-67503.60631118013</v>
+        <v>122</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7497,28 +7815,29 @@
       <c r="M203" t="n">
         <v>1</v>
       </c>
+      <c r="N203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C204" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D204" t="n">
         <v>123</v>
       </c>
       <c r="E204" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F204" t="n">
-        <v>841.9179</v>
+        <v>1018.4957</v>
       </c>
       <c r="G204" t="n">
-        <v>-68345.52421118013</v>
+        <v>122.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7532,6 +7851,7 @@
       <c r="M204" t="n">
         <v>1</v>
       </c>
+      <c r="N204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7550,10 +7870,10 @@
         <v>123</v>
       </c>
       <c r="F205" t="n">
-        <v>17676.1722</v>
+        <v>12</v>
       </c>
       <c r="G205" t="n">
-        <v>-50669.35201118013</v>
+        <v>123</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7567,28 +7887,29 @@
       <c r="M205" t="n">
         <v>1</v>
       </c>
+      <c r="N205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C206" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D206" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E206" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F206" t="n">
-        <v>10</v>
+        <v>222.2682</v>
       </c>
       <c r="G206" t="n">
-        <v>-50659.35201118013</v>
+        <v>121.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7602,28 +7923,29 @@
       <c r="M206" t="n">
         <v>1</v>
       </c>
+      <c r="N206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C207" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D207" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E207" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F207" t="n">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="G207" t="n">
-        <v>-50659.35201118013</v>
+        <v>121.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7637,1552 +7959,7 @@
       <c r="M207" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>123</v>
-      </c>
-      <c r="C208" t="n">
-        <v>122</v>
-      </c>
-      <c r="D208" t="n">
-        <v>123</v>
-      </c>
-      <c r="E208" t="n">
-        <v>122</v>
-      </c>
-      <c r="F208" t="n">
-        <v>395.625</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-51054.97701118013</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>125</v>
-      </c>
-      <c r="C209" t="n">
-        <v>122</v>
-      </c>
-      <c r="D209" t="n">
-        <v>125</v>
-      </c>
-      <c r="E209" t="n">
-        <v>122</v>
-      </c>
-      <c r="F209" t="n">
-        <v>24.4699</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-51054.97701118013</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>125</v>
-      </c>
-      <c r="C210" t="n">
-        <v>125</v>
-      </c>
-      <c r="D210" t="n">
-        <v>125</v>
-      </c>
-      <c r="E210" t="n">
-        <v>125</v>
-      </c>
-      <c r="F210" t="n">
-        <v>4</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-51050.97701118013</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>122</v>
-      </c>
-      <c r="C211" t="n">
-        <v>125</v>
-      </c>
-      <c r="D211" t="n">
-        <v>125</v>
-      </c>
-      <c r="E211" t="n">
-        <v>122</v>
-      </c>
-      <c r="F211" t="n">
-        <v>9</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-51050.97701118013</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>122</v>
-      </c>
-      <c r="C212" t="n">
-        <v>122</v>
-      </c>
-      <c r="D212" t="n">
-        <v>122</v>
-      </c>
-      <c r="E212" t="n">
-        <v>122</v>
-      </c>
-      <c r="F212" t="n">
-        <v>5</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-51055.97701118013</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>124</v>
-      </c>
-      <c r="C213" t="n">
-        <v>124</v>
-      </c>
-      <c r="D213" t="n">
-        <v>124</v>
-      </c>
-      <c r="E213" t="n">
-        <v>124</v>
-      </c>
-      <c r="F213" t="n">
-        <v>118.6009</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-50937.37611118014</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>127</v>
-      </c>
-      <c r="C214" t="n">
-        <v>127</v>
-      </c>
-      <c r="D214" t="n">
-        <v>127</v>
-      </c>
-      <c r="E214" t="n">
-        <v>127</v>
-      </c>
-      <c r="F214" t="n">
-        <v>4</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-50933.37611118014</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>126</v>
-      </c>
-      <c r="C215" t="n">
-        <v>126</v>
-      </c>
-      <c r="D215" t="n">
-        <v>126</v>
-      </c>
-      <c r="E215" t="n">
-        <v>126</v>
-      </c>
-      <c r="F215" t="n">
-        <v>23</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-50956.37611118014</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>124</v>
-      </c>
-      <c r="C216" t="n">
-        <v>123</v>
-      </c>
-      <c r="D216" t="n">
-        <v>124</v>
-      </c>
-      <c r="E216" t="n">
-        <v>123</v>
-      </c>
-      <c r="F216" t="n">
-        <v>5</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-50961.37611118014</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>125</v>
-      </c>
-      <c r="C217" t="n">
-        <v>125</v>
-      </c>
-      <c r="D217" t="n">
-        <v>125</v>
-      </c>
-      <c r="E217" t="n">
-        <v>125</v>
-      </c>
-      <c r="F217" t="n">
-        <v>7.3905</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-50953.98561118013</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>123</v>
-      </c>
-      <c r="C218" t="n">
-        <v>123</v>
-      </c>
-      <c r="D218" t="n">
-        <v>123</v>
-      </c>
-      <c r="E218" t="n">
-        <v>123</v>
-      </c>
-      <c r="F218" t="n">
-        <v>5</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-50958.98561118013</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>125</v>
-      </c>
-      <c r="C219" t="n">
-        <v>125</v>
-      </c>
-      <c r="D219" t="n">
-        <v>125</v>
-      </c>
-      <c r="E219" t="n">
-        <v>125</v>
-      </c>
-      <c r="F219" t="n">
-        <v>4</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-50954.98561118013</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>123</v>
-      </c>
-      <c r="C220" t="n">
-        <v>125</v>
-      </c>
-      <c r="D220" t="n">
-        <v>125</v>
-      </c>
-      <c r="E220" t="n">
-        <v>123</v>
-      </c>
-      <c r="F220" t="n">
-        <v>2226</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-50954.98561118013</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>124</v>
-      </c>
-      <c r="C221" t="n">
-        <v>125</v>
-      </c>
-      <c r="D221" t="n">
-        <v>125</v>
-      </c>
-      <c r="E221" t="n">
-        <v>124</v>
-      </c>
-      <c r="F221" t="n">
-        <v>6063.6394</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-50954.98561118013</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>125</v>
-      </c>
-      <c r="C222" t="n">
-        <v>125</v>
-      </c>
-      <c r="D222" t="n">
-        <v>125</v>
-      </c>
-      <c r="E222" t="n">
-        <v>125</v>
-      </c>
-      <c r="F222" t="n">
-        <v>100</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-50954.98561118013</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>125</v>
-      </c>
-      <c r="C223" t="n">
-        <v>126</v>
-      </c>
-      <c r="D223" t="n">
-        <v>126</v>
-      </c>
-      <c r="E223" t="n">
-        <v>125</v>
-      </c>
-      <c r="F223" t="n">
-        <v>215</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-50739.98561118013</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>126</v>
-      </c>
-      <c r="C224" t="n">
-        <v>126</v>
-      </c>
-      <c r="D224" t="n">
-        <v>126</v>
-      </c>
-      <c r="E224" t="n">
-        <v>126</v>
-      </c>
-      <c r="F224" t="n">
-        <v>4</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-50739.98561118013</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>126</v>
-      </c>
-      <c r="C225" t="n">
-        <v>126</v>
-      </c>
-      <c r="D225" t="n">
-        <v>126</v>
-      </c>
-      <c r="E225" t="n">
-        <v>126</v>
-      </c>
-      <c r="F225" t="n">
-        <v>8.134920634920634</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-50739.98561118013</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>124</v>
-      </c>
-      <c r="C226" t="n">
-        <v>123</v>
-      </c>
-      <c r="D226" t="n">
-        <v>124</v>
-      </c>
-      <c r="E226" t="n">
-        <v>123</v>
-      </c>
-      <c r="F226" t="n">
-        <v>2104.4157</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-52844.40131118013</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>123</v>
-      </c>
-      <c r="C227" t="n">
-        <v>123</v>
-      </c>
-      <c r="D227" t="n">
-        <v>123</v>
-      </c>
-      <c r="E227" t="n">
-        <v>123</v>
-      </c>
-      <c r="F227" t="n">
-        <v>6192.4479</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-52844.40131118013</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>123</v>
-      </c>
-      <c r="C228" t="n">
-        <v>122</v>
-      </c>
-      <c r="D228" t="n">
-        <v>123</v>
-      </c>
-      <c r="E228" t="n">
-        <v>122</v>
-      </c>
-      <c r="F228" t="n">
-        <v>795.8377</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-53640.23901118014</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>122</v>
-      </c>
-      <c r="C229" t="n">
-        <v>122</v>
-      </c>
-      <c r="D229" t="n">
-        <v>122</v>
-      </c>
-      <c r="E229" t="n">
-        <v>122</v>
-      </c>
-      <c r="F229" t="n">
-        <v>1664.1318</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-53640.23901118014</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>122</v>
-      </c>
-      <c r="C230" t="n">
-        <v>122</v>
-      </c>
-      <c r="D230" t="n">
-        <v>122</v>
-      </c>
-      <c r="E230" t="n">
-        <v>122</v>
-      </c>
-      <c r="F230" t="n">
-        <v>70.3921</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-53640.23901118014</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>121</v>
-      </c>
-      <c r="C231" t="n">
-        <v>120</v>
-      </c>
-      <c r="D231" t="n">
-        <v>121</v>
-      </c>
-      <c r="E231" t="n">
-        <v>120</v>
-      </c>
-      <c r="F231" t="n">
-        <v>11000.7276</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-64640.96661118013</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>120</v>
-      </c>
-      <c r="C232" t="n">
-        <v>120</v>
-      </c>
-      <c r="D232" t="n">
-        <v>120</v>
-      </c>
-      <c r="E232" t="n">
-        <v>120</v>
-      </c>
-      <c r="F232" t="n">
-        <v>411.6131</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-64640.96661118013</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>120</v>
-      </c>
-      <c r="C233" t="n">
-        <v>119</v>
-      </c>
-      <c r="D233" t="n">
-        <v>120</v>
-      </c>
-      <c r="E233" t="n">
-        <v>119</v>
-      </c>
-      <c r="F233" t="n">
-        <v>1145.6896</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-65786.65621118013</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>119</v>
-      </c>
-      <c r="C234" t="n">
-        <v>119</v>
-      </c>
-      <c r="D234" t="n">
-        <v>119</v>
-      </c>
-      <c r="E234" t="n">
-        <v>119</v>
-      </c>
-      <c r="F234" t="n">
-        <v>6059.6394</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-65786.65621118013</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>119</v>
-      </c>
-      <c r="C235" t="n">
-        <v>119</v>
-      </c>
-      <c r="D235" t="n">
-        <v>119</v>
-      </c>
-      <c r="E235" t="n">
-        <v>119</v>
-      </c>
-      <c r="F235" t="n">
-        <v>8.1349</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-65786.65621118013</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>120</v>
-      </c>
-      <c r="C236" t="n">
-        <v>119</v>
-      </c>
-      <c r="D236" t="n">
-        <v>120</v>
-      </c>
-      <c r="E236" t="n">
-        <v>119</v>
-      </c>
-      <c r="F236" t="n">
-        <v>611.6123</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-65786.65621118013</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>119</v>
-      </c>
-      <c r="C237" t="n">
-        <v>120</v>
-      </c>
-      <c r="D237" t="n">
-        <v>120</v>
-      </c>
-      <c r="E237" t="n">
-        <v>119</v>
-      </c>
-      <c r="F237" t="n">
-        <v>105</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-65681.65621118013</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>119</v>
-      </c>
-      <c r="C238" t="n">
-        <v>120</v>
-      </c>
-      <c r="D238" t="n">
-        <v>120</v>
-      </c>
-      <c r="E238" t="n">
-        <v>118</v>
-      </c>
-      <c r="F238" t="n">
-        <v>18510.0613</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-65681.65621118013</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>118</v>
-      </c>
-      <c r="C239" t="n">
-        <v>118</v>
-      </c>
-      <c r="D239" t="n">
-        <v>118</v>
-      </c>
-      <c r="E239" t="n">
-        <v>118</v>
-      </c>
-      <c r="F239" t="n">
-        <v>5</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-65686.65621118013</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="n">
-        <v>120</v>
-      </c>
-      <c r="K239" t="n">
-        <v>120</v>
-      </c>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>119</v>
-      </c>
-      <c r="C240" t="n">
-        <v>119</v>
-      </c>
-      <c r="D240" t="n">
-        <v>119</v>
-      </c>
-      <c r="E240" t="n">
-        <v>119</v>
-      </c>
-      <c r="F240" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-62686.65621118013</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>120</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>120</v>
-      </c>
-      <c r="C241" t="n">
-        <v>119</v>
-      </c>
-      <c r="D241" t="n">
-        <v>120</v>
-      </c>
-      <c r="E241" t="n">
-        <v>119</v>
-      </c>
-      <c r="F241" t="n">
-        <v>4854.0545</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-62686.65621118013</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="n">
-        <v>119</v>
-      </c>
-      <c r="K241" t="n">
-        <v>120</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>120</v>
-      </c>
-      <c r="C242" t="n">
-        <v>121</v>
-      </c>
-      <c r="D242" t="n">
-        <v>121</v>
-      </c>
-      <c r="E242" t="n">
-        <v>120</v>
-      </c>
-      <c r="F242" t="n">
-        <v>5</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-62681.65621118013</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="n">
-        <v>119</v>
-      </c>
-      <c r="K242" t="n">
-        <v>120</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>119</v>
-      </c>
-      <c r="C243" t="n">
-        <v>119</v>
-      </c>
-      <c r="D243" t="n">
-        <v>119</v>
-      </c>
-      <c r="E243" t="n">
-        <v>119</v>
-      </c>
-      <c r="F243" t="n">
-        <v>5</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-62686.65621118013</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="n">
-        <v>121</v>
-      </c>
-      <c r="K243" t="n">
-        <v>120</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>121</v>
-      </c>
-      <c r="C244" t="n">
-        <v>122</v>
-      </c>
-      <c r="D244" t="n">
-        <v>122</v>
-      </c>
-      <c r="E244" t="n">
-        <v>121</v>
-      </c>
-      <c r="F244" t="n">
-        <v>2793.0893</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-59893.56691118013</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="n">
-        <v>119</v>
-      </c>
-      <c r="K244" t="n">
-        <v>120</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>122</v>
-      </c>
-      <c r="C245" t="n">
-        <v>122</v>
-      </c>
-      <c r="D245" t="n">
-        <v>122</v>
-      </c>
-      <c r="E245" t="n">
-        <v>122</v>
-      </c>
-      <c r="F245" t="n">
-        <v>232.6085</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-59893.56691118013</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="n">
-        <v>122</v>
-      </c>
-      <c r="K245" t="n">
-        <v>120</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>122</v>
-      </c>
-      <c r="C246" t="n">
-        <v>123</v>
-      </c>
-      <c r="D246" t="n">
-        <v>123</v>
-      </c>
-      <c r="E246" t="n">
-        <v>122</v>
-      </c>
-      <c r="F246" t="n">
-        <v>1018.4957</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-58875.07121118013</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="n">
-        <v>122</v>
-      </c>
-      <c r="K246" t="n">
-        <v>120</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>123</v>
-      </c>
-      <c r="C247" t="n">
-        <v>123</v>
-      </c>
-      <c r="D247" t="n">
-        <v>123</v>
-      </c>
-      <c r="E247" t="n">
-        <v>123</v>
-      </c>
-      <c r="F247" t="n">
-        <v>12</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-58875.07121118013</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>120</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>120</v>
-      </c>
-      <c r="C248" t="n">
-        <v>120</v>
-      </c>
-      <c r="D248" t="n">
-        <v>123</v>
-      </c>
-      <c r="E248" t="n">
-        <v>120</v>
-      </c>
-      <c r="F248" t="n">
-        <v>222.2682</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-59097.33941118013</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>120</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>123</v>
-      </c>
-      <c r="C249" t="n">
-        <v>123</v>
-      </c>
-      <c r="D249" t="n">
-        <v>123</v>
-      </c>
-      <c r="E249" t="n">
-        <v>123</v>
-      </c>
-      <c r="F249" t="n">
-        <v>5</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-59092.33941118013</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>120</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
+      <c r="N207" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-21 BackTest WOM.xlsx
+++ b/BackTest/2019-11-21 BackTest WOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N278"/>
+  <dimension ref="A1:M278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>5996.26317537447</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>5463.631175374469</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>5463.631175374469</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>5459.357675374469</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,19 @@
         <v>-51919.30761118015</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="J32" t="n">
+        <v>116</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1478,23 @@
         <v>-51919.30761118015</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="J33" t="n">
+        <v>116</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1521,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>116</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1560,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1593,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1626,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1659,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1692,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1723,19 @@
         <v>-55856.46231118015</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="J40" t="n">
+        <v>115</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1760,23 @@
         <v>-55856.46231118015</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="J41" t="n">
+        <v>115</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1801,23 @@
         <v>-55856.46231118015</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="J42" t="n">
+        <v>115</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1842,19 @@
         <v>-55856.46231118015</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="J43" t="n">
+        <v>116</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1879,23 @@
         <v>-55856.46231118015</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="J44" t="n">
+        <v>116</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1920,23 @@
         <v>-55856.46231118015</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="J45" t="n">
+        <v>116</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,24 +1961,23 @@
         <v>-54328.76741118015</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="J46" t="n">
         <v>116</v>
       </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2082,24 +2002,23 @@
         <v>-52292.12391118015</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="J47" t="n">
-        <v>117</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2124,24 +2043,23 @@
         <v>-57987.75371118015</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="J48" t="n">
-        <v>118</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2166,24 +2084,23 @@
         <v>-55052.71231118015</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="J49" t="n">
-        <v>117</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2208,22 +2125,23 @@
         <v>-55052.71231118015</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>118</v>
+      </c>
+      <c r="J50" t="n">
+        <v>116</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2250,20 +2168,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>116</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2288,22 +2205,23 @@
         <v>-54871.92141118015</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J52" t="n">
+        <v>116</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2328,22 +2246,23 @@
         <v>-54871.92141118015</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>117</v>
+      </c>
+      <c r="J53" t="n">
+        <v>116</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2368,24 +2287,23 @@
         <v>-51883.55891118015</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="J54" t="n">
-        <v>117</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2410,22 +2328,23 @@
         <v>-30257.02691118015</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J55" t="n">
+        <v>116</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2450,22 +2369,23 @@
         <v>-30257.02691118015</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>120</v>
+      </c>
+      <c r="J56" t="n">
+        <v>116</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2490,22 +2410,23 @@
         <v>-30276.29471118015</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>120</v>
+      </c>
+      <c r="J57" t="n">
+        <v>116</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2530,22 +2451,23 @@
         <v>-30276.29471118015</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J58" t="n">
+        <v>116</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2570,22 +2492,23 @@
         <v>-30276.29471118015</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J59" t="n">
+        <v>116</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2610,22 +2533,23 @@
         <v>-30281.29471118015</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J60" t="n">
+        <v>116</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2650,22 +2574,23 @@
         <v>-30281.29471118015</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>118</v>
+      </c>
+      <c r="J61" t="n">
+        <v>116</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2690,22 +2615,23 @@
         <v>-30280.59471118015</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>118</v>
+      </c>
+      <c r="J62" t="n">
+        <v>116</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2730,22 +2656,23 @@
         <v>-30275.59471118015</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J63" t="n">
+        <v>116</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2770,22 +2697,23 @@
         <v>-30280.59471118015</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>120</v>
+      </c>
+      <c r="J64" t="n">
+        <v>116</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2810,22 +2738,23 @@
         <v>-30280.59471118015</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J65" t="n">
+        <v>116</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2850,22 +2779,23 @@
         <v>-30280.59471118015</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J66" t="n">
+        <v>116</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2890,22 +2820,23 @@
         <v>-30280.59471118015</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J67" t="n">
+        <v>116</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2930,24 +2861,23 @@
         <v>-30280.59471118015</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="J68" t="n">
-        <v>119</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2972,24 +2902,23 @@
         <v>-30280.59471118015</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="J69" t="n">
-        <v>119</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3014,24 +2943,23 @@
         <v>-30280.59471118015</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="J70" t="n">
-        <v>119</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3056,24 +2984,23 @@
         <v>-30311.98861118015</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="J71" t="n">
-        <v>119</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3098,24 +3025,23 @@
         <v>-30311.98861118015</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="J72" t="n">
-        <v>118</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3140,24 +3066,23 @@
         <v>-30311.98861118015</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="J73" t="n">
-        <v>118</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3182,24 +3107,23 @@
         <v>-30311.98861118015</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="J74" t="n">
-        <v>118</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3224,24 +3148,23 @@
         <v>-30311.98861118015</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="J75" t="n">
-        <v>118</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3266,24 +3189,23 @@
         <v>-30301.98861118015</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="J76" t="n">
-        <v>118</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3308,24 +3230,23 @@
         <v>-30301.98861118015</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="J77" t="n">
-        <v>119</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3350,24 +3271,23 @@
         <v>-30301.98861118015</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="J78" t="n">
-        <v>119</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3392,24 +3312,23 @@
         <v>-30301.98861118015</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="J79" t="n">
-        <v>119</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3434,24 +3353,23 @@
         <v>-30301.98861118015</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="J80" t="n">
-        <v>119</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3476,24 +3394,23 @@
         <v>-30301.98861118015</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="J81" t="n">
-        <v>119</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3518,24 +3435,23 @@
         <v>-30316.69371118015</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="J82" t="n">
-        <v>119</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3560,24 +3476,23 @@
         <v>-30326.69371118015</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="J83" t="n">
-        <v>118</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3602,24 +3517,23 @@
         <v>-30301.74771118015</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="J84" t="n">
-        <v>117</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3644,24 +3558,23 @@
         <v>-32954.89231118015</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="J85" t="n">
-        <v>119</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3686,24 +3599,23 @@
         <v>-32954.89231118015</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="J86" t="n">
-        <v>117</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3728,24 +3640,23 @@
         <v>-32949.89231118015</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="J87" t="n">
-        <v>117</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3770,24 +3681,23 @@
         <v>-32939.89231118015</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="J88" t="n">
-        <v>118</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3812,24 +3722,23 @@
         <v>-32939.89231118015</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="J89" t="n">
-        <v>119</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3854,24 +3763,23 @@
         <v>-32944.89231118015</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="J90" t="n">
-        <v>119</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3896,24 +3804,23 @@
         <v>-32944.89231118015</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="J91" t="n">
-        <v>118</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3938,24 +3845,23 @@
         <v>-32954.89231118015</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="J92" t="n">
-        <v>118</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3980,24 +3886,23 @@
         <v>-32954.89231118015</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="J93" t="n">
-        <v>117</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4022,24 +3927,23 @@
         <v>-32949.89231118015</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="J94" t="n">
-        <v>117</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4064,24 +3968,23 @@
         <v>-32958.08231118015</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="J95" t="n">
-        <v>118</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4106,24 +4009,23 @@
         <v>-25930.31391118015</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="J96" t="n">
-        <v>117</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4148,24 +4050,23 @@
         <v>-25930.31391118015</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="J97" t="n">
-        <v>118</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4190,24 +4091,23 @@
         <v>-25948.74141118015</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="J98" t="n">
-        <v>118</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4232,24 +4132,23 @@
         <v>-22383.95571118015</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="J99" t="n">
         <v>116</v>
       </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4274,24 +4173,23 @@
         <v>-22383.95571118015</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="J100" t="n">
-        <v>117</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4316,24 +4214,23 @@
         <v>-22383.95571118015</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="J101" t="n">
-        <v>117</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4358,24 +4255,23 @@
         <v>-38347.56771118015</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="J102" t="n">
-        <v>117</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4400,24 +4296,23 @@
         <v>-38342.56771118015</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="J103" t="n">
-        <v>115</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4444,20 +4339,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>116</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4484,20 +4378,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>116</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4522,22 +4415,23 @@
         <v>-38355.53441118015</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>118</v>
+      </c>
+      <c r="J106" t="n">
+        <v>116</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4564,20 +4458,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>116</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4604,20 +4497,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>116</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4644,20 +4536,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>116</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4682,24 +4573,23 @@
         <v>-38310.86331118015</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="J110" t="n">
-        <v>117</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4724,24 +4614,23 @@
         <v>-38310.86331118015</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="J111" t="n">
-        <v>115</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4766,24 +4655,23 @@
         <v>-38310.86331118015</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="J112" t="n">
-        <v>115</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4808,24 +4696,23 @@
         <v>-38305.86331118015</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="J113" t="n">
-        <v>115</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4850,24 +4737,23 @@
         <v>-38310.86331118015</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="J114" t="n">
-        <v>117</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4892,24 +4778,23 @@
         <v>-38304.43591118015</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="J115" t="n">
-        <v>115</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4934,22 +4819,23 @@
         <v>-38400.43591118015</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>117</v>
+      </c>
+      <c r="J116" t="n">
+        <v>116</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4974,22 +4860,23 @@
         <v>-38400.43591118015</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="J117" t="n">
+        <v>116</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5014,24 +4901,21 @@
         <v>-38400.43591118015</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>115</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5056,24 +4940,23 @@
         <v>-45331.96271118015</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="J119" t="n">
-        <v>115</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5098,24 +4981,23 @@
         <v>-45331.96271118015</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="J120" t="n">
-        <v>114</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5140,24 +5022,23 @@
         <v>-45326.96271118015</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="J121" t="n">
-        <v>114</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5182,24 +5063,23 @@
         <v>-46326.96271118015</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="J122" t="n">
         <v>116</v>
       </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5224,24 +5104,23 @@
         <v>-46321.96271118015</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="J123" t="n">
-        <v>114</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5266,24 +5145,23 @@
         <v>-61901.77401118015</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="J124" t="n">
-        <v>115</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5308,24 +5186,23 @@
         <v>-61896.77401118015</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="J125" t="n">
-        <v>114</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5350,24 +5227,23 @@
         <v>-70497.80571118015</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="J126" t="n">
-        <v>115</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5392,24 +5268,23 @@
         <v>-70492.80571118015</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="J127" t="n">
-        <v>114</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5434,24 +5309,23 @@
         <v>-70492.80571118015</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="J128" t="n">
-        <v>115</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5476,22 +5350,23 @@
         <v>-70492.80571118015</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="J129" t="n">
+        <v>116</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5516,24 +5391,23 @@
         <v>-70487.80571118015</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="J130" t="n">
-        <v>115</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5558,22 +5432,23 @@
         <v>-73763.27271118015</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="J131" t="n">
+        <v>116</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5598,24 +5473,23 @@
         <v>-73758.27271118015</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="J132" t="n">
-        <v>115</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5640,24 +5514,21 @@
         <v>-73758.27271118015</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
         <v>116</v>
       </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5684,20 +5555,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>116</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5724,20 +5594,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>116</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5762,24 +5631,23 @@
         <v>-73888.27271118015</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="J136" t="n">
         <v>116</v>
       </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5804,24 +5672,23 @@
         <v>-73888.27271118015</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="J137" t="n">
-        <v>115</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5846,24 +5713,23 @@
         <v>-73883.27271118015</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="J138" t="n">
-        <v>115</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5888,24 +5754,23 @@
         <v>-77044.04681118015</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="J139" t="n">
         <v>116</v>
       </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5930,24 +5795,23 @@
         <v>-77039.04681118015</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="J140" t="n">
-        <v>115</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5972,24 +5836,23 @@
         <v>-77039.04681118015</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="J141" t="n">
         <v>116</v>
       </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6014,24 +5877,23 @@
         <v>-70821.04681118015</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="J142" t="n">
         <v>116</v>
       </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6056,24 +5918,23 @@
         <v>-70821.04681118015</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="J143" t="n">
-        <v>117</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6098,22 +5959,23 @@
         <v>-70821.04681118015</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+        <v>117</v>
+      </c>
+      <c r="J144" t="n">
+        <v>116</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6138,22 +6000,23 @@
         <v>-51428.85081118015</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+        <v>117</v>
+      </c>
+      <c r="J145" t="n">
+        <v>116</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6178,22 +6041,23 @@
         <v>-45594.65111118015</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>118</v>
+      </c>
+      <c r="J146" t="n">
+        <v>116</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6218,22 +6082,23 @@
         <v>-45599.65111118015</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J147" t="n">
+        <v>116</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6258,22 +6123,23 @@
         <v>-45604.65111118015</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+        <v>118</v>
+      </c>
+      <c r="J148" t="n">
+        <v>116</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6298,22 +6164,23 @@
         <v>-45001.84711118016</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+        <v>117</v>
+      </c>
+      <c r="J149" t="n">
+        <v>116</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6338,22 +6205,23 @@
         <v>-45006.84711118016</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J150" t="n">
+        <v>116</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6378,22 +6246,23 @@
         <v>-45001.84711118016</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>117</v>
+      </c>
+      <c r="J151" t="n">
+        <v>116</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6418,22 +6287,23 @@
         <v>-45009.84711118016</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J152" t="n">
+        <v>116</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6458,22 +6328,23 @@
         <v>-45004.84711118016</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+        <v>117</v>
+      </c>
+      <c r="J153" t="n">
+        <v>116</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6498,22 +6369,23 @@
         <v>-45004.84711118016</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J154" t="n">
+        <v>116</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6538,22 +6410,23 @@
         <v>-44999.84711118016</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J155" t="n">
+        <v>116</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6578,22 +6451,23 @@
         <v>-50892.23371118015</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+        <v>120</v>
+      </c>
+      <c r="J156" t="n">
+        <v>116</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6618,22 +6492,23 @@
         <v>-50887.23371118015</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J157" t="n">
+        <v>116</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6658,22 +6533,23 @@
         <v>-50912.71981118016</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>120</v>
+      </c>
+      <c r="J158" t="n">
+        <v>116</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6698,22 +6574,23 @@
         <v>-50907.71981118016</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J159" t="n">
+        <v>116</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6738,22 +6615,23 @@
         <v>-50912.71981118016</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+        <v>120</v>
+      </c>
+      <c r="J160" t="n">
+        <v>116</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6778,22 +6656,23 @@
         <v>-51489.13711118016</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J161" t="n">
+        <v>116</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6818,24 +6697,23 @@
         <v>-51484.13711118016</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="J162" t="n">
-        <v>118</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6860,24 +6738,23 @@
         <v>-51484.13711118016</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="J163" t="n">
-        <v>119</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6902,24 +6779,23 @@
         <v>-51479.13711118016</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="J164" t="n">
-        <v>119</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6944,22 +6820,23 @@
         <v>-51479.13711118016</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+        <v>120</v>
+      </c>
+      <c r="J165" t="n">
+        <v>116</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6984,24 +6861,23 @@
         <v>-51474.13711118016</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J166" t="n">
-        <v>120</v>
-      </c>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7026,22 +6902,23 @@
         <v>-25332.94691118016</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+        <v>121</v>
+      </c>
+      <c r="J167" t="n">
+        <v>116</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7066,22 +6943,23 @@
         <v>-25332.94691118016</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+        <v>123</v>
+      </c>
+      <c r="J168" t="n">
+        <v>116</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7108,20 +6986,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>116</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7146,22 +7023,23 @@
         <v>-22185.47961118016</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>116</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1.063965517241379</v>
       </c>
       <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>1.052631578947368</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7186,22 +7064,15 @@
         <v>-22180.47961118016</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7226,22 +7097,15 @@
         <v>-14075.68911118016</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7266,22 +7130,15 @@
         <v>-14075.68911118016</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7306,22 +7163,15 @@
         <v>-27766.14191118016</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7346,22 +7196,15 @@
         <v>-27766.14191118016</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7386,22 +7229,15 @@
         <v>22558.76588881985</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7426,20 +7262,15 @@
         <v>22558.76588881985</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L177" t="n">
+        <v>1</v>
       </c>
       <c r="M177" t="inlineStr"/>
-      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7464,18 +7295,15 @@
         <v>1319.973788819847</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7500,18 +7328,15 @@
         <v>1661.399688819847</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7536,18 +7361,15 @@
         <v>-7451.341211180154</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7572,18 +7394,15 @@
         <v>-8255.394811180153</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7608,18 +7427,15 @@
         <v>-8255.394811180153</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7644,18 +7460,15 @@
         <v>-14557.75071118015</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7682,16 +7495,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7718,16 +7528,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7754,16 +7561,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7790,16 +7594,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7826,16 +7627,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7860,18 +7658,15 @@
         <v>1019.781588819846</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7896,18 +7691,15 @@
         <v>28115.36768881985</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7932,18 +7724,15 @@
         <v>40512.86608881985</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7968,18 +7757,15 @@
         <v>40512.86608881985</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8004,18 +7790,15 @@
         <v>40512.86608881985</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8040,18 +7823,15 @@
         <v>39115.00308881985</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8076,18 +7856,15 @@
         <v>39120.00308881985</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8112,18 +7889,15 @@
         <v>20997.48078881985</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8148,18 +7922,15 @@
         <v>21017.56018881985</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8184,18 +7955,15 @@
         <v>21017.56018881985</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8220,18 +7988,15 @@
         <v>23815.50318881985</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8258,16 +8023,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>1</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8292,18 +8054,15 @@
         <v>-33948.04661118015</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8330,16 +8089,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8364,18 +8120,15 @@
         <v>-33976.12811118015</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8402,16 +8155,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8438,16 +8188,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8474,16 +8221,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8510,16 +8254,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8546,16 +8287,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8582,16 +8320,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8618,16 +8353,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8654,16 +8386,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8690,16 +8419,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8726,16 +8452,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8762,16 +8485,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8798,16 +8518,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8834,16 +8551,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8870,16 +8584,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8906,16 +8617,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8942,16 +8650,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8978,16 +8683,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9014,16 +8716,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9050,16 +8749,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9086,16 +8782,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9122,16 +8815,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9158,16 +8848,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9194,16 +8881,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9230,16 +8914,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9266,16 +8947,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9302,16 +8980,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9338,16 +9013,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9374,16 +9046,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9410,16 +9079,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9446,16 +9112,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9482,16 +9145,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9518,16 +9178,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9554,16 +9211,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9590,16 +9244,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9626,16 +9277,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9662,16 +9310,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9698,16 +9343,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9734,16 +9376,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9770,16 +9409,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9806,16 +9442,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9842,16 +9475,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9878,16 +9508,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9914,16 +9541,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9950,16 +9574,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9986,16 +9607,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10022,16 +9640,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10058,16 +9673,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10094,16 +9706,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10130,16 +9739,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10166,16 +9772,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10202,16 +9805,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10238,16 +9838,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10274,16 +9871,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10310,16 +9904,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10346,16 +9937,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10382,16 +9970,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10418,16 +10003,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10454,16 +10036,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10490,16 +10069,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10526,16 +10102,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10560,22 +10133,15 @@
         <v>-65786.65621118013</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="n">
-        <v>119</v>
-      </c>
-      <c r="K264" t="n">
-        <v>119</v>
-      </c>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10602,22 +10168,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>119</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10644,22 +10201,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>119</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10686,22 +10234,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>119</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10728,22 +10267,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>119</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10770,22 +10300,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>119</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10812,22 +10333,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>119</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10854,22 +10366,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>119</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10896,22 +10399,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>119</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10938,22 +10432,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>119</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10980,22 +10465,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>119</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11022,22 +10498,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>119</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11064,22 +10531,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>119</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11106,22 +10564,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>119</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11148,24 +10597,15 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>119</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest WOM.xlsx
+++ b/BackTest/2019-11-21 BackTest WOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>5996.26317537447</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>5463.631175374469</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>5463.631175374469</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>5459.357675374469</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1441,14 +1441,10 @@
         <v>-51919.30761118015</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>116</v>
-      </c>
-      <c r="J32" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
@@ -1478,19 +1474,11 @@
         <v>-51919.30761118015</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>116</v>
-      </c>
-      <c r="J33" t="n">
-        <v>116</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1522,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>116</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1723,14 +1705,10 @@
         <v>-55856.46231118015</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>115</v>
-      </c>
-      <c r="J40" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
@@ -1760,19 +1738,11 @@
         <v>-55856.46231118015</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>116</v>
-      </c>
-      <c r="J41" t="n">
-        <v>115</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1801,19 +1771,11 @@
         <v>-55856.46231118015</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>116</v>
-      </c>
-      <c r="J42" t="n">
-        <v>115</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1842,14 +1804,10 @@
         <v>-55856.46231118015</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>116</v>
-      </c>
-      <c r="J43" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
@@ -1879,19 +1837,11 @@
         <v>-55856.46231118015</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>116</v>
-      </c>
-      <c r="J44" t="n">
-        <v>116</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1920,19 +1870,11 @@
         <v>-55856.46231118015</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>116</v>
-      </c>
-      <c r="J45" t="n">
-        <v>116</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1961,19 +1903,11 @@
         <v>-54328.76741118015</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>116</v>
-      </c>
-      <c r="J46" t="n">
-        <v>116</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2002,19 +1936,11 @@
         <v>-52292.12391118015</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>117</v>
-      </c>
-      <c r="J47" t="n">
-        <v>116</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2043,19 +1969,11 @@
         <v>-57987.75371118015</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>118</v>
-      </c>
-      <c r="J48" t="n">
-        <v>116</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2084,19 +2002,15 @@
         <v>-55052.71231118015</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>117</v>
       </c>
       <c r="J49" t="n">
-        <v>116</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2125,17 +2039,17 @@
         <v>-55052.71231118015</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>118</v>
       </c>
       <c r="J50" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2166,15 +2080,17 @@
         <v>-54857.71231118015</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>118</v>
+      </c>
       <c r="J51" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2205,19 +2121,11 @@
         <v>-54871.92141118015</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>119</v>
-      </c>
-      <c r="J52" t="n">
-        <v>116</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2246,19 +2154,15 @@
         <v>-54871.92141118015</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>117</v>
       </c>
       <c r="J53" t="n">
-        <v>116</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2287,17 +2191,17 @@
         <v>-51883.55891118015</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>117</v>
       </c>
       <c r="J54" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -2328,17 +2232,15 @@
         <v>-30257.02691118015</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2369,19 +2271,11 @@
         <v>-30257.02691118015</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>120</v>
-      </c>
-      <c r="J56" t="n">
-        <v>116</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2410,19 +2304,11 @@
         <v>-30276.29471118015</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>120</v>
-      </c>
-      <c r="J57" t="n">
-        <v>116</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2451,19 +2337,11 @@
         <v>-30276.29471118015</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>119</v>
-      </c>
-      <c r="J58" t="n">
-        <v>116</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2492,19 +2370,11 @@
         <v>-30276.29471118015</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>116</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2533,19 +2403,11 @@
         <v>-30281.29471118015</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>119</v>
-      </c>
-      <c r="J60" t="n">
-        <v>116</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2574,19 +2436,11 @@
         <v>-30281.29471118015</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>118</v>
-      </c>
-      <c r="J61" t="n">
-        <v>116</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2615,19 +2469,11 @@
         <v>-30280.59471118015</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>118</v>
-      </c>
-      <c r="J62" t="n">
-        <v>116</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2656,19 +2502,11 @@
         <v>-30275.59471118015</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>119</v>
-      </c>
-      <c r="J63" t="n">
-        <v>116</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2697,19 +2535,11 @@
         <v>-30280.59471118015</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>120</v>
-      </c>
-      <c r="J64" t="n">
-        <v>116</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2738,19 +2568,11 @@
         <v>-30280.59471118015</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>119</v>
-      </c>
-      <c r="J65" t="n">
-        <v>116</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2779,19 +2601,11 @@
         <v>-30280.59471118015</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>119</v>
-      </c>
-      <c r="J66" t="n">
-        <v>116</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2820,19 +2634,11 @@
         <v>-30280.59471118015</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>119</v>
-      </c>
-      <c r="J67" t="n">
-        <v>116</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2861,19 +2667,15 @@
         <v>-30280.59471118015</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>119</v>
       </c>
       <c r="J68" t="n">
-        <v>116</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2902,17 +2704,17 @@
         <v>-30280.59471118015</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>119</v>
       </c>
       <c r="J69" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -2943,17 +2745,17 @@
         <v>-30280.59471118015</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>119</v>
       </c>
       <c r="J70" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -2984,19 +2786,15 @@
         <v>-30311.98861118015</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>119</v>
       </c>
       <c r="J71" t="n">
-        <v>116</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3025,17 +2823,17 @@
         <v>-30311.98861118015</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>118</v>
       </c>
       <c r="J72" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -3066,17 +2864,17 @@
         <v>-30311.98861118015</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>118</v>
       </c>
       <c r="J73" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -3107,13 +2905,13 @@
         <v>-30311.98861118015</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>118</v>
       </c>
       <c r="J74" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3148,13 +2946,13 @@
         <v>-30311.98861118015</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>118</v>
       </c>
       <c r="J75" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3189,13 +2987,13 @@
         <v>-30301.98861118015</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>118</v>
       </c>
       <c r="J76" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3230,13 +3028,13 @@
         <v>-30301.98861118015</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>119</v>
       </c>
       <c r="J77" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3271,13 +3069,13 @@
         <v>-30301.98861118015</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>119</v>
       </c>
       <c r="J78" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3312,13 +3110,13 @@
         <v>-30301.98861118015</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>119</v>
       </c>
       <c r="J79" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3353,13 +3151,13 @@
         <v>-30301.98861118015</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>119</v>
       </c>
       <c r="J80" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3394,13 +3192,13 @@
         <v>-30301.98861118015</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>119</v>
       </c>
       <c r="J81" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3435,13 +3233,13 @@
         <v>-30316.69371118015</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>119</v>
       </c>
       <c r="J82" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3476,13 +3274,13 @@
         <v>-30326.69371118015</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>118</v>
       </c>
       <c r="J83" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3517,13 +3315,13 @@
         <v>-30301.74771118015</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>117</v>
       </c>
       <c r="J84" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3558,13 +3356,13 @@
         <v>-32954.89231118015</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>119</v>
       </c>
       <c r="J85" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3599,13 +3397,13 @@
         <v>-32954.89231118015</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>117</v>
       </c>
       <c r="J86" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3640,13 +3438,13 @@
         <v>-32949.89231118015</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>117</v>
       </c>
       <c r="J87" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3681,13 +3479,13 @@
         <v>-32939.89231118015</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>118</v>
       </c>
       <c r="J88" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3722,13 +3520,13 @@
         <v>-32939.89231118015</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>119</v>
       </c>
       <c r="J89" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3763,13 +3561,13 @@
         <v>-32944.89231118015</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>119</v>
       </c>
       <c r="J90" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3804,13 +3602,13 @@
         <v>-32944.89231118015</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>118</v>
       </c>
       <c r="J91" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3845,13 +3643,13 @@
         <v>-32954.89231118015</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>118</v>
       </c>
       <c r="J92" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3886,13 +3684,13 @@
         <v>-32954.89231118015</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>117</v>
       </c>
       <c r="J93" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3927,13 +3725,13 @@
         <v>-32949.89231118015</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>117</v>
       </c>
       <c r="J94" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3968,13 +3766,13 @@
         <v>-32958.08231118015</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>118</v>
       </c>
       <c r="J95" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4009,13 +3807,13 @@
         <v>-25930.31391118015</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>117</v>
       </c>
       <c r="J96" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4050,13 +3848,13 @@
         <v>-25930.31391118015</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>118</v>
       </c>
       <c r="J97" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4091,13 +3889,13 @@
         <v>-25948.74141118015</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>118</v>
       </c>
       <c r="J98" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4132,13 +3930,13 @@
         <v>-22383.95571118015</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>116</v>
       </c>
       <c r="J99" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4173,13 +3971,13 @@
         <v>-22383.95571118015</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>117</v>
       </c>
       <c r="J100" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4214,13 +4012,13 @@
         <v>-22383.95571118015</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>117</v>
       </c>
       <c r="J101" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4255,13 +4053,13 @@
         <v>-38347.56771118015</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>117</v>
       </c>
       <c r="J102" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4296,13 +4094,13 @@
         <v>-38342.56771118015</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>115</v>
       </c>
       <c r="J103" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4341,7 +4139,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4376,11 +4174,13 @@
         <v>-38343.09591118015</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>116</v>
+      </c>
       <c r="J105" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4415,13 +4215,13 @@
         <v>-38355.53441118015</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>118</v>
       </c>
       <c r="J106" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4456,11 +4256,13 @@
         <v>-38305.53441118015</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>115</v>
+      </c>
       <c r="J107" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4499,7 +4301,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4534,11 +4336,13 @@
         <v>-38305.53441118015</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>117</v>
+      </c>
       <c r="J109" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4573,13 +4377,13 @@
         <v>-38310.86331118015</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>117</v>
       </c>
       <c r="J110" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4614,13 +4418,13 @@
         <v>-38310.86331118015</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>115</v>
       </c>
       <c r="J111" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4655,13 +4459,13 @@
         <v>-38310.86331118015</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>115</v>
       </c>
       <c r="J112" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4696,13 +4500,13 @@
         <v>-38305.86331118015</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>115</v>
       </c>
       <c r="J113" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4737,13 +4541,13 @@
         <v>-38310.86331118015</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>117</v>
       </c>
       <c r="J114" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4778,13 +4582,13 @@
         <v>-38304.43591118015</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>115</v>
       </c>
       <c r="J115" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4819,13 +4623,13 @@
         <v>-38400.43591118015</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>117</v>
       </c>
       <c r="J116" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4860,13 +4664,13 @@
         <v>-38400.43591118015</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>115</v>
       </c>
       <c r="J117" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4901,11 +4705,13 @@
         <v>-38400.43591118015</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>115</v>
+      </c>
       <c r="J118" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4940,13 +4746,13 @@
         <v>-45331.96271118015</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>115</v>
       </c>
       <c r="J119" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4981,13 +4787,13 @@
         <v>-45331.96271118015</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>114</v>
       </c>
       <c r="J120" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5022,13 +4828,13 @@
         <v>-45326.96271118015</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>114</v>
       </c>
       <c r="J121" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5063,13 +4869,13 @@
         <v>-46326.96271118015</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>116</v>
       </c>
       <c r="J122" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5104,13 +4910,13 @@
         <v>-46321.96271118015</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>114</v>
       </c>
       <c r="J123" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5145,13 +4951,13 @@
         <v>-61901.77401118015</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>115</v>
       </c>
       <c r="J124" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5186,13 +4992,13 @@
         <v>-61896.77401118015</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>114</v>
       </c>
       <c r="J125" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5227,13 +5033,13 @@
         <v>-70497.80571118015</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>115</v>
       </c>
       <c r="J126" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5268,13 +5074,13 @@
         <v>-70492.80571118015</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>114</v>
       </c>
       <c r="J127" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5309,13 +5115,13 @@
         <v>-70492.80571118015</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>115</v>
       </c>
       <c r="J128" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5350,13 +5156,13 @@
         <v>-70492.80571118015</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>115</v>
       </c>
       <c r="J129" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5391,13 +5197,13 @@
         <v>-70487.80571118015</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>115</v>
       </c>
       <c r="J130" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5432,13 +5238,13 @@
         <v>-73763.27271118015</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>116</v>
       </c>
       <c r="J131" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5473,13 +5279,13 @@
         <v>-73758.27271118015</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>115</v>
       </c>
       <c r="J132" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5514,11 +5320,13 @@
         <v>-73758.27271118015</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>116</v>
+      </c>
       <c r="J133" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5553,11 +5361,13 @@
         <v>-73758.27271118015</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>116</v>
+      </c>
       <c r="J134" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5592,11 +5402,13 @@
         <v>-73758.27271118015</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>116</v>
+      </c>
       <c r="J135" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5631,13 +5443,13 @@
         <v>-73888.27271118015</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>116</v>
       </c>
       <c r="J136" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5672,13 +5484,13 @@
         <v>-73888.27271118015</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>115</v>
       </c>
       <c r="J137" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5713,13 +5525,13 @@
         <v>-73883.27271118015</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>115</v>
       </c>
       <c r="J138" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5754,13 +5566,13 @@
         <v>-77044.04681118015</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>116</v>
       </c>
       <c r="J139" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5795,13 +5607,13 @@
         <v>-77039.04681118015</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>115</v>
       </c>
       <c r="J140" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5836,13 +5648,13 @@
         <v>-77039.04681118015</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>116</v>
       </c>
       <c r="J141" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5877,13 +5689,13 @@
         <v>-70821.04681118015</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>116</v>
       </c>
       <c r="J142" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5918,13 +5730,13 @@
         <v>-70821.04681118015</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>117</v>
       </c>
       <c r="J143" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5959,13 +5771,13 @@
         <v>-70821.04681118015</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>117</v>
       </c>
       <c r="J144" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6000,13 +5812,13 @@
         <v>-51428.85081118015</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>117</v>
       </c>
       <c r="J145" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6041,13 +5853,11 @@
         <v>-45594.65111118015</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6082,13 +5892,11 @@
         <v>-45599.65111118015</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6123,13 +5931,11 @@
         <v>-45604.65111118015</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6164,13 +5970,11 @@
         <v>-45001.84711118016</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6205,13 +6009,11 @@
         <v>-45006.84711118016</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6246,13 +6048,11 @@
         <v>-45001.84711118016</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6287,13 +6087,11 @@
         <v>-45009.84711118016</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6328,13 +6126,11 @@
         <v>-45004.84711118016</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6369,13 +6165,11 @@
         <v>-45004.84711118016</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6410,13 +6204,11 @@
         <v>-44999.84711118016</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6451,13 +6243,11 @@
         <v>-50892.23371118015</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6492,13 +6282,11 @@
         <v>-50887.23371118015</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6533,13 +6321,11 @@
         <v>-50912.71981118016</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6574,13 +6360,11 @@
         <v>-50907.71981118016</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6615,13 +6399,11 @@
         <v>-50912.71981118016</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6656,13 +6438,11 @@
         <v>-51489.13711118016</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6697,13 +6477,13 @@
         <v>-51484.13711118016</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>118</v>
       </c>
       <c r="J162" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6738,13 +6518,13 @@
         <v>-51484.13711118016</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>119</v>
       </c>
       <c r="J163" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6779,13 +6559,13 @@
         <v>-51479.13711118016</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>119</v>
       </c>
       <c r="J164" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6820,13 +6600,13 @@
         <v>-51479.13711118016</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>120</v>
       </c>
       <c r="J165" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6861,13 +6641,13 @@
         <v>-51474.13711118016</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>120</v>
       </c>
       <c r="J166" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6902,13 +6682,13 @@
         <v>-25332.94691118016</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>121</v>
       </c>
       <c r="J167" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6943,13 +6723,13 @@
         <v>-25332.94691118016</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>123</v>
       </c>
       <c r="J168" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6988,7 +6768,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7023,23 +6803,23 @@
         <v>-22185.47961118016</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>124</v>
+      </c>
       <c r="J170" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L170" t="n">
-        <v>1.063965517241379</v>
-      </c>
-      <c r="M170" t="n">
-        <v>1.052631578947368</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7064,11 +6844,17 @@
         <v>-22180.47961118016</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>119</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7097,11 +6883,17 @@
         <v>-14075.68911118016</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>119</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7130,11 +6922,19 @@
         <v>-14075.68911118016</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>126</v>
+      </c>
+      <c r="J173" t="n">
+        <v>119</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7163,11 +6963,17 @@
         <v>-27766.14191118016</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>119</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7196,11 +7002,17 @@
         <v>-27766.14191118016</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>119</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7229,11 +7041,19 @@
         <v>22558.76588881985</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>124</v>
+      </c>
+      <c r="J176" t="n">
+        <v>119</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7262,11 +7082,17 @@
         <v>22558.76588881985</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>119</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7295,11 +7121,17 @@
         <v>1319.973788819847</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>119</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7328,11 +7160,17 @@
         <v>1661.399688819847</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>119</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7361,11 +7199,17 @@
         <v>-7451.341211180154</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>119</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7394,11 +7238,17 @@
         <v>-8255.394811180153</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>119</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7427,11 +7277,17 @@
         <v>-8255.394811180153</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>119</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7460,11 +7316,17 @@
         <v>-14557.75071118015</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>119</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7496,8 +7358,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>119</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7529,8 +7397,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>119</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7562,8 +7436,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>119</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7595,8 +7475,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>119</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7628,8 +7514,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>119</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7658,11 +7550,17 @@
         <v>1019.781588819846</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>119</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7691,11 +7589,17 @@
         <v>28115.36768881985</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>119</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7724,11 +7628,17 @@
         <v>40512.86608881985</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>119</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7757,11 +7667,17 @@
         <v>40512.86608881985</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>119</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7790,11 +7706,17 @@
         <v>40512.86608881985</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>119</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7823,11 +7745,17 @@
         <v>39115.00308881985</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>119</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7856,11 +7784,17 @@
         <v>39120.00308881985</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>119</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7889,11 +7823,17 @@
         <v>20997.48078881985</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>119</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7922,11 +7862,17 @@
         <v>21017.56018881985</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>119</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7955,11 +7901,17 @@
         <v>21017.56018881985</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>119</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7988,11 +7940,17 @@
         <v>23815.50318881985</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>119</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8024,8 +7982,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>119</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8054,15 +8018,23 @@
         <v>-33948.04661118015</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>119</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>1.07063025210084</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1.052631578947368</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8087,7 +8059,7 @@
         <v>-36549.94791118015</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8120,7 +8092,7 @@
         <v>-33976.12811118015</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8153,7 +8125,7 @@
         <v>-33992.12811118015</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8186,7 +8158,7 @@
         <v>-33988.12811118015</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8219,7 +8191,7 @@
         <v>-38714.50291118015</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8252,7 +8224,7 @@
         <v>-38714.50291118015</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8285,7 +8257,7 @@
         <v>-38732.32291118015</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8318,7 +8290,7 @@
         <v>-34136.41761118015</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8351,7 +8323,7 @@
         <v>-45323.27751118015</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8384,7 +8356,7 @@
         <v>-43928.27721118015</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8417,7 +8389,7 @@
         <v>-43928.27721118015</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8450,7 +8422,7 @@
         <v>-43941.64221118014</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8483,7 +8455,7 @@
         <v>-43937.64221118014</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8516,7 +8488,7 @@
         <v>-44870.91941118014</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8549,7 +8521,7 @@
         <v>-44866.91941118014</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8582,7 +8554,7 @@
         <v>-57406.42131118014</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8615,7 +8587,7 @@
         <v>-57413.66931118014</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8648,7 +8620,7 @@
         <v>-57413.66931118014</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8681,7 +8653,7 @@
         <v>-57430.66931118014</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8714,7 +8686,7 @@
         <v>-57417.66931118014</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8747,7 +8719,7 @@
         <v>-62137.96281118014</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8978,7 +8950,7 @@
         <v>-51511.31081118013</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9044,7 +9016,7 @@
         <v>-52946.40631118014</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9077,7 +9049,7 @@
         <v>-67503.60631118013</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -10606,6 +10578,6 @@
       <c r="M278" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest WOM.xlsx
+++ b/BackTest/2019-11-21 BackTest WOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>12345.20097537447</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>12345.20097537447</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>5996.26317537447</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>6001.26317537447</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>5792.91457537447</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>5463.631175374469</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -2002,14 +2002,10 @@
         <v>-55052.71231118015</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>117</v>
-      </c>
-      <c r="J49" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
@@ -2039,19 +2035,11 @@
         <v>-55052.71231118015</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>118</v>
-      </c>
-      <c r="J50" t="n">
-        <v>117</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2080,19 +2068,11 @@
         <v>-54857.71231118015</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>118</v>
-      </c>
-      <c r="J51" t="n">
-        <v>117</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2154,14 +2134,10 @@
         <v>-54871.92141118015</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>117</v>
-      </c>
-      <c r="J53" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
@@ -2191,19 +2167,11 @@
         <v>-51883.55891118015</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>117</v>
-      </c>
-      <c r="J54" t="n">
-        <v>117</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2235,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>117</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2667,14 +2629,10 @@
         <v>-30280.59471118015</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>119</v>
-      </c>
-      <c r="J68" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
@@ -2704,1610 +2662,1340 @@
         <v>-30280.59471118015</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>119</v>
-      </c>
-      <c r="J69" t="n">
-        <v>119</v>
-      </c>
-      <c r="K69" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>119</v>
+      </c>
+      <c r="C70" t="n">
+        <v>119</v>
+      </c>
+      <c r="D70" t="n">
+        <v>119</v>
+      </c>
+      <c r="E70" t="n">
+        <v>119</v>
+      </c>
+      <c r="F70" t="n">
+        <v>100</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-30280.59471118015</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>118</v>
+      </c>
+      <c r="C71" t="n">
+        <v>118</v>
+      </c>
+      <c r="D71" t="n">
+        <v>118</v>
+      </c>
+      <c r="E71" t="n">
+        <v>118</v>
+      </c>
+      <c r="F71" t="n">
+        <v>31.3939</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-30311.98861118015</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>118</v>
+      </c>
+      <c r="C72" t="n">
+        <v>118</v>
+      </c>
+      <c r="D72" t="n">
+        <v>118</v>
+      </c>
+      <c r="E72" t="n">
+        <v>118</v>
+      </c>
+      <c r="F72" t="n">
+        <v>95</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-30311.98861118015</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>119</v>
+      </c>
+      <c r="C73" t="n">
+        <v>118</v>
+      </c>
+      <c r="D73" t="n">
+        <v>119</v>
+      </c>
+      <c r="E73" t="n">
+        <v>118</v>
+      </c>
+      <c r="F73" t="n">
+        <v>67</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-30311.98861118015</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>118</v>
+      </c>
+      <c r="C74" t="n">
+        <v>118</v>
+      </c>
+      <c r="D74" t="n">
+        <v>118</v>
+      </c>
+      <c r="E74" t="n">
+        <v>118</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2643.1445</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-30311.98861118015</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>118</v>
+      </c>
+      <c r="C75" t="n">
+        <v>118</v>
+      </c>
+      <c r="D75" t="n">
+        <v>118</v>
+      </c>
+      <c r="E75" t="n">
+        <v>118</v>
+      </c>
+      <c r="F75" t="n">
+        <v>22.7176</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-30311.98861118015</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>119</v>
+      </c>
+      <c r="C76" t="n">
+        <v>119</v>
+      </c>
+      <c r="D76" t="n">
+        <v>119</v>
+      </c>
+      <c r="E76" t="n">
+        <v>119</v>
+      </c>
+      <c r="F76" t="n">
+        <v>10</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-30301.98861118015</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>119</v>
+      </c>
+      <c r="C77" t="n">
+        <v>119</v>
+      </c>
+      <c r="D77" t="n">
+        <v>119</v>
+      </c>
+      <c r="E77" t="n">
+        <v>119</v>
+      </c>
+      <c r="F77" t="n">
+        <v>5</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-30301.98861118015</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>119</v>
+      </c>
+      <c r="C78" t="n">
+        <v>119</v>
+      </c>
+      <c r="D78" t="n">
+        <v>119</v>
+      </c>
+      <c r="E78" t="n">
+        <v>119</v>
+      </c>
+      <c r="F78" t="n">
+        <v>5</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-30301.98861118015</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>119</v>
+      </c>
+      <c r="C79" t="n">
+        <v>119</v>
+      </c>
+      <c r="D79" t="n">
+        <v>119</v>
+      </c>
+      <c r="E79" t="n">
+        <v>118</v>
+      </c>
+      <c r="F79" t="n">
+        <v>15</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-30301.98861118015</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>119</v>
+      </c>
+      <c r="C80" t="n">
+        <v>119</v>
+      </c>
+      <c r="D80" t="n">
+        <v>119</v>
+      </c>
+      <c r="E80" t="n">
+        <v>117</v>
+      </c>
+      <c r="F80" t="n">
+        <v>145</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-30301.98861118015</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>117</v>
+      </c>
+      <c r="C81" t="n">
+        <v>119</v>
+      </c>
+      <c r="D81" t="n">
+        <v>119</v>
+      </c>
+      <c r="E81" t="n">
+        <v>117</v>
+      </c>
+      <c r="F81" t="n">
+        <v>15</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-30301.98861118015</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>117</v>
+      </c>
+      <c r="C82" t="n">
+        <v>118</v>
+      </c>
+      <c r="D82" t="n">
+        <v>118</v>
+      </c>
+      <c r="E82" t="n">
+        <v>117</v>
+      </c>
+      <c r="F82" t="n">
+        <v>14.7051</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-30316.69371118015</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>118</v>
+      </c>
+      <c r="C83" t="n">
+        <v>117</v>
+      </c>
+      <c r="D83" t="n">
+        <v>118</v>
+      </c>
+      <c r="E83" t="n">
+        <v>117</v>
+      </c>
+      <c r="F83" t="n">
+        <v>10</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-30326.69371118015</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>118</v>
+      </c>
+      <c r="C84" t="n">
+        <v>119</v>
+      </c>
+      <c r="D84" t="n">
+        <v>119</v>
+      </c>
+      <c r="E84" t="n">
+        <v>117</v>
+      </c>
+      <c r="F84" t="n">
+        <v>24.946</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-30301.74771118015</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>117</v>
+      </c>
+      <c r="C85" t="n">
+        <v>117</v>
+      </c>
+      <c r="D85" t="n">
+        <v>117</v>
+      </c>
+      <c r="E85" t="n">
+        <v>117</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2653.1446</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-32954.89231118015</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>117</v>
+      </c>
+      <c r="C86" t="n">
+        <v>117</v>
+      </c>
+      <c r="D86" t="n">
+        <v>117</v>
+      </c>
+      <c r="E86" t="n">
+        <v>117</v>
+      </c>
+      <c r="F86" t="n">
+        <v>34</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-32954.89231118015</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>118</v>
+      </c>
+      <c r="C87" t="n">
+        <v>118</v>
+      </c>
+      <c r="D87" t="n">
+        <v>118</v>
+      </c>
+      <c r="E87" t="n">
+        <v>118</v>
+      </c>
+      <c r="F87" t="n">
+        <v>5</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-32949.89231118015</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>119</v>
+      </c>
+      <c r="C88" t="n">
+        <v>119</v>
+      </c>
+      <c r="D88" t="n">
+        <v>119</v>
+      </c>
+      <c r="E88" t="n">
+        <v>119</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-32939.89231118015</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>118</v>
+      </c>
+      <c r="C89" t="n">
+        <v>119</v>
+      </c>
+      <c r="D89" t="n">
+        <v>119</v>
+      </c>
+      <c r="E89" t="n">
+        <v>117</v>
+      </c>
+      <c r="F89" t="n">
+        <v>12</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-32939.89231118015</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>118</v>
+      </c>
+      <c r="C90" t="n">
+        <v>118</v>
+      </c>
+      <c r="D90" t="n">
+        <v>118</v>
+      </c>
+      <c r="E90" t="n">
+        <v>118</v>
+      </c>
+      <c r="F90" t="n">
+        <v>5</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-32944.89231118015</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>118</v>
+      </c>
+      <c r="C91" t="n">
+        <v>118</v>
+      </c>
+      <c r="D91" t="n">
+        <v>118</v>
+      </c>
+      <c r="E91" t="n">
+        <v>118</v>
+      </c>
+      <c r="F91" t="n">
+        <v>13.035</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-32944.89231118015</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>117</v>
+      </c>
+      <c r="C92" t="n">
+        <v>117</v>
+      </c>
+      <c r="D92" t="n">
+        <v>117</v>
+      </c>
+      <c r="E92" t="n">
+        <v>117</v>
+      </c>
+      <c r="F92" t="n">
+        <v>10</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-32954.89231118015</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>118</v>
+      </c>
+      <c r="C93" t="n">
+        <v>117</v>
+      </c>
+      <c r="D93" t="n">
+        <v>118</v>
+      </c>
+      <c r="E93" t="n">
+        <v>117</v>
+      </c>
+      <c r="F93" t="n">
+        <v>107.1</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-32954.89231118015</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>118</v>
+      </c>
+      <c r="C94" t="n">
+        <v>118</v>
+      </c>
+      <c r="D94" t="n">
+        <v>118</v>
+      </c>
+      <c r="E94" t="n">
+        <v>118</v>
+      </c>
+      <c r="F94" t="n">
+        <v>5</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-32949.89231118015</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>117</v>
+      </c>
+      <c r="C95" t="n">
+        <v>117</v>
+      </c>
+      <c r="D95" t="n">
+        <v>117</v>
+      </c>
+      <c r="E95" t="n">
+        <v>117</v>
+      </c>
+      <c r="F95" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-32958.08231118015</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>117</v>
+      </c>
+      <c r="C96" t="n">
+        <v>118</v>
+      </c>
+      <c r="D96" t="n">
+        <v>118</v>
+      </c>
+      <c r="E96" t="n">
+        <v>115</v>
+      </c>
+      <c r="F96" t="n">
+        <v>7027.7684</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-25930.31391118015</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>118</v>
+      </c>
+      <c r="C97" t="n">
+        <v>118</v>
+      </c>
+      <c r="D97" t="n">
+        <v>118</v>
+      </c>
+      <c r="E97" t="n">
+        <v>118</v>
+      </c>
+      <c r="F97" t="n">
+        <v>5</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-25930.31391118015</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>116</v>
+      </c>
+      <c r="C98" t="n">
+        <v>116</v>
+      </c>
+      <c r="D98" t="n">
+        <v>116</v>
+      </c>
+      <c r="E98" t="n">
+        <v>116</v>
+      </c>
+      <c r="F98" t="n">
+        <v>18.4275</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-25948.74141118015</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>117</v>
+      </c>
+      <c r="C99" t="n">
+        <v>117</v>
+      </c>
+      <c r="D99" t="n">
+        <v>117</v>
+      </c>
+      <c r="E99" t="n">
+        <v>117</v>
+      </c>
+      <c r="F99" t="n">
+        <v>3564.7857</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-22383.95571118015</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>116</v>
+      </c>
+      <c r="J99" t="n">
+        <v>116</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>118</v>
+      </c>
+      <c r="C100" t="n">
+        <v>117</v>
+      </c>
+      <c r="D100" t="n">
+        <v>118</v>
+      </c>
+      <c r="E100" t="n">
+        <v>117</v>
+      </c>
+      <c r="F100" t="n">
+        <v>15968.6119</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-22383.95571118015</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>116</v>
+      </c>
+      <c r="K100" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>119</v>
-      </c>
-      <c r="C70" t="n">
-        <v>119</v>
-      </c>
-      <c r="D70" t="n">
-        <v>119</v>
-      </c>
-      <c r="E70" t="n">
-        <v>119</v>
-      </c>
-      <c r="F70" t="n">
-        <v>100</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-30280.59471118015</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>119</v>
-      </c>
-      <c r="J70" t="n">
-        <v>119</v>
-      </c>
-      <c r="K70" t="inlineStr">
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>117</v>
+      </c>
+      <c r="C101" t="n">
+        <v>117</v>
+      </c>
+      <c r="D101" t="n">
+        <v>117</v>
+      </c>
+      <c r="E101" t="n">
+        <v>117</v>
+      </c>
+      <c r="F101" t="n">
+        <v>10.1819</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-22383.95571118015</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>116</v>
+      </c>
+      <c r="K101" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>118</v>
-      </c>
-      <c r="C71" t="n">
-        <v>118</v>
-      </c>
-      <c r="D71" t="n">
-        <v>118</v>
-      </c>
-      <c r="E71" t="n">
-        <v>118</v>
-      </c>
-      <c r="F71" t="n">
-        <v>31.3939</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-30311.98861118015</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>119</v>
-      </c>
-      <c r="J71" t="n">
-        <v>119</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>118</v>
-      </c>
-      <c r="C72" t="n">
-        <v>118</v>
-      </c>
-      <c r="D72" t="n">
-        <v>118</v>
-      </c>
-      <c r="E72" t="n">
-        <v>118</v>
-      </c>
-      <c r="F72" t="n">
-        <v>95</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-30311.98861118015</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>118</v>
-      </c>
-      <c r="J72" t="n">
-        <v>119</v>
-      </c>
-      <c r="K72" t="inlineStr">
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>117</v>
+      </c>
+      <c r="C102" t="n">
+        <v>115</v>
+      </c>
+      <c r="D102" t="n">
+        <v>117</v>
+      </c>
+      <c r="E102" t="n">
+        <v>115</v>
+      </c>
+      <c r="F102" t="n">
+        <v>15963.612</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-38347.56771118015</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>118</v>
+      </c>
+      <c r="C103" t="n">
+        <v>118</v>
+      </c>
+      <c r="D103" t="n">
+        <v>118</v>
+      </c>
+      <c r="E103" t="n">
+        <v>118</v>
+      </c>
+      <c r="F103" t="n">
+        <v>5</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-38342.56771118015</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>115</v>
+      </c>
+      <c r="J103" t="n">
+        <v>115</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>116</v>
+      </c>
+      <c r="C104" t="n">
+        <v>116</v>
+      </c>
+      <c r="D104" t="n">
+        <v>116</v>
+      </c>
+      <c r="E104" t="n">
+        <v>116</v>
+      </c>
+      <c r="F104" t="n">
+        <v>5.5282</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-38348.09591118015</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>115</v>
+      </c>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>119</v>
-      </c>
-      <c r="C73" t="n">
-        <v>118</v>
-      </c>
-      <c r="D73" t="n">
-        <v>119</v>
-      </c>
-      <c r="E73" t="n">
-        <v>118</v>
-      </c>
-      <c r="F73" t="n">
-        <v>67</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-30311.98861118015</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>118</v>
-      </c>
-      <c r="J73" t="n">
-        <v>119</v>
-      </c>
-      <c r="K73" t="inlineStr">
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>118</v>
+      </c>
+      <c r="C105" t="n">
+        <v>118</v>
+      </c>
+      <c r="D105" t="n">
+        <v>118</v>
+      </c>
+      <c r="E105" t="n">
+        <v>118</v>
+      </c>
+      <c r="F105" t="n">
+        <v>5</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-38343.09591118015</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>115</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>116</v>
+      </c>
+      <c r="C106" t="n">
+        <v>115</v>
+      </c>
+      <c r="D106" t="n">
+        <v>116</v>
+      </c>
+      <c r="E106" t="n">
+        <v>115</v>
+      </c>
+      <c r="F106" t="n">
+        <v>12.4385</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-38355.53441118015</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>117</v>
+      </c>
+      <c r="C107" t="n">
+        <v>117</v>
+      </c>
+      <c r="D107" t="n">
+        <v>117</v>
+      </c>
+      <c r="E107" t="n">
+        <v>117</v>
+      </c>
+      <c r="F107" t="n">
+        <v>50</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-38305.53441118015</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>115</v>
+      </c>
+      <c r="J107" t="n">
+        <v>115</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>116</v>
+      </c>
+      <c r="C108" t="n">
+        <v>117</v>
+      </c>
+      <c r="D108" t="n">
+        <v>117</v>
+      </c>
+      <c r="E108" t="n">
+        <v>115</v>
+      </c>
+      <c r="F108" t="n">
+        <v>11</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-38305.53441118015</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>115</v>
+      </c>
+      <c r="K108" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>118</v>
-      </c>
-      <c r="C74" t="n">
-        <v>118</v>
-      </c>
-      <c r="D74" t="n">
-        <v>118</v>
-      </c>
-      <c r="E74" t="n">
-        <v>118</v>
-      </c>
-      <c r="F74" t="n">
-        <v>2643.1445</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-30311.98861118015</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>118</v>
-      </c>
-      <c r="J74" t="n">
-        <v>119</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>118</v>
-      </c>
-      <c r="C75" t="n">
-        <v>118</v>
-      </c>
-      <c r="D75" t="n">
-        <v>118</v>
-      </c>
-      <c r="E75" t="n">
-        <v>118</v>
-      </c>
-      <c r="F75" t="n">
-        <v>22.7176</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-30311.98861118015</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>118</v>
-      </c>
-      <c r="J75" t="n">
-        <v>119</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>119</v>
-      </c>
-      <c r="C76" t="n">
-        <v>119</v>
-      </c>
-      <c r="D76" t="n">
-        <v>119</v>
-      </c>
-      <c r="E76" t="n">
-        <v>119</v>
-      </c>
-      <c r="F76" t="n">
-        <v>10</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-30301.98861118015</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>118</v>
-      </c>
-      <c r="J76" t="n">
-        <v>119</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>119</v>
-      </c>
-      <c r="C77" t="n">
-        <v>119</v>
-      </c>
-      <c r="D77" t="n">
-        <v>119</v>
-      </c>
-      <c r="E77" t="n">
-        <v>119</v>
-      </c>
-      <c r="F77" t="n">
-        <v>5</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-30301.98861118015</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>119</v>
-      </c>
-      <c r="J77" t="n">
-        <v>119</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>119</v>
-      </c>
-      <c r="C78" t="n">
-        <v>119</v>
-      </c>
-      <c r="D78" t="n">
-        <v>119</v>
-      </c>
-      <c r="E78" t="n">
-        <v>119</v>
-      </c>
-      <c r="F78" t="n">
-        <v>5</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-30301.98861118015</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>119</v>
-      </c>
-      <c r="J78" t="n">
-        <v>119</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>119</v>
-      </c>
-      <c r="C79" t="n">
-        <v>119</v>
-      </c>
-      <c r="D79" t="n">
-        <v>119</v>
-      </c>
-      <c r="E79" t="n">
-        <v>118</v>
-      </c>
-      <c r="F79" t="n">
-        <v>15</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-30301.98861118015</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>119</v>
-      </c>
-      <c r="J79" t="n">
-        <v>119</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>119</v>
-      </c>
-      <c r="C80" t="n">
-        <v>119</v>
-      </c>
-      <c r="D80" t="n">
-        <v>119</v>
-      </c>
-      <c r="E80" t="n">
-        <v>117</v>
-      </c>
-      <c r="F80" t="n">
-        <v>145</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-30301.98861118015</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>119</v>
-      </c>
-      <c r="J80" t="n">
-        <v>119</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>117</v>
-      </c>
-      <c r="C81" t="n">
-        <v>119</v>
-      </c>
-      <c r="D81" t="n">
-        <v>119</v>
-      </c>
-      <c r="E81" t="n">
-        <v>117</v>
-      </c>
-      <c r="F81" t="n">
-        <v>15</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-30301.98861118015</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>119</v>
-      </c>
-      <c r="J81" t="n">
-        <v>119</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>117</v>
-      </c>
-      <c r="C82" t="n">
-        <v>118</v>
-      </c>
-      <c r="D82" t="n">
-        <v>118</v>
-      </c>
-      <c r="E82" t="n">
-        <v>117</v>
-      </c>
-      <c r="F82" t="n">
-        <v>14.7051</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-30316.69371118015</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>119</v>
-      </c>
-      <c r="J82" t="n">
-        <v>119</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>118</v>
-      </c>
-      <c r="C83" t="n">
-        <v>117</v>
-      </c>
-      <c r="D83" t="n">
-        <v>118</v>
-      </c>
-      <c r="E83" t="n">
-        <v>117</v>
-      </c>
-      <c r="F83" t="n">
-        <v>10</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-30326.69371118015</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>118</v>
-      </c>
-      <c r="J83" t="n">
-        <v>119</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>118</v>
-      </c>
-      <c r="C84" t="n">
-        <v>119</v>
-      </c>
-      <c r="D84" t="n">
-        <v>119</v>
-      </c>
-      <c r="E84" t="n">
-        <v>117</v>
-      </c>
-      <c r="F84" t="n">
-        <v>24.946</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-30301.74771118015</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>117</v>
-      </c>
-      <c r="J84" t="n">
-        <v>119</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>117</v>
-      </c>
-      <c r="C85" t="n">
-        <v>117</v>
-      </c>
-      <c r="D85" t="n">
-        <v>117</v>
-      </c>
-      <c r="E85" t="n">
-        <v>117</v>
-      </c>
-      <c r="F85" t="n">
-        <v>2653.1446</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-32954.89231118015</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>119</v>
-      </c>
-      <c r="J85" t="n">
-        <v>119</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>117</v>
-      </c>
-      <c r="C86" t="n">
-        <v>117</v>
-      </c>
-      <c r="D86" t="n">
-        <v>117</v>
-      </c>
-      <c r="E86" t="n">
-        <v>117</v>
-      </c>
-      <c r="F86" t="n">
-        <v>34</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-32954.89231118015</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>117</v>
-      </c>
-      <c r="J86" t="n">
-        <v>119</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>118</v>
-      </c>
-      <c r="C87" t="n">
-        <v>118</v>
-      </c>
-      <c r="D87" t="n">
-        <v>118</v>
-      </c>
-      <c r="E87" t="n">
-        <v>118</v>
-      </c>
-      <c r="F87" t="n">
-        <v>5</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-32949.89231118015</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>117</v>
-      </c>
-      <c r="J87" t="n">
-        <v>119</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>119</v>
-      </c>
-      <c r="C88" t="n">
-        <v>119</v>
-      </c>
-      <c r="D88" t="n">
-        <v>119</v>
-      </c>
-      <c r="E88" t="n">
-        <v>119</v>
-      </c>
-      <c r="F88" t="n">
-        <v>10</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-32939.89231118015</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>118</v>
-      </c>
-      <c r="J88" t="n">
-        <v>119</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>118</v>
-      </c>
-      <c r="C89" t="n">
-        <v>119</v>
-      </c>
-      <c r="D89" t="n">
-        <v>119</v>
-      </c>
-      <c r="E89" t="n">
-        <v>117</v>
-      </c>
-      <c r="F89" t="n">
-        <v>12</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-32939.89231118015</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>119</v>
-      </c>
-      <c r="J89" t="n">
-        <v>119</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>118</v>
-      </c>
-      <c r="C90" t="n">
-        <v>118</v>
-      </c>
-      <c r="D90" t="n">
-        <v>118</v>
-      </c>
-      <c r="E90" t="n">
-        <v>118</v>
-      </c>
-      <c r="F90" t="n">
-        <v>5</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-32944.89231118015</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>119</v>
-      </c>
-      <c r="J90" t="n">
-        <v>119</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>118</v>
-      </c>
-      <c r="C91" t="n">
-        <v>118</v>
-      </c>
-      <c r="D91" t="n">
-        <v>118</v>
-      </c>
-      <c r="E91" t="n">
-        <v>118</v>
-      </c>
-      <c r="F91" t="n">
-        <v>13.035</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-32944.89231118015</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>118</v>
-      </c>
-      <c r="J91" t="n">
-        <v>119</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>117</v>
-      </c>
-      <c r="C92" t="n">
-        <v>117</v>
-      </c>
-      <c r="D92" t="n">
-        <v>117</v>
-      </c>
-      <c r="E92" t="n">
-        <v>117</v>
-      </c>
-      <c r="F92" t="n">
-        <v>10</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-32954.89231118015</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>118</v>
-      </c>
-      <c r="J92" t="n">
-        <v>119</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>118</v>
-      </c>
-      <c r="C93" t="n">
-        <v>117</v>
-      </c>
-      <c r="D93" t="n">
-        <v>118</v>
-      </c>
-      <c r="E93" t="n">
-        <v>117</v>
-      </c>
-      <c r="F93" t="n">
-        <v>107.1</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-32954.89231118015</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>117</v>
-      </c>
-      <c r="J93" t="n">
-        <v>119</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>118</v>
-      </c>
-      <c r="C94" t="n">
-        <v>118</v>
-      </c>
-      <c r="D94" t="n">
-        <v>118</v>
-      </c>
-      <c r="E94" t="n">
-        <v>118</v>
-      </c>
-      <c r="F94" t="n">
-        <v>5</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-32949.89231118015</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>117</v>
-      </c>
-      <c r="J94" t="n">
-        <v>119</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>117</v>
-      </c>
-      <c r="C95" t="n">
-        <v>117</v>
-      </c>
-      <c r="D95" t="n">
-        <v>117</v>
-      </c>
-      <c r="E95" t="n">
-        <v>117</v>
-      </c>
-      <c r="F95" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-32958.08231118015</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>118</v>
-      </c>
-      <c r="J95" t="n">
-        <v>119</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>117</v>
-      </c>
-      <c r="C96" t="n">
-        <v>118</v>
-      </c>
-      <c r="D96" t="n">
-        <v>118</v>
-      </c>
-      <c r="E96" t="n">
-        <v>115</v>
-      </c>
-      <c r="F96" t="n">
-        <v>7027.7684</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-25930.31391118015</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>117</v>
-      </c>
-      <c r="J96" t="n">
-        <v>119</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>118</v>
-      </c>
-      <c r="C97" t="n">
-        <v>118</v>
-      </c>
-      <c r="D97" t="n">
-        <v>118</v>
-      </c>
-      <c r="E97" t="n">
-        <v>118</v>
-      </c>
-      <c r="F97" t="n">
-        <v>5</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-25930.31391118015</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>118</v>
-      </c>
-      <c r="J97" t="n">
-        <v>119</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>116</v>
-      </c>
-      <c r="C98" t="n">
-        <v>116</v>
-      </c>
-      <c r="D98" t="n">
-        <v>116</v>
-      </c>
-      <c r="E98" t="n">
-        <v>116</v>
-      </c>
-      <c r="F98" t="n">
-        <v>18.4275</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-25948.74141118015</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>118</v>
-      </c>
-      <c r="J98" t="n">
-        <v>119</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>117</v>
-      </c>
-      <c r="C99" t="n">
-        <v>117</v>
-      </c>
-      <c r="D99" t="n">
-        <v>117</v>
-      </c>
-      <c r="E99" t="n">
-        <v>117</v>
-      </c>
-      <c r="F99" t="n">
-        <v>3564.7857</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-22383.95571118015</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>116</v>
-      </c>
-      <c r="J99" t="n">
-        <v>119</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>118</v>
-      </c>
-      <c r="C100" t="n">
-        <v>117</v>
-      </c>
-      <c r="D100" t="n">
-        <v>118</v>
-      </c>
-      <c r="E100" t="n">
-        <v>117</v>
-      </c>
-      <c r="F100" t="n">
-        <v>15968.6119</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-22383.95571118015</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>117</v>
-      </c>
-      <c r="J100" t="n">
-        <v>119</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>117</v>
-      </c>
-      <c r="C101" t="n">
-        <v>117</v>
-      </c>
-      <c r="D101" t="n">
-        <v>117</v>
-      </c>
-      <c r="E101" t="n">
-        <v>117</v>
-      </c>
-      <c r="F101" t="n">
-        <v>10.1819</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-22383.95571118015</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>117</v>
-      </c>
-      <c r="J101" t="n">
-        <v>119</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>117</v>
-      </c>
-      <c r="C102" t="n">
-        <v>115</v>
-      </c>
-      <c r="D102" t="n">
-        <v>117</v>
-      </c>
-      <c r="E102" t="n">
-        <v>115</v>
-      </c>
-      <c r="F102" t="n">
-        <v>15963.612</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-38347.56771118015</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>117</v>
-      </c>
-      <c r="J102" t="n">
-        <v>119</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>118</v>
-      </c>
-      <c r="C103" t="n">
-        <v>118</v>
-      </c>
-      <c r="D103" t="n">
-        <v>118</v>
-      </c>
-      <c r="E103" t="n">
-        <v>118</v>
-      </c>
-      <c r="F103" t="n">
-        <v>5</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-38342.56771118015</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>115</v>
-      </c>
-      <c r="J103" t="n">
-        <v>119</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>116</v>
-      </c>
-      <c r="C104" t="n">
-        <v>116</v>
-      </c>
-      <c r="D104" t="n">
-        <v>116</v>
-      </c>
-      <c r="E104" t="n">
-        <v>116</v>
-      </c>
-      <c r="F104" t="n">
-        <v>5.5282</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-38348.09591118015</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>119</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>118</v>
-      </c>
-      <c r="C105" t="n">
-        <v>118</v>
-      </c>
-      <c r="D105" t="n">
-        <v>118</v>
-      </c>
-      <c r="E105" t="n">
-        <v>118</v>
-      </c>
-      <c r="F105" t="n">
-        <v>5</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-38343.09591118015</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>116</v>
-      </c>
-      <c r="J105" t="n">
-        <v>119</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>116</v>
-      </c>
-      <c r="C106" t="n">
-        <v>115</v>
-      </c>
-      <c r="D106" t="n">
-        <v>116</v>
-      </c>
-      <c r="E106" t="n">
-        <v>115</v>
-      </c>
-      <c r="F106" t="n">
-        <v>12.4385</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-38355.53441118015</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>118</v>
-      </c>
-      <c r="J106" t="n">
-        <v>119</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>117</v>
-      </c>
-      <c r="C107" t="n">
-        <v>117</v>
-      </c>
-      <c r="D107" t="n">
-        <v>117</v>
-      </c>
-      <c r="E107" t="n">
-        <v>117</v>
-      </c>
-      <c r="F107" t="n">
-        <v>50</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-38305.53441118015</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>115</v>
-      </c>
-      <c r="J107" t="n">
-        <v>119</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>116</v>
-      </c>
-      <c r="C108" t="n">
-        <v>117</v>
-      </c>
-      <c r="D108" t="n">
-        <v>117</v>
-      </c>
-      <c r="E108" t="n">
-        <v>115</v>
-      </c>
-      <c r="F108" t="n">
-        <v>11</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-38305.53441118015</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>119</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4336,13 +4024,11 @@
         <v>-38305.53441118015</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4383,7 +4069,7 @@
         <v>117</v>
       </c>
       <c r="J110" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4424,7 +4110,7 @@
         <v>115</v>
       </c>
       <c r="J111" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4465,7 +4151,7 @@
         <v>115</v>
       </c>
       <c r="J112" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4506,7 +4192,7 @@
         <v>115</v>
       </c>
       <c r="J113" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4547,7 +4233,7 @@
         <v>117</v>
       </c>
       <c r="J114" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4588,7 +4274,7 @@
         <v>115</v>
       </c>
       <c r="J115" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4629,7 +4315,7 @@
         <v>117</v>
       </c>
       <c r="J116" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4664,13 +4350,11 @@
         <v>-38400.43591118015</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4711,7 +4395,7 @@
         <v>115</v>
       </c>
       <c r="J118" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4752,7 +4436,7 @@
         <v>115</v>
       </c>
       <c r="J119" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4793,7 +4477,7 @@
         <v>114</v>
       </c>
       <c r="J120" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4834,7 +4518,7 @@
         <v>114</v>
       </c>
       <c r="J121" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4875,7 +4559,7 @@
         <v>116</v>
       </c>
       <c r="J122" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4916,7 +4600,7 @@
         <v>114</v>
       </c>
       <c r="J123" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4957,7 +4641,7 @@
         <v>115</v>
       </c>
       <c r="J124" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4998,7 +4682,7 @@
         <v>114</v>
       </c>
       <c r="J125" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5039,7 +4723,7 @@
         <v>115</v>
       </c>
       <c r="J126" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5080,7 +4764,7 @@
         <v>114</v>
       </c>
       <c r="J127" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5121,7 +4805,7 @@
         <v>115</v>
       </c>
       <c r="J128" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5162,7 +4846,7 @@
         <v>115</v>
       </c>
       <c r="J129" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5203,7 +4887,7 @@
         <v>115</v>
       </c>
       <c r="J130" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5244,7 +4928,7 @@
         <v>116</v>
       </c>
       <c r="J131" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5285,7 +4969,7 @@
         <v>115</v>
       </c>
       <c r="J132" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5326,7 +5010,7 @@
         <v>116</v>
       </c>
       <c r="J133" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5361,13 +5045,11 @@
         <v>-73758.27271118015</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5402,13 +5084,11 @@
         <v>-73758.27271118015</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5443,13 +5123,11 @@
         <v>-73888.27271118015</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5484,13 +5162,11 @@
         <v>-73888.27271118015</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5525,13 +5201,11 @@
         <v>-73883.27271118015</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5566,13 +5240,11 @@
         <v>-77044.04681118015</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5613,7 +5285,7 @@
         <v>115</v>
       </c>
       <c r="J140" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5654,7 +5326,7 @@
         <v>116</v>
       </c>
       <c r="J141" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5689,13 +5361,11 @@
         <v>-70821.04681118015</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5730,13 +5400,11 @@
         <v>-70821.04681118015</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5771,13 +5439,11 @@
         <v>-70821.04681118015</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5812,13 +5478,11 @@
         <v>-51428.85081118015</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5857,7 +5521,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5896,7 +5560,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5935,7 +5599,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5974,7 +5638,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6013,7 +5677,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6052,7 +5716,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6091,7 +5755,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6130,7 +5794,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6169,7 +5833,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6208,7 +5872,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6247,7 +5911,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6286,7 +5950,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6325,7 +5989,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6364,7 +6028,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6403,7 +6067,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6442,7 +6106,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6477,13 +6141,11 @@
         <v>-51484.13711118016</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6518,13 +6180,11 @@
         <v>-51484.13711118016</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6559,13 +6219,11 @@
         <v>-51479.13711118016</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6600,13 +6258,11 @@
         <v>-51479.13711118016</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6641,13 +6297,11 @@
         <v>-51474.13711118016</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6682,13 +6336,11 @@
         <v>-25332.94691118016</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6723,23 +6375,23 @@
         <v>-25332.94691118016</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>123</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>1.064565217391304</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1.052631578947368</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6764,17 +6416,11 @@
         <v>-22185.47961118016</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>119</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6803,19 +6449,11 @@
         <v>-22185.47961118016</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>124</v>
-      </c>
-      <c r="J170" t="n">
-        <v>119</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6844,17 +6482,11 @@
         <v>-22180.47961118016</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>119</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6886,14 +6518,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>119</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6922,19 +6548,11 @@
         <v>-14075.68911118016</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>126</v>
-      </c>
-      <c r="J173" t="n">
-        <v>119</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6966,14 +6584,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>119</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7005,14 +6617,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>119</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7041,19 +6647,11 @@
         <v>22558.76588881985</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>124</v>
-      </c>
-      <c r="J176" t="n">
-        <v>119</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7085,14 +6683,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>119</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7124,14 +6716,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>119</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7163,14 +6749,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>119</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7202,14 +6782,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>119</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7241,14 +6815,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>119</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7280,14 +6848,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>119</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7319,14 +6881,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>119</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7358,14 +6914,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>119</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7397,14 +6947,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>119</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7436,14 +6980,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>119</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7475,14 +7013,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>119</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7514,14 +7046,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>119</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7553,14 +7079,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>119</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7592,14 +7112,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>119</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7631,14 +7145,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>119</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7670,14 +7178,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>119</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7709,14 +7211,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>119</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7748,14 +7244,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>119</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7787,14 +7277,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>119</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7826,14 +7310,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>119</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7865,14 +7343,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>119</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7904,14 +7376,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>119</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7943,14 +7409,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>119</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7982,14 +7442,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>119</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8018,23 +7472,15 @@
         <v>-33948.04661118015</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>119</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
-        <v>1.07063025210084</v>
-      </c>
-      <c r="M201" t="n">
-        <v>1.052631578947368</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8059,7 +7505,7 @@
         <v>-36549.94791118015</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8092,7 +7538,7 @@
         <v>-33976.12811118015</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8125,7 +7571,7 @@
         <v>-33992.12811118015</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8158,7 +7604,7 @@
         <v>-33988.12811118015</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8191,7 +7637,7 @@
         <v>-38714.50291118015</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8224,7 +7670,7 @@
         <v>-38714.50291118015</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8257,7 +7703,7 @@
         <v>-38732.32291118015</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8290,7 +7736,7 @@
         <v>-34136.41761118015</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8323,7 +7769,7 @@
         <v>-45323.27751118015</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8356,7 +7802,7 @@
         <v>-43928.27721118015</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8389,7 +7835,7 @@
         <v>-43928.27721118015</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8422,7 +7868,7 @@
         <v>-43941.64221118014</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8455,7 +7901,7 @@
         <v>-43937.64221118014</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8488,7 +7934,7 @@
         <v>-44870.91941118014</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8521,7 +7967,7 @@
         <v>-44866.91941118014</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8554,7 +8000,7 @@
         <v>-57406.42131118014</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8587,7 +8033,7 @@
         <v>-57413.66931118014</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8620,7 +8066,7 @@
         <v>-57413.66931118014</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8653,7 +8099,7 @@
         <v>-57430.66931118014</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8686,7 +8132,7 @@
         <v>-57417.66931118014</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8719,7 +8165,7 @@
         <v>-62137.96281118014</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8950,7 +8396,7 @@
         <v>-51511.31081118013</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9016,7 +8462,7 @@
         <v>-52946.40631118014</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9049,7 +8495,7 @@
         <v>-67503.60631118013</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -10369,10 +9815,14 @@
         <v>-62686.65621118013</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>121</v>
+      </c>
+      <c r="J272" t="n">
+        <v>121</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
@@ -10405,8 +9855,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>121</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10438,8 +9894,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>121</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10471,8 +9933,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>121</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10504,8 +9972,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>121</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10537,8 +10011,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>121</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10570,14 +10050,20 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>121</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
       <c r="M278" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest WOM.xlsx
+++ b/BackTest/2019-11-21 BackTest WOM.xlsx
@@ -451,7 +451,7 @@
         <v>12345.20097537447</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>12345.20097537447</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>5996.26317537447</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>6001.26317537447</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>5792.91457537447</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>5463.631175374469</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -2134,10 +2134,14 @@
         <v>-54871.92141118015</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>117</v>
+      </c>
+      <c r="J53" t="n">
+        <v>117</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
@@ -2167,11 +2171,19 @@
         <v>-51883.55891118015</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>117</v>
+      </c>
+      <c r="J54" t="n">
+        <v>117</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2215,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>117</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2662,10 +2680,14 @@
         <v>-30280.59471118015</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>119</v>
+      </c>
+      <c r="J69" t="n">
+        <v>119</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2695,11 +2717,19 @@
         <v>-30280.59471118015</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>119</v>
+      </c>
+      <c r="J70" t="n">
+        <v>119</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2758,19 @@
         <v>-30311.98861118015</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>119</v>
+      </c>
+      <c r="J71" t="n">
+        <v>119</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,10 +2799,14 @@
         <v>-30311.98861118015</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>118</v>
+      </c>
+      <c r="J72" t="n">
+        <v>118</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
@@ -2794,11 +2836,19 @@
         <v>-30311.98861118015</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>118</v>
+      </c>
+      <c r="J73" t="n">
+        <v>118</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +2877,19 @@
         <v>-30311.98861118015</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>118</v>
+      </c>
+      <c r="J74" t="n">
+        <v>118</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +2918,19 @@
         <v>-30311.98861118015</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>118</v>
+      </c>
+      <c r="J75" t="n">
+        <v>118</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +2959,19 @@
         <v>-30301.98861118015</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>118</v>
+      </c>
+      <c r="J76" t="n">
+        <v>118</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3000,19 @@
         <v>-30301.98861118015</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>119</v>
+      </c>
+      <c r="J77" t="n">
+        <v>118</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3041,19 @@
         <v>-30301.98861118015</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>119</v>
+      </c>
+      <c r="J78" t="n">
+        <v>118</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3082,19 @@
         <v>-30301.98861118015</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>119</v>
+      </c>
+      <c r="J79" t="n">
+        <v>118</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3123,19 @@
         <v>-30301.98861118015</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>119</v>
+      </c>
+      <c r="J80" t="n">
+        <v>118</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3164,19 @@
         <v>-30301.98861118015</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>119</v>
+      </c>
+      <c r="J81" t="n">
+        <v>118</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3205,19 @@
         <v>-30316.69371118015</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>119</v>
+      </c>
+      <c r="J82" t="n">
+        <v>118</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3246,19 @@
         <v>-30326.69371118015</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>118</v>
+      </c>
+      <c r="J83" t="n">
+        <v>118</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3287,19 @@
         <v>-30301.74771118015</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>117</v>
+      </c>
+      <c r="J84" t="n">
+        <v>118</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3328,19 @@
         <v>-32954.89231118015</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>119</v>
+      </c>
+      <c r="J85" t="n">
+        <v>118</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3369,19 @@
         <v>-32954.89231118015</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>117</v>
+      </c>
+      <c r="J86" t="n">
+        <v>118</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3410,19 @@
         <v>-32949.89231118015</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>117</v>
+      </c>
+      <c r="J87" t="n">
+        <v>118</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3451,19 @@
         <v>-32939.89231118015</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>118</v>
+      </c>
+      <c r="J88" t="n">
+        <v>118</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3492,19 @@
         <v>-32939.89231118015</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>119</v>
+      </c>
+      <c r="J89" t="n">
+        <v>118</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3533,19 @@
         <v>-32944.89231118015</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>119</v>
+      </c>
+      <c r="J90" t="n">
+        <v>118</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3574,19 @@
         <v>-32944.89231118015</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>118</v>
+      </c>
+      <c r="J91" t="n">
+        <v>118</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3615,19 @@
         <v>-32954.89231118015</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>118</v>
+      </c>
+      <c r="J92" t="n">
+        <v>118</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3656,19 @@
         <v>-32954.89231118015</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>117</v>
+      </c>
+      <c r="J93" t="n">
+        <v>118</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3697,19 @@
         <v>-32949.89231118015</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>117</v>
+      </c>
+      <c r="J94" t="n">
+        <v>118</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3738,19 @@
         <v>-32958.08231118015</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>118</v>
+      </c>
+      <c r="J95" t="n">
+        <v>118</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3779,19 @@
         <v>-25930.31391118015</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>117</v>
+      </c>
+      <c r="J96" t="n">
+        <v>118</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3820,19 @@
         <v>-25930.31391118015</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>118</v>
+      </c>
+      <c r="J97" t="n">
+        <v>118</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3864,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>118</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,15 +3900,17 @@
         <v>-22383.95571118015</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>116</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
+        <v>118</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3693,11 +3943,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -3732,11 +3982,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -3770,8 +4020,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>118</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3800,15 +4056,17 @@
         <v>-38342.56771118015</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>115</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
+        <v>118</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3841,11 +4099,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L104" t="n">
@@ -3880,11 +4138,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L105" t="n">
@@ -3918,8 +4176,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>118</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3948,15 +4212,17 @@
         <v>-38305.53441118015</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>115</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
+        <v>118</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3989,11 +4255,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L108" t="n">
@@ -4028,7 +4294,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4063,13 +4329,11 @@
         <v>-38310.86331118015</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4104,13 +4368,11 @@
         <v>-38310.86331118015</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4145,13 +4407,11 @@
         <v>-38310.86331118015</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4186,13 +4446,11 @@
         <v>-38305.86331118015</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4227,13 +4485,11 @@
         <v>-38310.86331118015</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4268,13 +4524,11 @@
         <v>-38304.43591118015</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4309,13 +4563,11 @@
         <v>-38400.43591118015</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4354,7 +4606,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4389,13 +4641,11 @@
         <v>-38400.43591118015</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4430,13 +4680,11 @@
         <v>-45331.96271118015</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4471,13 +4719,11 @@
         <v>-45331.96271118015</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4518,7 +4764,7 @@
         <v>114</v>
       </c>
       <c r="J121" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4553,13 +4799,11 @@
         <v>-46326.96271118015</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4594,13 +4838,11 @@
         <v>-46321.96271118015</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4635,13 +4877,11 @@
         <v>-61901.77401118015</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4676,13 +4916,11 @@
         <v>-61896.77401118015</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4723,7 +4961,7 @@
         <v>115</v>
       </c>
       <c r="J126" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4764,7 +5002,7 @@
         <v>114</v>
       </c>
       <c r="J127" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4805,7 +5043,7 @@
         <v>115</v>
       </c>
       <c r="J128" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4846,7 +5084,7 @@
         <v>115</v>
       </c>
       <c r="J129" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4887,7 +5125,7 @@
         <v>115</v>
       </c>
       <c r="J130" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -4928,7 +5166,7 @@
         <v>116</v>
       </c>
       <c r="J131" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -4969,7 +5207,7 @@
         <v>115</v>
       </c>
       <c r="J132" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5010,7 +5248,7 @@
         <v>116</v>
       </c>
       <c r="J133" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5045,11 +5283,13 @@
         <v>-73758.27271118015</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>116</v>
+      </c>
       <c r="J134" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5084,11 +5324,13 @@
         <v>-73758.27271118015</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>116</v>
+      </c>
       <c r="J135" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5123,11 +5365,13 @@
         <v>-73888.27271118015</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>116</v>
+      </c>
       <c r="J136" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5162,11 +5406,13 @@
         <v>-73888.27271118015</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>115</v>
+      </c>
       <c r="J137" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5201,11 +5447,13 @@
         <v>-73883.27271118015</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>115</v>
+      </c>
       <c r="J138" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5240,11 +5488,13 @@
         <v>-77044.04681118015</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>116</v>
+      </c>
       <c r="J139" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5285,7 +5535,7 @@
         <v>115</v>
       </c>
       <c r="J140" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5326,7 +5576,7 @@
         <v>116</v>
       </c>
       <c r="J141" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5361,11 +5611,13 @@
         <v>-70821.04681118015</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>116</v>
+      </c>
       <c r="J142" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5400,11 +5652,13 @@
         <v>-70821.04681118015</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>117</v>
+      </c>
       <c r="J143" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5439,11 +5693,13 @@
         <v>-70821.04681118015</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>117</v>
+      </c>
       <c r="J144" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5478,11 +5734,13 @@
         <v>-51428.85081118015</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>117</v>
+      </c>
       <c r="J145" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5517,11 +5775,13 @@
         <v>-45594.65111118015</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>118</v>
+      </c>
       <c r="J146" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5556,11 +5816,13 @@
         <v>-45599.65111118015</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>119</v>
+      </c>
       <c r="J147" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5595,11 +5857,13 @@
         <v>-45604.65111118015</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>118</v>
+      </c>
       <c r="J148" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5634,11 +5898,13 @@
         <v>-45001.84711118016</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>117</v>
+      </c>
       <c r="J149" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5677,7 +5943,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5712,11 +5978,13 @@
         <v>-45001.84711118016</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>117</v>
+      </c>
       <c r="J151" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5751,11 +6019,13 @@
         <v>-45009.84711118016</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>119</v>
+      </c>
       <c r="J152" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5790,11 +6060,13 @@
         <v>-45004.84711118016</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>117</v>
+      </c>
       <c r="J153" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5829,11 +6101,13 @@
         <v>-45004.84711118016</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>119</v>
+      </c>
       <c r="J154" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5872,7 +6146,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5907,11 +6181,13 @@
         <v>-50892.23371118015</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>120</v>
+      </c>
       <c r="J156" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5946,11 +6222,13 @@
         <v>-50887.23371118015</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>119</v>
+      </c>
       <c r="J157" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5985,11 +6263,13 @@
         <v>-50912.71981118016</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>120</v>
+      </c>
       <c r="J158" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6024,11 +6304,13 @@
         <v>-50907.71981118016</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>119</v>
+      </c>
       <c r="J159" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6063,11 +6345,13 @@
         <v>-50912.71981118016</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>120</v>
+      </c>
       <c r="J160" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6102,11 +6386,13 @@
         <v>-51489.13711118016</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>119</v>
+      </c>
       <c r="J161" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6141,11 +6427,13 @@
         <v>-51484.13711118016</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>118</v>
+      </c>
       <c r="J162" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6180,11 +6468,13 @@
         <v>-51484.13711118016</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>119</v>
+      </c>
       <c r="J163" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6219,11 +6509,13 @@
         <v>-51479.13711118016</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>119</v>
+      </c>
       <c r="J164" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6258,11 +6550,13 @@
         <v>-51479.13711118016</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>120</v>
+      </c>
       <c r="J165" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6297,11 +6591,13 @@
         <v>-51474.13711118016</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>120</v>
+      </c>
       <c r="J166" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6336,11 +6632,13 @@
         <v>-25332.94691118016</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>121</v>
+      </c>
       <c r="J167" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6375,23 +6673,21 @@
         <v>-25332.94691118016</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L168" t="n">
-        <v>1.064565217391304</v>
-      </c>
-      <c r="M168" t="n">
-        <v>1.052631578947368</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6416,11 +6712,17 @@
         <v>-22185.47961118016</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>118</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6449,11 +6751,17 @@
         <v>-22185.47961118016</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>118</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6482,11 +6790,17 @@
         <v>-22180.47961118016</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>118</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6518,8 +6832,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>118</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6551,8 +6871,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>118</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6584,8 +6910,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>118</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6617,8 +6949,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>118</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6650,8 +6988,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>118</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6683,8 +7027,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>118</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6713,15 +7063,23 @@
         <v>1319.973788819847</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>118</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>1.062796610169492</v>
+      </c>
+      <c r="M178" t="n">
+        <v>1.052631578947368</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7142,7 +7500,7 @@
         <v>40512.86608881985</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7175,7 +7533,7 @@
         <v>40512.86608881985</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7208,7 +7566,7 @@
         <v>40512.86608881985</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7241,7 +7599,7 @@
         <v>39115.00308881985</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7274,7 +7632,7 @@
         <v>39120.00308881985</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7307,7 +7665,7 @@
         <v>20997.48078881985</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7340,7 +7698,7 @@
         <v>21017.56018881985</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7373,7 +7731,7 @@
         <v>21017.56018881985</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7406,7 +7764,7 @@
         <v>23815.50318881985</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7439,7 +7797,7 @@
         <v>-10589.51721118015</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7472,7 +7830,7 @@
         <v>-33948.04661118015</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7505,7 +7863,7 @@
         <v>-36549.94791118015</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7538,7 +7896,7 @@
         <v>-33976.12811118015</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7637,7 +7995,7 @@
         <v>-38714.50291118015</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7670,7 +8028,7 @@
         <v>-38714.50291118015</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -9815,14 +10173,10 @@
         <v>-62686.65621118013</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>121</v>
-      </c>
-      <c r="J272" t="n">
-        <v>121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
@@ -9855,14 +10209,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>121</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9894,14 +10242,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>121</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9933,14 +10275,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>121</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9972,14 +10308,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>121</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10011,14 +10341,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>121</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10050,14 +10374,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>121</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-21 BackTest WOM.xlsx
+++ b/BackTest/2019-11-21 BackTest WOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M278"/>
+  <dimension ref="A1:L278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>12345.20097537447</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>537.6319999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>12345.20097537447</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>118</v>
+      </c>
+      <c r="I3" t="n">
+        <v>118</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,23 @@
         <v>6348.9378</v>
       </c>
       <c r="G4" t="n">
-        <v>5996.26317537447</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>118</v>
+      </c>
+      <c r="I4" t="n">
+        <v>118</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,21 @@
         <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>6001.26317537447</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>118</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +581,15 @@
         <v>208.3486</v>
       </c>
       <c r="G6" t="n">
-        <v>5792.91457537447</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +611,15 @@
         <v>329.2834</v>
       </c>
       <c r="G7" t="n">
-        <v>5463.631175374469</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +641,15 @@
         <v>64.6866</v>
       </c>
       <c r="G8" t="n">
-        <v>5463.631175374469</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +671,15 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>5468.631175374469</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +701,15 @@
         <v>9.2735</v>
       </c>
       <c r="G10" t="n">
-        <v>5459.357675374469</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +731,15 @@
         <v>84.03361344537815</v>
       </c>
       <c r="G11" t="n">
-        <v>5543.391288819847</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +761,15 @@
         <v>46.0359</v>
       </c>
       <c r="G12" t="n">
-        <v>5497.355388819848</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +791,15 @@
         <v>3944.6656</v>
       </c>
       <c r="G13" t="n">
-        <v>5497.355388819848</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +821,15 @@
         <v>34131.8989</v>
       </c>
       <c r="G14" t="n">
-        <v>-28634.54351118015</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +851,15 @@
         <v>112</v>
       </c>
       <c r="G15" t="n">
-        <v>-28634.54351118015</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +881,15 @@
         <v>94.6182</v>
       </c>
       <c r="G16" t="n">
-        <v>-28634.54351118015</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +911,15 @@
         <v>22401.7695</v>
       </c>
       <c r="G17" t="n">
-        <v>-51036.31301118015</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +941,15 @@
         <v>1769.2185</v>
       </c>
       <c r="G18" t="n">
-        <v>-49267.09451118015</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +971,15 @@
         <v>3843.1217</v>
       </c>
       <c r="G19" t="n">
-        <v>-53110.21621118015</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1001,15 @@
         <v>47</v>
       </c>
       <c r="G20" t="n">
-        <v>-53063.21621118015</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1031,15 @@
         <v>4.2736</v>
       </c>
       <c r="G21" t="n">
-        <v>-53058.94261118015</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1061,15 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>-53058.94261118015</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1091,15 @@
         <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>-53058.94261118015</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1121,15 @@
         <v>5</v>
       </c>
       <c r="G24" t="n">
-        <v>-53058.94261118015</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1151,15 @@
         <v>4.5916</v>
       </c>
       <c r="G25" t="n">
-        <v>-53063.53421118015</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1181,15 @@
         <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>-53063.53421118015</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1211,15 @@
         <v>1590.2266</v>
       </c>
       <c r="G27" t="n">
-        <v>-51473.30761118015</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1241,15 @@
         <v>239</v>
       </c>
       <c r="G28" t="n">
-        <v>-51712.30761118015</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1271,15 @@
         <v>5</v>
       </c>
       <c r="G29" t="n">
-        <v>-51707.30761118015</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1301,19 @@
         <v>222</v>
       </c>
       <c r="G30" t="n">
-        <v>-51929.30761118015</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="I30" t="n">
+        <v>116</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1335,21 @@
         <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>-51919.30761118015</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>116</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1371,21 @@
         <v>5</v>
       </c>
       <c r="G32" t="n">
-        <v>-51919.30761118015</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>116</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1407,15 @@
         <v>5</v>
       </c>
       <c r="G33" t="n">
-        <v>-51919.30761118015</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1437,15 @@
         <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>-51919.30761118015</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1467,15 @@
         <v>5</v>
       </c>
       <c r="G35" t="n">
-        <v>-51919.30761118015</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1497,15 @@
         <v>535.174075862069</v>
       </c>
       <c r="G36" t="n">
-        <v>-51919.30761118015</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1527,15 @@
         <v>254.2858</v>
       </c>
       <c r="G37" t="n">
-        <v>-52173.59341118015</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1557,15 @@
         <v>5</v>
       </c>
       <c r="G38" t="n">
-        <v>-52168.59341118015</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1587,15 @@
         <v>3703.8689</v>
       </c>
       <c r="G39" t="n">
-        <v>-55872.46231118015</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1617,15 @@
         <v>16</v>
       </c>
       <c r="G40" t="n">
-        <v>-55856.46231118015</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1647,15 @@
         <v>1212.836924137931</v>
       </c>
       <c r="G41" t="n">
-        <v>-55856.46231118015</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1677,15 @@
         <v>3684.2588</v>
       </c>
       <c r="G42" t="n">
-        <v>-55856.46231118015</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1707,15 @@
         <v>5</v>
       </c>
       <c r="G43" t="n">
-        <v>-55856.46231118015</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1737,15 @@
         <v>43</v>
       </c>
       <c r="G44" t="n">
-        <v>-55856.46231118015</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1767,15 @@
         <v>60</v>
       </c>
       <c r="G45" t="n">
-        <v>-55856.46231118015</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1797,15 @@
         <v>1527.6949</v>
       </c>
       <c r="G46" t="n">
-        <v>-54328.76741118015</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1827,15 @@
         <v>2036.6435</v>
       </c>
       <c r="G47" t="n">
-        <v>-52292.12391118015</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1857,15 @@
         <v>5695.6298</v>
       </c>
       <c r="G48" t="n">
-        <v>-57987.75371118015</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1887,15 @@
         <v>2935.0414</v>
       </c>
       <c r="G49" t="n">
-        <v>-55052.71231118015</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1917,15 @@
         <v>5</v>
       </c>
       <c r="G50" t="n">
-        <v>-55052.71231118015</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1947,15 @@
         <v>195</v>
       </c>
       <c r="G51" t="n">
-        <v>-54857.71231118015</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1977,15 @@
         <v>14.2091</v>
       </c>
       <c r="G52" t="n">
-        <v>-54871.92141118015</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,22 +2007,19 @@
         <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>-54871.92141118015</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="I53" t="n">
         <v>117</v>
       </c>
-      <c r="J53" t="n">
-        <v>117</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2168,26 +2041,23 @@
         <v>2988.3625</v>
       </c>
       <c r="G54" t="n">
-        <v>-51883.55891118015</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="I54" t="n">
         <v>117</v>
       </c>
-      <c r="J54" t="n">
-        <v>117</v>
-      </c>
-      <c r="K54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2209,24 +2079,21 @@
         <v>21626.532</v>
       </c>
       <c r="G55" t="n">
-        <v>-30257.02691118015</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>117</v>
-      </c>
-      <c r="K55" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>117</v>
+      </c>
+      <c r="J55" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2248,18 +2115,15 @@
         <v>9.7051</v>
       </c>
       <c r="G56" t="n">
-        <v>-30257.02691118015</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2281,18 +2145,15 @@
         <v>19.2678</v>
       </c>
       <c r="G57" t="n">
-        <v>-30276.29471118015</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2314,18 +2175,15 @@
         <v>12490.4852</v>
       </c>
       <c r="G58" t="n">
-        <v>-30276.29471118015</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2347,18 +2205,15 @@
         <v>313.4604</v>
       </c>
       <c r="G59" t="n">
-        <v>-30276.29471118015</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2380,18 +2235,15 @@
         <v>5</v>
       </c>
       <c r="G60" t="n">
-        <v>-30281.29471118015</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2413,18 +2265,15 @@
         <v>12.7574</v>
       </c>
       <c r="G61" t="n">
-        <v>-30281.29471118015</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2446,18 +2295,15 @@
         <v>0.7</v>
       </c>
       <c r="G62" t="n">
-        <v>-30280.59471118015</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2479,18 +2325,15 @@
         <v>5</v>
       </c>
       <c r="G63" t="n">
-        <v>-30275.59471118015</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2512,18 +2355,19 @@
         <v>5</v>
       </c>
       <c r="G64" t="n">
-        <v>-30280.59471118015</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>120</v>
+      </c>
+      <c r="I64" t="n">
+        <v>120</v>
+      </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2545,18 +2389,21 @@
         <v>5</v>
       </c>
       <c r="G65" t="n">
-        <v>-30280.59471118015</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>120</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2578,18 +2425,21 @@
         <v>4.2323</v>
       </c>
       <c r="G66" t="n">
-        <v>-30280.59471118015</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>120</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2611,18 +2461,15 @@
         <v>9.9687</v>
       </c>
       <c r="G67" t="n">
-        <v>-30280.59471118015</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2644,18 +2491,15 @@
         <v>15.799</v>
       </c>
       <c r="G68" t="n">
-        <v>-30280.59471118015</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2677,22 +2521,15 @@
         <v>150</v>
       </c>
       <c r="G69" t="n">
-        <v>-30280.59471118015</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>119</v>
-      </c>
-      <c r="J69" t="n">
-        <v>119</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2714,26 +2551,15 @@
         <v>100</v>
       </c>
       <c r="G70" t="n">
-        <v>-30280.59471118015</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>119</v>
-      </c>
-      <c r="J70" t="n">
-        <v>119</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2755,26 +2581,19 @@
         <v>31.3939</v>
       </c>
       <c r="G71" t="n">
-        <v>-30311.98861118015</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="I71" t="n">
         <v>119</v>
       </c>
-      <c r="J71" t="n">
-        <v>119</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2796,22 +2615,23 @@
         <v>95</v>
       </c>
       <c r="G72" t="n">
-        <v>-30311.98861118015</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="I72" t="n">
-        <v>118</v>
-      </c>
-      <c r="J72" t="n">
-        <v>118</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2833,26 +2653,23 @@
         <v>67</v>
       </c>
       <c r="G73" t="n">
-        <v>-30311.98861118015</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="I73" t="n">
-        <v>118</v>
-      </c>
-      <c r="J73" t="n">
-        <v>118</v>
-      </c>
-      <c r="K73" t="inlineStr">
+        <v>119</v>
+      </c>
+      <c r="J73" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2874,26 +2691,23 @@
         <v>2643.1445</v>
       </c>
       <c r="G74" t="n">
-        <v>-30311.98861118015</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="I74" t="n">
-        <v>118</v>
-      </c>
-      <c r="J74" t="n">
-        <v>118</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2915,26 +2729,23 @@
         <v>22.7176</v>
       </c>
       <c r="G75" t="n">
-        <v>-30311.98861118015</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="I75" t="n">
-        <v>118</v>
-      </c>
-      <c r="J75" t="n">
-        <v>118</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2956,26 +2767,23 @@
         <v>10</v>
       </c>
       <c r="G76" t="n">
-        <v>-30301.98861118015</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="I76" t="n">
-        <v>118</v>
-      </c>
-      <c r="J76" t="n">
-        <v>118</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2997,26 +2805,23 @@
         <v>5</v>
       </c>
       <c r="G77" t="n">
-        <v>-30301.98861118015</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="I77" t="n">
         <v>119</v>
       </c>
-      <c r="J77" t="n">
-        <v>118</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3038,26 +2843,23 @@
         <v>5</v>
       </c>
       <c r="G78" t="n">
-        <v>-30301.98861118015</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="I78" t="n">
         <v>119</v>
       </c>
-      <c r="J78" t="n">
-        <v>118</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3079,26 +2881,23 @@
         <v>15</v>
       </c>
       <c r="G79" t="n">
-        <v>-30301.98861118015</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="I79" t="n">
         <v>119</v>
       </c>
-      <c r="J79" t="n">
-        <v>118</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3120,26 +2919,23 @@
         <v>145</v>
       </c>
       <c r="G80" t="n">
-        <v>-30301.98861118015</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="I80" t="n">
         <v>119</v>
       </c>
-      <c r="J80" t="n">
-        <v>118</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3161,26 +2957,23 @@
         <v>15</v>
       </c>
       <c r="G81" t="n">
-        <v>-30301.98861118015</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="I81" t="n">
         <v>119</v>
       </c>
-      <c r="J81" t="n">
-        <v>118</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3202,26 +2995,23 @@
         <v>14.7051</v>
       </c>
       <c r="G82" t="n">
-        <v>-30316.69371118015</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="I82" t="n">
         <v>119</v>
       </c>
-      <c r="J82" t="n">
-        <v>118</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3243,26 +3033,23 @@
         <v>10</v>
       </c>
       <c r="G83" t="n">
-        <v>-30326.69371118015</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="I83" t="n">
-        <v>118</v>
-      </c>
-      <c r="J83" t="n">
-        <v>118</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3284,26 +3071,23 @@
         <v>24.946</v>
       </c>
       <c r="G84" t="n">
-        <v>-30301.74771118015</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="I84" t="n">
-        <v>117</v>
-      </c>
-      <c r="J84" t="n">
-        <v>118</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3325,26 +3109,23 @@
         <v>2653.1446</v>
       </c>
       <c r="G85" t="n">
-        <v>-32954.89231118015</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="I85" t="n">
         <v>119</v>
       </c>
-      <c r="J85" t="n">
-        <v>118</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3366,26 +3147,23 @@
         <v>34</v>
       </c>
       <c r="G86" t="n">
-        <v>-32954.89231118015</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="I86" t="n">
-        <v>117</v>
-      </c>
-      <c r="J86" t="n">
-        <v>118</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3407,26 +3185,23 @@
         <v>5</v>
       </c>
       <c r="G87" t="n">
-        <v>-32949.89231118015</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="I87" t="n">
-        <v>117</v>
-      </c>
-      <c r="J87" t="n">
-        <v>118</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3448,26 +3223,23 @@
         <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>-32939.89231118015</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="I88" t="n">
-        <v>118</v>
-      </c>
-      <c r="J88" t="n">
-        <v>118</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3489,26 +3261,23 @@
         <v>12</v>
       </c>
       <c r="G89" t="n">
-        <v>-32939.89231118015</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="I89" t="n">
         <v>119</v>
       </c>
-      <c r="J89" t="n">
-        <v>118</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3530,26 +3299,23 @@
         <v>5</v>
       </c>
       <c r="G90" t="n">
-        <v>-32944.89231118015</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="I90" t="n">
         <v>119</v>
       </c>
-      <c r="J90" t="n">
-        <v>118</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3571,26 +3337,23 @@
         <v>13.035</v>
       </c>
       <c r="G91" t="n">
-        <v>-32944.89231118015</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="I91" t="n">
-        <v>118</v>
-      </c>
-      <c r="J91" t="n">
-        <v>118</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3612,26 +3375,23 @@
         <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>-32954.89231118015</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="I92" t="n">
-        <v>118</v>
-      </c>
-      <c r="J92" t="n">
-        <v>118</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3653,26 +3413,23 @@
         <v>107.1</v>
       </c>
       <c r="G93" t="n">
-        <v>-32954.89231118015</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="I93" t="n">
-        <v>117</v>
-      </c>
-      <c r="J93" t="n">
-        <v>118</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3694,26 +3451,23 @@
         <v>5</v>
       </c>
       <c r="G94" t="n">
-        <v>-32949.89231118015</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="I94" t="n">
-        <v>117</v>
-      </c>
-      <c r="J94" t="n">
-        <v>118</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3735,26 +3489,23 @@
         <v>8.19</v>
       </c>
       <c r="G95" t="n">
-        <v>-32958.08231118015</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="I95" t="n">
-        <v>118</v>
-      </c>
-      <c r="J95" t="n">
-        <v>118</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3776,26 +3527,23 @@
         <v>7027.7684</v>
       </c>
       <c r="G96" t="n">
-        <v>-25930.31391118015</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="I96" t="n">
-        <v>117</v>
-      </c>
-      <c r="J96" t="n">
-        <v>118</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3817,26 +3565,23 @@
         <v>5</v>
       </c>
       <c r="G97" t="n">
-        <v>-25930.31391118015</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="I97" t="n">
-        <v>118</v>
-      </c>
-      <c r="J97" t="n">
-        <v>118</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3858,24 +3603,23 @@
         <v>18.4275</v>
       </c>
       <c r="G98" t="n">
-        <v>-25948.74141118015</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>118</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>118</v>
+      </c>
+      <c r="I98" t="n">
+        <v>119</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3897,24 +3641,23 @@
         <v>3564.7857</v>
       </c>
       <c r="G99" t="n">
-        <v>-22383.95571118015</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>118</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="I99" t="n">
+        <v>119</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3936,24 +3679,23 @@
         <v>15968.6119</v>
       </c>
       <c r="G100" t="n">
-        <v>-22383.95571118015</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>118</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>117</v>
+      </c>
+      <c r="I100" t="n">
+        <v>119</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3975,24 +3717,23 @@
         <v>10.1819</v>
       </c>
       <c r="G101" t="n">
-        <v>-22383.95571118015</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>118</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>117</v>
+      </c>
+      <c r="I101" t="n">
+        <v>119</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4014,24 +3755,23 @@
         <v>15963.612</v>
       </c>
       <c r="G102" t="n">
-        <v>-38347.56771118015</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>118</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>117</v>
+      </c>
+      <c r="I102" t="n">
+        <v>119</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4053,24 +3793,23 @@
         <v>5</v>
       </c>
       <c r="G103" t="n">
-        <v>-38342.56771118015</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>118</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="I103" t="n">
+        <v>119</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4092,24 +3831,23 @@
         <v>5.5282</v>
       </c>
       <c r="G104" t="n">
-        <v>-38348.09591118015</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>118</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>118</v>
+      </c>
+      <c r="I104" t="n">
+        <v>119</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4131,24 +3869,23 @@
         <v>5</v>
       </c>
       <c r="G105" t="n">
-        <v>-38343.09591118015</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>118</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>116</v>
+      </c>
+      <c r="I105" t="n">
+        <v>119</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4170,24 +3907,23 @@
         <v>12.4385</v>
       </c>
       <c r="G106" t="n">
-        <v>-38355.53441118015</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>118</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>118</v>
+      </c>
+      <c r="I106" t="n">
+        <v>119</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4209,24 +3945,23 @@
         <v>50</v>
       </c>
       <c r="G107" t="n">
-        <v>-38305.53441118015</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>118</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="I107" t="n">
+        <v>119</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4248,24 +3983,23 @@
         <v>11</v>
       </c>
       <c r="G108" t="n">
-        <v>-38305.53441118015</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>118</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>117</v>
+      </c>
+      <c r="I108" t="n">
+        <v>119</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4287,24 +4021,23 @@
         <v>15</v>
       </c>
       <c r="G109" t="n">
-        <v>-38305.53441118015</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>118</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>117</v>
+      </c>
+      <c r="I109" t="n">
+        <v>119</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4326,24 +4059,23 @@
         <v>5.3289</v>
       </c>
       <c r="G110" t="n">
-        <v>-38310.86331118015</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>118</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>117</v>
+      </c>
+      <c r="I110" t="n">
+        <v>119</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4365,24 +4097,23 @@
         <v>12.9934</v>
       </c>
       <c r="G111" t="n">
-        <v>-38310.86331118015</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>118</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="I111" t="n">
+        <v>119</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4404,24 +4135,23 @@
         <v>151</v>
       </c>
       <c r="G112" t="n">
-        <v>-38310.86331118015</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>118</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="I112" t="n">
+        <v>119</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4443,24 +4173,23 @@
         <v>5</v>
       </c>
       <c r="G113" t="n">
-        <v>-38305.86331118015</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>118</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="I113" t="n">
+        <v>119</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4482,24 +4211,21 @@
         <v>5</v>
       </c>
       <c r="G114" t="n">
-        <v>-38310.86331118015</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>118</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>119</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4521,24 +4247,21 @@
         <v>6.4274</v>
       </c>
       <c r="G115" t="n">
-        <v>-38304.43591118015</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>118</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>119</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4560,24 +4283,23 @@
         <v>96</v>
       </c>
       <c r="G116" t="n">
-        <v>-38400.43591118015</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>118</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>117</v>
+      </c>
+      <c r="I116" t="n">
+        <v>119</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4599,24 +4321,23 @@
         <v>356.89</v>
       </c>
       <c r="G117" t="n">
-        <v>-38400.43591118015</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>118</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="I117" t="n">
+        <v>119</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4638,24 +4359,23 @@
         <v>1631.1285</v>
       </c>
       <c r="G118" t="n">
-        <v>-38400.43591118015</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>118</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="I118" t="n">
+        <v>119</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4677,24 +4397,23 @@
         <v>6931.5268</v>
       </c>
       <c r="G119" t="n">
-        <v>-45331.96271118015</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>118</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="I119" t="n">
+        <v>119</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4716,24 +4435,23 @@
         <v>42.5459</v>
       </c>
       <c r="G120" t="n">
-        <v>-45331.96271118015</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>118</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>114</v>
+      </c>
+      <c r="I120" t="n">
+        <v>119</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4755,26 +4473,21 @@
         <v>5</v>
       </c>
       <c r="G121" t="n">
-        <v>-45326.96271118015</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="n">
-        <v>114</v>
-      </c>
-      <c r="J121" t="n">
-        <v>118</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4796,24 +4509,21 @@
         <v>1000</v>
       </c>
       <c r="G122" t="n">
-        <v>-46326.96271118015</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>118</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>119</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4835,24 +4545,21 @@
         <v>5</v>
       </c>
       <c r="G123" t="n">
-        <v>-46321.96271118015</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>118</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>119</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4874,24 +4581,21 @@
         <v>15579.8113</v>
       </c>
       <c r="G124" t="n">
-        <v>-61901.77401118015</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>118</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>119</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4913,24 +4617,21 @@
         <v>5</v>
       </c>
       <c r="G125" t="n">
-        <v>-61896.77401118015</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>118</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>119</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4952,26 +4653,21 @@
         <v>8601.0317</v>
       </c>
       <c r="G126" t="n">
-        <v>-70497.80571118015</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
-        <v>115</v>
-      </c>
-      <c r="J126" t="n">
-        <v>118</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4993,26 +4689,21 @@
         <v>5</v>
       </c>
       <c r="G127" t="n">
-        <v>-70492.80571118015</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="n">
-        <v>114</v>
-      </c>
-      <c r="J127" t="n">
-        <v>118</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5034,26 +4725,21 @@
         <v>13.2652</v>
       </c>
       <c r="G128" t="n">
-        <v>-70492.80571118015</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="n">
-        <v>115</v>
-      </c>
-      <c r="J128" t="n">
-        <v>118</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5075,26 +4761,21 @@
         <v>3275.467</v>
       </c>
       <c r="G129" t="n">
-        <v>-70492.80571118015</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="n">
-        <v>115</v>
-      </c>
-      <c r="J129" t="n">
-        <v>118</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5116,26 +4797,21 @@
         <v>5</v>
       </c>
       <c r="G130" t="n">
-        <v>-70487.80571118015</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="n">
-        <v>115</v>
-      </c>
-      <c r="J130" t="n">
-        <v>118</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5157,26 +4833,21 @@
         <v>3275.467</v>
       </c>
       <c r="G131" t="n">
-        <v>-73763.27271118015</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
-        <v>116</v>
-      </c>
-      <c r="J131" t="n">
-        <v>118</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5198,26 +4869,21 @@
         <v>5</v>
       </c>
       <c r="G132" t="n">
-        <v>-73758.27271118015</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="n">
-        <v>115</v>
-      </c>
-      <c r="J132" t="n">
-        <v>118</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5239,26 +4905,21 @@
         <v>3000</v>
       </c>
       <c r="G133" t="n">
-        <v>-73758.27271118015</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="n">
-        <v>116</v>
-      </c>
-      <c r="J133" t="n">
-        <v>118</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5280,26 +4941,21 @@
         <v>5</v>
       </c>
       <c r="G134" t="n">
-        <v>-73758.27271118015</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="n">
-        <v>116</v>
-      </c>
-      <c r="J134" t="n">
-        <v>118</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5321,26 +4977,21 @@
         <v>6043.7862</v>
       </c>
       <c r="G135" t="n">
-        <v>-73758.27271118015</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="n">
-        <v>116</v>
-      </c>
-      <c r="J135" t="n">
-        <v>118</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5362,26 +5013,21 @@
         <v>130</v>
       </c>
       <c r="G136" t="n">
-        <v>-73888.27271118015</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="n">
-        <v>116</v>
-      </c>
-      <c r="J136" t="n">
-        <v>118</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5403,26 +5049,21 @@
         <v>10</v>
       </c>
       <c r="G137" t="n">
-        <v>-73888.27271118015</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="n">
-        <v>115</v>
-      </c>
-      <c r="J137" t="n">
-        <v>118</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5444,26 +5085,21 @@
         <v>5</v>
       </c>
       <c r="G138" t="n">
-        <v>-73883.27271118015</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="n">
-        <v>115</v>
-      </c>
-      <c r="J138" t="n">
-        <v>118</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5485,26 +5121,21 @@
         <v>3160.7741</v>
       </c>
       <c r="G139" t="n">
-        <v>-77044.04681118015</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="n">
-        <v>116</v>
-      </c>
-      <c r="J139" t="n">
-        <v>118</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5526,26 +5157,21 @@
         <v>5</v>
       </c>
       <c r="G140" t="n">
-        <v>-77039.04681118015</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="n">
-        <v>115</v>
-      </c>
-      <c r="J140" t="n">
-        <v>118</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5567,26 +5193,21 @@
         <v>7912.6424</v>
       </c>
       <c r="G141" t="n">
-        <v>-77039.04681118015</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="n">
-        <v>116</v>
-      </c>
-      <c r="J141" t="n">
-        <v>118</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5608,26 +5229,21 @@
         <v>6218</v>
       </c>
       <c r="G142" t="n">
-        <v>-70821.04681118015</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="n">
-        <v>116</v>
-      </c>
-      <c r="J142" t="n">
-        <v>118</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5649,26 +5265,21 @@
         <v>120</v>
       </c>
       <c r="G143" t="n">
-        <v>-70821.04681118015</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="n">
-        <v>117</v>
-      </c>
-      <c r="J143" t="n">
-        <v>118</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5690,26 +5301,21 @@
         <v>200</v>
       </c>
       <c r="G144" t="n">
-        <v>-70821.04681118015</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="n">
-        <v>117</v>
-      </c>
-      <c r="J144" t="n">
-        <v>118</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5731,26 +5337,21 @@
         <v>19392.196</v>
       </c>
       <c r="G145" t="n">
-        <v>-51428.85081118015</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="n">
-        <v>117</v>
-      </c>
-      <c r="J145" t="n">
-        <v>118</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5772,26 +5373,21 @@
         <v>5834.1997</v>
       </c>
       <c r="G146" t="n">
-        <v>-45594.65111118015</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="n">
-        <v>118</v>
-      </c>
-      <c r="J146" t="n">
-        <v>118</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5813,26 +5409,21 @@
         <v>5</v>
       </c>
       <c r="G147" t="n">
-        <v>-45599.65111118015</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="n">
         <v>119</v>
       </c>
-      <c r="J147" t="n">
-        <v>118</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5854,26 +5445,21 @@
         <v>5</v>
       </c>
       <c r="G148" t="n">
-        <v>-45604.65111118015</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="n">
-        <v>118</v>
-      </c>
-      <c r="J148" t="n">
-        <v>118</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5895,26 +5481,21 @@
         <v>602.804</v>
       </c>
       <c r="G149" t="n">
-        <v>-45001.84711118016</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="n">
-        <v>117</v>
-      </c>
-      <c r="J149" t="n">
-        <v>118</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5936,24 +5517,21 @@
         <v>5</v>
       </c>
       <c r="G150" t="n">
-        <v>-45006.84711118016</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>118</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>119</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5975,26 +5553,21 @@
         <v>5</v>
       </c>
       <c r="G151" t="n">
-        <v>-45001.84711118016</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="n">
-        <v>117</v>
-      </c>
-      <c r="J151" t="n">
-        <v>118</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6016,26 +5589,21 @@
         <v>8</v>
       </c>
       <c r="G152" t="n">
-        <v>-45009.84711118016</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="n">
         <v>119</v>
       </c>
-      <c r="J152" t="n">
-        <v>118</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6057,26 +5625,21 @@
         <v>5</v>
       </c>
       <c r="G153" t="n">
-        <v>-45004.84711118016</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="n">
-        <v>117</v>
-      </c>
-      <c r="J153" t="n">
-        <v>118</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6098,26 +5661,21 @@
         <v>5877.7204</v>
       </c>
       <c r="G154" t="n">
-        <v>-45004.84711118016</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="n">
         <v>119</v>
       </c>
-      <c r="J154" t="n">
-        <v>118</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6139,24 +5697,21 @@
         <v>5</v>
       </c>
       <c r="G155" t="n">
-        <v>-44999.84711118016</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>118</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>119</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6178,26 +5733,21 @@
         <v>5892.3866</v>
       </c>
       <c r="G156" t="n">
-        <v>-50892.23371118015</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="n">
-        <v>120</v>
-      </c>
-      <c r="J156" t="n">
-        <v>118</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6219,26 +5769,21 @@
         <v>5</v>
       </c>
       <c r="G157" t="n">
-        <v>-50887.23371118015</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="n">
         <v>119</v>
       </c>
-      <c r="J157" t="n">
-        <v>118</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6260,26 +5805,21 @@
         <v>25.4861</v>
       </c>
       <c r="G158" t="n">
-        <v>-50912.71981118016</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="n">
-        <v>120</v>
-      </c>
-      <c r="J158" t="n">
-        <v>118</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6301,26 +5841,21 @@
         <v>5</v>
       </c>
       <c r="G159" t="n">
-        <v>-50907.71981118016</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
         <v>119</v>
       </c>
-      <c r="J159" t="n">
-        <v>118</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6342,26 +5877,21 @@
         <v>5</v>
       </c>
       <c r="G160" t="n">
-        <v>-50912.71981118016</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="n">
-        <v>120</v>
-      </c>
-      <c r="J160" t="n">
-        <v>118</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6383,26 +5913,21 @@
         <v>576.4173</v>
       </c>
       <c r="G161" t="n">
-        <v>-51489.13711118016</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="n">
         <v>119</v>
       </c>
-      <c r="J161" t="n">
-        <v>118</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6424,26 +5949,21 @@
         <v>5</v>
       </c>
       <c r="G162" t="n">
-        <v>-51484.13711118016</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="n">
-        <v>118</v>
-      </c>
-      <c r="J162" t="n">
-        <v>118</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6465,26 +5985,21 @@
         <v>491.9034</v>
       </c>
       <c r="G163" t="n">
-        <v>-51484.13711118016</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="n">
         <v>119</v>
       </c>
-      <c r="J163" t="n">
-        <v>118</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6506,26 +6021,21 @@
         <v>5</v>
       </c>
       <c r="G164" t="n">
-        <v>-51479.13711118016</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="n">
         <v>119</v>
       </c>
-      <c r="J164" t="n">
-        <v>118</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6547,26 +6057,21 @@
         <v>17129.0521</v>
       </c>
       <c r="G165" t="n">
-        <v>-51479.13711118016</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="n">
-        <v>120</v>
-      </c>
-      <c r="J165" t="n">
-        <v>118</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6588,26 +6093,21 @@
         <v>5</v>
       </c>
       <c r="G166" t="n">
-        <v>-51474.13711118016</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="n">
-        <v>120</v>
-      </c>
-      <c r="J166" t="n">
-        <v>118</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6629,26 +6129,21 @@
         <v>26141.1902</v>
       </c>
       <c r="G167" t="n">
-        <v>-25332.94691118016</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="n">
-        <v>121</v>
-      </c>
-      <c r="J167" t="n">
-        <v>118</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6670,24 +6165,21 @@
         <v>5434.89</v>
       </c>
       <c r="G168" t="n">
-        <v>-25332.94691118016</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>118</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>119</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6709,24 +6201,21 @@
         <v>3147.4673</v>
       </c>
       <c r="G169" t="n">
-        <v>-22185.47961118016</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>118</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>119</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6748,24 +6237,21 @@
         <v>3949.6656</v>
       </c>
       <c r="G170" t="n">
-        <v>-22185.47961118016</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>118</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>119</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6787,24 +6273,21 @@
         <v>5</v>
       </c>
       <c r="G171" t="n">
-        <v>-22180.47961118016</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>118</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>119</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6826,24 +6309,21 @@
         <v>8104.7905</v>
       </c>
       <c r="G172" t="n">
-        <v>-14075.68911118016</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>118</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>119</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6865,24 +6345,21 @@
         <v>12638.317</v>
       </c>
       <c r="G173" t="n">
-        <v>-14075.68911118016</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>118</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>119</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6904,24 +6381,21 @@
         <v>13690.4528</v>
       </c>
       <c r="G174" t="n">
-        <v>-27766.14191118016</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>118</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>119</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6943,24 +6417,21 @@
         <v>45</v>
       </c>
       <c r="G175" t="n">
-        <v>-27766.14191118016</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>118</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>119</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6982,24 +6453,21 @@
         <v>50324.9078</v>
       </c>
       <c r="G176" t="n">
-        <v>22558.76588881985</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>118</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>119</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7021,24 +6489,21 @@
         <v>33395.2635</v>
       </c>
       <c r="G177" t="n">
-        <v>22558.76588881985</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>118</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>119</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7060,26 +6525,21 @@
         <v>21238.7921</v>
       </c>
       <c r="G178" t="n">
-        <v>1319.973788819847</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>118</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1.062796610169492</v>
-      </c>
-      <c r="M178" t="n">
-        <v>1.052631578947368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>119</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7101,18 +6561,21 @@
         <v>341.4259</v>
       </c>
       <c r="G179" t="n">
-        <v>1661.399688819847</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>119</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7134,18 +6597,21 @@
         <v>9112.740900000001</v>
       </c>
       <c r="G180" t="n">
-        <v>-7451.341211180154</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>119</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7167,18 +6633,21 @@
         <v>804.0536</v>
       </c>
       <c r="G181" t="n">
-        <v>-8255.394811180153</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>119</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7200,18 +6669,21 @@
         <v>906.6771</v>
       </c>
       <c r="G182" t="n">
-        <v>-8255.394811180153</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>119</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7233,18 +6705,21 @@
         <v>6302.3559</v>
       </c>
       <c r="G183" t="n">
-        <v>-14557.75071118015</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>119</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7266,18 +6741,21 @@
         <v>4</v>
       </c>
       <c r="G184" t="n">
-        <v>-14553.75071118015</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>119</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7299,18 +6777,21 @@
         <v>4663.8587</v>
       </c>
       <c r="G185" t="n">
-        <v>-19217.60941118015</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>119</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7332,18 +6813,21 @@
         <v>339.3526</v>
       </c>
       <c r="G186" t="n">
-        <v>-18878.25681118016</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>119</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7365,18 +6849,21 @@
         <v>19893.0384</v>
       </c>
       <c r="G187" t="n">
-        <v>1014.781588819846</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>119</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7398,18 +6885,21 @@
         <v>10540.4089</v>
       </c>
       <c r="G188" t="n">
-        <v>1014.781588819846</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>119</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7431,18 +6921,21 @@
         <v>5</v>
       </c>
       <c r="G189" t="n">
-        <v>1019.781588819846</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>119</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7464,18 +6957,21 @@
         <v>27095.5861</v>
       </c>
       <c r="G190" t="n">
-        <v>28115.36768881985</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>119</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7497,18 +6993,21 @@
         <v>12397.4984</v>
       </c>
       <c r="G191" t="n">
-        <v>40512.86608881985</v>
-      </c>
-      <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>119</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7530,18 +7029,21 @@
         <v>8851.8341</v>
       </c>
       <c r="G192" t="n">
-        <v>40512.86608881985</v>
-      </c>
-      <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>119</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7563,18 +7065,21 @@
         <v>2983.6261</v>
       </c>
       <c r="G193" t="n">
-        <v>40512.86608881985</v>
-      </c>
-      <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>119</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7596,18 +7101,21 @@
         <v>1397.863</v>
       </c>
       <c r="G194" t="n">
-        <v>39115.00308881985</v>
-      </c>
-      <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>119</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7629,18 +7137,21 @@
         <v>5</v>
       </c>
       <c r="G195" t="n">
-        <v>39120.00308881985</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>119</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7662,18 +7173,21 @@
         <v>18122.5223</v>
       </c>
       <c r="G196" t="n">
-        <v>20997.48078881985</v>
-      </c>
-      <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>119</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7695,18 +7209,21 @@
         <v>20.0794</v>
       </c>
       <c r="G197" t="n">
-        <v>21017.56018881985</v>
-      </c>
-      <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>119</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7728,18 +7245,21 @@
         <v>3578.2607</v>
       </c>
       <c r="G198" t="n">
-        <v>21017.56018881985</v>
-      </c>
-      <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>119</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7761,18 +7281,21 @@
         <v>2797.943</v>
       </c>
       <c r="G199" t="n">
-        <v>23815.50318881985</v>
-      </c>
-      <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>119</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7794,18 +7317,21 @@
         <v>34405.0204</v>
       </c>
       <c r="G200" t="n">
-        <v>-10589.51721118015</v>
-      </c>
-      <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>119</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7827,18 +7353,21 @@
         <v>23358.5294</v>
       </c>
       <c r="G201" t="n">
-        <v>-33948.04661118015</v>
-      </c>
-      <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>119</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7860,18 +7389,21 @@
         <v>2601.9013</v>
       </c>
       <c r="G202" t="n">
-        <v>-36549.94791118015</v>
-      </c>
-      <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>119</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7893,18 +7425,23 @@
         <v>2573.8198</v>
       </c>
       <c r="G203" t="n">
-        <v>-33976.12811118015</v>
-      </c>
-      <c r="H203" t="n">
         <v>2</v>
       </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>119</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1.07063025210084</v>
+      </c>
       <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>1.052631578947368</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7926,18 +7463,15 @@
         <v>16</v>
       </c>
       <c r="G204" t="n">
-        <v>-33992.12811118015</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7959,18 +7493,15 @@
         <v>4</v>
       </c>
       <c r="G205" t="n">
-        <v>-33988.12811118015</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7992,18 +7523,15 @@
         <v>4726.3748</v>
       </c>
       <c r="G206" t="n">
-        <v>-38714.50291118015</v>
-      </c>
-      <c r="H206" t="n">
         <v>2</v>
       </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8025,18 +7553,15 @@
         <v>6817.1302</v>
       </c>
       <c r="G207" t="n">
-        <v>-38714.50291118015</v>
-      </c>
-      <c r="H207" t="n">
         <v>2</v>
       </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8058,18 +7583,15 @@
         <v>17.82</v>
       </c>
       <c r="G208" t="n">
-        <v>-38732.32291118015</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8091,18 +7613,15 @@
         <v>4595.9053</v>
       </c>
       <c r="G209" t="n">
-        <v>-34136.41761118015</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8124,18 +7643,15 @@
         <v>11186.8599</v>
       </c>
       <c r="G210" t="n">
-        <v>-45323.27751118015</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8157,18 +7673,15 @@
         <v>1395.0003</v>
       </c>
       <c r="G211" t="n">
-        <v>-43928.27721118015</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8190,18 +7703,15 @@
         <v>5368.175</v>
       </c>
       <c r="G212" t="n">
-        <v>-43928.27721118015</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8223,18 +7733,15 @@
         <v>13.365</v>
       </c>
       <c r="G213" t="n">
-        <v>-43941.64221118014</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8256,18 +7763,15 @@
         <v>4</v>
       </c>
       <c r="G214" t="n">
-        <v>-43937.64221118014</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8289,18 +7793,15 @@
         <v>933.2772</v>
       </c>
       <c r="G215" t="n">
-        <v>-44870.91941118014</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8322,18 +7823,15 @@
         <v>4</v>
       </c>
       <c r="G216" t="n">
-        <v>-44866.91941118014</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8355,18 +7853,15 @@
         <v>12539.5019</v>
       </c>
       <c r="G217" t="n">
-        <v>-57406.42131118014</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8388,18 +7883,15 @@
         <v>7.248</v>
       </c>
       <c r="G218" t="n">
-        <v>-57413.66931118014</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8421,18 +7913,15 @@
         <v>1604</v>
       </c>
       <c r="G219" t="n">
-        <v>-57413.66931118014</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8454,18 +7943,15 @@
         <v>17</v>
       </c>
       <c r="G220" t="n">
-        <v>-57430.66931118014</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8487,18 +7973,15 @@
         <v>13</v>
       </c>
       <c r="G221" t="n">
-        <v>-57417.66931118014</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8520,18 +8003,15 @@
         <v>4720.2935</v>
       </c>
       <c r="G222" t="n">
-        <v>-62137.96281118014</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8553,18 +8033,15 @@
         <v>4</v>
       </c>
       <c r="G223" t="n">
-        <v>-62133.96281118014</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8586,18 +8063,15 @@
         <v>17</v>
       </c>
       <c r="G224" t="n">
-        <v>-62150.96281118014</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8619,18 +8093,15 @@
         <v>4</v>
       </c>
       <c r="G225" t="n">
-        <v>-62146.96281118014</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8652,18 +8123,15 @@
         <v>2555.7163</v>
       </c>
       <c r="G226" t="n">
-        <v>-64702.67911118014</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8685,18 +8153,15 @@
         <v>2930.7265</v>
       </c>
       <c r="G227" t="n">
-        <v>-67633.40561118013</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8718,18 +8183,15 @@
         <v>13078.3258</v>
       </c>
       <c r="G228" t="n">
-        <v>-54555.07981118013</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8751,18 +8213,15 @@
         <v>3043.769</v>
       </c>
       <c r="G229" t="n">
-        <v>-51511.31081118013</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8784,18 +8243,15 @@
         <v>9099.228300000001</v>
       </c>
       <c r="G230" t="n">
-        <v>-51511.31081118013</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8817,18 +8273,15 @@
         <v>1435.0955</v>
       </c>
       <c r="G231" t="n">
-        <v>-52946.40631118014</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8850,18 +8303,15 @@
         <v>14557.2</v>
       </c>
       <c r="G232" t="n">
-        <v>-67503.60631118013</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8883,18 +8333,15 @@
         <v>841.9179</v>
       </c>
       <c r="G233" t="n">
-        <v>-68345.52421118013</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8916,18 +8363,15 @@
         <v>17676.1722</v>
       </c>
       <c r="G234" t="n">
-        <v>-50669.35201118013</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8949,18 +8393,15 @@
         <v>10</v>
       </c>
       <c r="G235" t="n">
-        <v>-50659.35201118013</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8982,18 +8423,15 @@
         <v>115</v>
       </c>
       <c r="G236" t="n">
-        <v>-50659.35201118013</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9015,18 +8453,15 @@
         <v>395.625</v>
       </c>
       <c r="G237" t="n">
-        <v>-51054.97701118013</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9048,18 +8483,15 @@
         <v>24.4699</v>
       </c>
       <c r="G238" t="n">
-        <v>-51054.97701118013</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9081,18 +8513,15 @@
         <v>4</v>
       </c>
       <c r="G239" t="n">
-        <v>-51050.97701118013</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9114,18 +8543,15 @@
         <v>9</v>
       </c>
       <c r="G240" t="n">
-        <v>-51050.97701118013</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9147,18 +8573,15 @@
         <v>5</v>
       </c>
       <c r="G241" t="n">
-        <v>-51055.97701118013</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9180,18 +8603,15 @@
         <v>118.6009</v>
       </c>
       <c r="G242" t="n">
-        <v>-50937.37611118014</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9213,18 +8633,15 @@
         <v>4</v>
       </c>
       <c r="G243" t="n">
-        <v>-50933.37611118014</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9246,18 +8663,15 @@
         <v>23</v>
       </c>
       <c r="G244" t="n">
-        <v>-50956.37611118014</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9279,18 +8693,15 @@
         <v>5</v>
       </c>
       <c r="G245" t="n">
-        <v>-50961.37611118014</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9312,18 +8723,15 @@
         <v>7.3905</v>
       </c>
       <c r="G246" t="n">
-        <v>-50953.98561118013</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9345,18 +8753,15 @@
         <v>5</v>
       </c>
       <c r="G247" t="n">
-        <v>-50958.98561118013</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9378,18 +8783,15 @@
         <v>4</v>
       </c>
       <c r="G248" t="n">
-        <v>-50954.98561118013</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9411,18 +8813,15 @@
         <v>2226</v>
       </c>
       <c r="G249" t="n">
-        <v>-50954.98561118013</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9444,18 +8843,15 @@
         <v>6063.6394</v>
       </c>
       <c r="G250" t="n">
-        <v>-50954.98561118013</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9477,18 +8873,15 @@
         <v>100</v>
       </c>
       <c r="G251" t="n">
-        <v>-50954.98561118013</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9510,18 +8903,15 @@
         <v>215</v>
       </c>
       <c r="G252" t="n">
-        <v>-50739.98561118013</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9543,18 +8933,15 @@
         <v>4</v>
       </c>
       <c r="G253" t="n">
-        <v>-50739.98561118013</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9576,18 +8963,15 @@
         <v>8.134920634920634</v>
       </c>
       <c r="G254" t="n">
-        <v>-50739.98561118013</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9609,18 +8993,15 @@
         <v>2104.4157</v>
       </c>
       <c r="G255" t="n">
-        <v>-52844.40131118013</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9642,18 +9023,15 @@
         <v>6192.4479</v>
       </c>
       <c r="G256" t="n">
-        <v>-52844.40131118013</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9675,18 +9053,15 @@
         <v>795.8377</v>
       </c>
       <c r="G257" t="n">
-        <v>-53640.23901118014</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9708,18 +9083,15 @@
         <v>1664.1318</v>
       </c>
       <c r="G258" t="n">
-        <v>-53640.23901118014</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9741,18 +9113,15 @@
         <v>70.3921</v>
       </c>
       <c r="G259" t="n">
-        <v>-53640.23901118014</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9774,18 +9143,15 @@
         <v>11000.7276</v>
       </c>
       <c r="G260" t="n">
-        <v>-64640.96661118013</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9807,18 +9173,15 @@
         <v>411.6131</v>
       </c>
       <c r="G261" t="n">
-        <v>-64640.96661118013</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9840,18 +9203,15 @@
         <v>1145.6896</v>
       </c>
       <c r="G262" t="n">
-        <v>-65786.65621118013</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9873,18 +9233,15 @@
         <v>6059.6394</v>
       </c>
       <c r="G263" t="n">
-        <v>-65786.65621118013</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9906,18 +9263,15 @@
         <v>8.1349</v>
       </c>
       <c r="G264" t="n">
-        <v>-65786.65621118013</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9939,18 +9293,15 @@
         <v>611.6123</v>
       </c>
       <c r="G265" t="n">
-        <v>-65786.65621118013</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9972,18 +9323,15 @@
         <v>105</v>
       </c>
       <c r="G266" t="n">
-        <v>-65681.65621118013</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10005,18 +9353,15 @@
         <v>18510.0613</v>
       </c>
       <c r="G267" t="n">
-        <v>-65681.65621118013</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10038,18 +9383,15 @@
         <v>5</v>
       </c>
       <c r="G268" t="n">
-        <v>-65686.65621118013</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10071,18 +9413,15 @@
         <v>3000</v>
       </c>
       <c r="G269" t="n">
-        <v>-62686.65621118013</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10104,18 +9443,15 @@
         <v>4854.0545</v>
       </c>
       <c r="G270" t="n">
-        <v>-62686.65621118013</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10137,18 +9473,15 @@
         <v>5</v>
       </c>
       <c r="G271" t="n">
-        <v>-62681.65621118013</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10170,18 +9503,15 @@
         <v>5</v>
       </c>
       <c r="G272" t="n">
-        <v>-62686.65621118013</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10203,18 +9533,15 @@
         <v>2793.0893</v>
       </c>
       <c r="G273" t="n">
-        <v>-59893.56691118013</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10236,18 +9563,15 @@
         <v>232.6085</v>
       </c>
       <c r="G274" t="n">
-        <v>-59893.56691118013</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10269,18 +9593,15 @@
         <v>1018.4957</v>
       </c>
       <c r="G275" t="n">
-        <v>-58875.07121118013</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10302,18 +9623,15 @@
         <v>12</v>
       </c>
       <c r="G276" t="n">
-        <v>-58875.07121118013</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10335,18 +9653,15 @@
         <v>222.2682</v>
       </c>
       <c r="G277" t="n">
-        <v>-59097.33941118013</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10368,18 +9683,15 @@
         <v>5</v>
       </c>
       <c r="G278" t="n">
-        <v>-59092.33941118013</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
